--- a/Outputs/4. Prosumer percentage constrained/Grid Search/Output Files/25/Output_5_0.xlsx
+++ b/Outputs/4. Prosumer percentage constrained/Grid Search/Output Files/25/Output_5_0.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-3782872.009684316</v>
+        <v>-3783584.31150736</v>
       </c>
     </row>
     <row r="7">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>632041.4518058543</v>
+        <v>632041.4518058544</v>
       </c>
     </row>
     <row r="9">
@@ -1212,55 +1212,55 @@
         <v>0</v>
       </c>
       <c r="C9" t="n">
+        <v>0</v>
+      </c>
+      <c r="D9" t="n">
+        <v>0</v>
+      </c>
+      <c r="E9" t="n">
+        <v>0</v>
+      </c>
+      <c r="F9" t="n">
+        <v>0</v>
+      </c>
+      <c r="G9" t="n">
+        <v>0</v>
+      </c>
+      <c r="H9" t="n">
+        <v>0</v>
+      </c>
+      <c r="I9" t="n">
+        <v>0</v>
+      </c>
+      <c r="J9" t="n">
+        <v>0</v>
+      </c>
+      <c r="K9" t="n">
+        <v>0</v>
+      </c>
+      <c r="L9" t="n">
+        <v>0</v>
+      </c>
+      <c r="M9" t="n">
+        <v>0</v>
+      </c>
+      <c r="N9" t="n">
+        <v>0</v>
+      </c>
+      <c r="O9" t="n">
+        <v>0</v>
+      </c>
+      <c r="P9" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q9" t="n">
         <v>3.199249640013477</v>
       </c>
-      <c r="D9" t="n">
-        <v>0</v>
-      </c>
-      <c r="E9" t="n">
-        <v>0</v>
-      </c>
-      <c r="F9" t="n">
-        <v>2.817899082923868</v>
-      </c>
-      <c r="G9" t="n">
-        <v>0</v>
-      </c>
-      <c r="H9" t="n">
-        <v>0</v>
-      </c>
-      <c r="I9" t="n">
-        <v>0</v>
-      </c>
-      <c r="J9" t="n">
-        <v>0</v>
-      </c>
-      <c r="K9" t="n">
-        <v>0</v>
-      </c>
-      <c r="L9" t="n">
-        <v>0</v>
-      </c>
-      <c r="M9" t="n">
-        <v>0</v>
-      </c>
-      <c r="N9" t="n">
-        <v>0</v>
-      </c>
-      <c r="O9" t="n">
-        <v>0</v>
-      </c>
-      <c r="P9" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q9" t="n">
-        <v>0</v>
-      </c>
       <c r="R9" t="n">
+        <v>0</v>
+      </c>
+      <c r="S9" t="n">
         <v>3.199249640013477</v>
-      </c>
-      <c r="S9" t="n">
-        <v>0</v>
       </c>
       <c r="T9" t="n">
         <v>0</v>
@@ -1278,7 +1278,7 @@
         <v>0</v>
       </c>
       <c r="Y9" t="n">
-        <v>0</v>
+        <v>2.817899082923868</v>
       </c>
     </row>
     <row r="10">
@@ -1367,7 +1367,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>183.75964921313</v>
+        <v>188.4979333192472</v>
       </c>
       <c r="C11" t="n">
         <v>0</v>
@@ -1385,10 +1385,10 @@
         <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>168.8731344554827</v>
       </c>
       <c r="I11" t="n">
-        <v>62.86150506240818</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1415,22 +1415,22 @@
         <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>16.73328122929895</v>
+        <v>16.73328122929883</v>
       </c>
       <c r="S11" t="n">
-        <v>49.36873040538033</v>
+        <v>49.36873040538035</v>
       </c>
       <c r="T11" t="n">
-        <v>44.31761724675138</v>
+        <v>44.31761724675144</v>
       </c>
       <c r="U11" t="n">
-        <v>72.00227733958218</v>
+        <v>72.00227733958206</v>
       </c>
       <c r="V11" t="n">
         <v>142.7315194560842</v>
       </c>
       <c r="W11" t="n">
-        <v>159.748199672699</v>
+        <v>48.99828617350781</v>
       </c>
       <c r="X11" t="n">
         <v>0</v>
@@ -1449,7 +1449,7 @@
         <v>0</v>
       </c>
       <c r="C12" t="n">
-        <v>9.369887371298063</v>
+        <v>9.369887371298091</v>
       </c>
       <c r="D12" t="n">
         <v>0</v>
@@ -1494,28 +1494,28 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>134.7198007890777</v>
       </c>
       <c r="S12" t="n">
-        <v>13.44252716693645</v>
+        <v>156.1313643197735</v>
       </c>
       <c r="T12" t="n">
+        <v>36.82265945242245</v>
+      </c>
+      <c r="U12" t="n">
+        <v>59.07980534382078</v>
+      </c>
+      <c r="V12" t="n">
+        <v>62.50065676233442</v>
+      </c>
+      <c r="W12" t="n">
         <v>188.4979333192472</v>
       </c>
-      <c r="U12" t="n">
-        <v>188.4979333192472</v>
-      </c>
-      <c r="V12" t="n">
-        <v>158.7575067573014</v>
-      </c>
-      <c r="W12" t="n">
-        <v>88.55631942394373</v>
-      </c>
       <c r="X12" t="n">
-        <v>39.16465028640275</v>
+        <v>39.16465028640278</v>
       </c>
       <c r="Y12" t="n">
-        <v>45.23602198095776</v>
+        <v>45.23602198095779</v>
       </c>
     </row>
     <row r="13">
@@ -1573,28 +1573,28 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>25.28169700256626</v>
+        <v>25.28169700256629</v>
       </c>
       <c r="S13" t="n">
-        <v>57.28978021311271</v>
+        <v>57.28978021311273</v>
       </c>
       <c r="T13" t="n">
-        <v>45.61329429725515</v>
+        <v>45.61329429725518</v>
       </c>
       <c r="U13" t="n">
         <v>110.5082928154978</v>
       </c>
       <c r="V13" t="n">
-        <v>66.96075103138205</v>
+        <v>66.96075103138207</v>
       </c>
       <c r="W13" t="n">
         <v>112.1624429362675</v>
       </c>
       <c r="X13" t="n">
-        <v>43.77119125517467</v>
+        <v>43.7711912551747</v>
       </c>
       <c r="Y13" t="n">
-        <v>38.99300866110056</v>
+        <v>38.99300866110059</v>
       </c>
     </row>
     <row r="14">
@@ -1604,7 +1604,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>183.7596492131297</v>
+        <v>188.4979333192472</v>
       </c>
       <c r="C14" t="n">
         <v>0</v>
@@ -1619,13 +1619,13 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>137.9932353499672</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>62.86150506240844</v>
+        <v>62.86150506240826</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1652,19 +1652,19 @@
         <v>0</v>
       </c>
       <c r="R14" t="n">
-        <v>16.73328122929904</v>
+        <v>16.73328122929895</v>
       </c>
       <c r="S14" t="n">
         <v>49.36873040538038</v>
       </c>
       <c r="T14" t="n">
-        <v>44.31761724675145</v>
+        <v>44.31761724675147</v>
       </c>
       <c r="U14" t="n">
         <v>72.00227733958195</v>
       </c>
       <c r="V14" t="n">
-        <v>142.7315194560842</v>
+        <v>0</v>
       </c>
       <c r="W14" t="n">
         <v>159.7481996726991</v>
@@ -1728,28 +1728,28 @@
         <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>6.869455874161041</v>
+        <v>6.869455874161048</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
       </c>
       <c r="S15" t="n">
-        <v>13.44252716693651</v>
+        <v>188.4979333192472</v>
       </c>
       <c r="T15" t="n">
-        <v>188.4979333192472</v>
+        <v>106.2507727062555</v>
       </c>
       <c r="U15" t="n">
         <v>59.07980534382081</v>
       </c>
       <c r="V15" t="n">
-        <v>62.50065676233444</v>
+        <v>188.4979333192472</v>
       </c>
       <c r="W15" t="n">
-        <v>188.4979333192472</v>
+        <v>88.55631942394379</v>
       </c>
       <c r="X15" t="n">
-        <v>158.0285584873311</v>
+        <v>39.1646502864028</v>
       </c>
       <c r="Y15" t="n">
         <v>45.23602198095782</v>
@@ -1841,25 +1841,25 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>76.63956945084891</v>
+        <v>76.63956945084897</v>
       </c>
       <c r="C17" t="n">
-        <v>52.7578264541944</v>
+        <v>52.75782645419446</v>
       </c>
       <c r="D17" t="n">
-        <v>40.32448871524286</v>
+        <v>40.32448871524292</v>
       </c>
       <c r="E17" t="n">
-        <v>74.03124113465174</v>
+        <v>74.03124113465179</v>
       </c>
       <c r="F17" t="n">
-        <v>105.7515787130285</v>
+        <v>105.7515787130277</v>
       </c>
       <c r="G17" t="n">
-        <v>121.3905020356641</v>
+        <v>121.3905020356642</v>
       </c>
       <c r="H17" t="n">
-        <v>49.57372768156616</v>
+        <v>49.57372768156622</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -1901,16 +1901,16 @@
         <v>0</v>
       </c>
       <c r="V17" t="n">
-        <v>23.4321126821676</v>
+        <v>23.43211268216766</v>
       </c>
       <c r="W17" t="n">
-        <v>40.44879289878247</v>
+        <v>40.44879289878253</v>
       </c>
       <c r="X17" t="n">
-        <v>62.33504336772171</v>
+        <v>62.33504336772177</v>
       </c>
       <c r="Y17" t="n">
-        <v>84.83789649146547</v>
+        <v>84.83789649146553</v>
       </c>
     </row>
     <row r="18">
@@ -1920,7 +1920,7 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>24.43972300435419</v>
+        <v>31.30917887851516</v>
       </c>
       <c r="C18" t="n">
         <v>0</v>
@@ -1965,19 +1965,19 @@
         <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>6.869455874161041</v>
+        <v>0</v>
       </c>
       <c r="R18" t="n">
         <v>134.7198007890777</v>
       </c>
       <c r="S18" t="n">
-        <v>0</v>
+        <v>188.4979333192472</v>
       </c>
       <c r="T18" t="n">
-        <v>188.4979333192472</v>
+        <v>0</v>
       </c>
       <c r="U18" t="n">
-        <v>188.4979333192472</v>
+        <v>0</v>
       </c>
       <c r="V18" t="n">
         <v>188.4979333192472</v>
@@ -1989,7 +1989,7 @@
         <v>0</v>
       </c>
       <c r="Y18" t="n">
-        <v>0</v>
+        <v>188.4979333192472</v>
       </c>
     </row>
     <row r="19">
@@ -2163,7 +2163,7 @@
         <v>0</v>
       </c>
       <c r="D21" t="n">
-        <v>0</v>
+        <v>159.1723150765785</v>
       </c>
       <c r="E21" t="n">
         <v>0</v>
@@ -2202,31 +2202,31 @@
         <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>6.869455874161041</v>
+        <v>6.869455874161037</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
       </c>
       <c r="S21" t="n">
+        <v>0</v>
+      </c>
+      <c r="T21" t="n">
+        <v>188.4851420361004</v>
+      </c>
+      <c r="U21" t="n">
+        <v>0</v>
+      </c>
+      <c r="V21" t="n">
+        <v>0</v>
+      </c>
+      <c r="W21" t="n">
+        <v>0</v>
+      </c>
+      <c r="X21" t="n">
         <v>188.4979333192472</v>
       </c>
-      <c r="T21" t="n">
-        <v>159.1595237934318</v>
-      </c>
-      <c r="U21" t="n">
+      <c r="Y21" t="n">
         <v>188.4979333192472</v>
-      </c>
-      <c r="V21" t="n">
-        <v>0</v>
-      </c>
-      <c r="W21" t="n">
-        <v>188.4979333192472</v>
-      </c>
-      <c r="X21" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y21" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="22">
@@ -2400,10 +2400,10 @@
         <v>0</v>
       </c>
       <c r="D24" t="n">
-        <v>31.30917887851537</v>
+        <v>0</v>
       </c>
       <c r="E24" t="n">
-        <v>0</v>
+        <v>24.43972300435429</v>
       </c>
       <c r="F24" t="n">
         <v>0</v>
@@ -2439,7 +2439,7 @@
         <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>0</v>
+        <v>6.869455874161048</v>
       </c>
       <c r="R24" t="n">
         <v>134.7198007890777</v>
@@ -2448,7 +2448,7 @@
         <v>0</v>
       </c>
       <c r="T24" t="n">
-        <v>188.4979333192473</v>
+        <v>0</v>
       </c>
       <c r="U24" t="n">
         <v>188.4979333192473</v>
@@ -2457,13 +2457,13 @@
         <v>0</v>
       </c>
       <c r="W24" t="n">
-        <v>0</v>
+        <v>188.4979333192473</v>
       </c>
       <c r="X24" t="n">
-        <v>0</v>
+        <v>188.4979333192473</v>
       </c>
       <c r="Y24" t="n">
-        <v>188.4979333192473</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25">
@@ -2552,28 +2552,28 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>160.6024898538324</v>
+        <v>160.6024898538323</v>
       </c>
       <c r="C26" t="n">
-        <v>136.7207468571779</v>
+        <v>136.7207468571778</v>
       </c>
       <c r="D26" t="n">
         <v>124.2874091182263</v>
       </c>
       <c r="E26" t="n">
-        <v>157.9941615376352</v>
+        <v>157.9941615376351</v>
       </c>
       <c r="F26" t="n">
         <v>189.7144991160125</v>
       </c>
       <c r="G26" t="n">
-        <v>205.3534224386476</v>
+        <v>205.3534224386475</v>
       </c>
       <c r="H26" t="n">
-        <v>133.5366480845497</v>
+        <v>133.5366480845496</v>
       </c>
       <c r="I26" t="n">
-        <v>27.52501869147512</v>
+        <v>27.52501869147498</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2603,25 +2603,25 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>14.03224403444715</v>
+        <v>14.03224403444693</v>
       </c>
       <c r="T26" t="n">
-        <v>8.981130875818323</v>
+        <v>8.981130875818238</v>
       </c>
       <c r="U26" t="n">
-        <v>36.66579096864775</v>
+        <v>36.66579096864955</v>
       </c>
       <c r="V26" t="n">
-        <v>107.3950330851511</v>
+        <v>107.395033085151</v>
       </c>
       <c r="W26" t="n">
-        <v>124.411713301766</v>
+        <v>124.4117133017659</v>
       </c>
       <c r="X26" t="n">
-        <v>146.2979637707052</v>
+        <v>146.2979637707051</v>
       </c>
       <c r="Y26" t="n">
-        <v>168.800816894449</v>
+        <v>168.8008168944489</v>
       </c>
     </row>
     <row r="27">
@@ -2631,10 +2631,10 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>0</v>
+        <v>176.7504943976657</v>
       </c>
       <c r="C27" t="n">
-        <v>83.62588829426457</v>
+        <v>0</v>
       </c>
       <c r="D27" t="n">
         <v>0</v>
@@ -2676,31 +2676,31 @@
         <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>6.869455874161041</v>
+        <v>6.869455874161048</v>
       </c>
       <c r="R27" t="n">
-        <v>134.7198007890777</v>
+        <v>19.70123548167997</v>
       </c>
       <c r="S27" t="n">
-        <v>191.5907913200043</v>
+        <v>0</v>
       </c>
       <c r="T27" t="n">
-        <v>1.486173081489348</v>
+        <v>1.486173081489263</v>
       </c>
       <c r="U27" t="n">
-        <v>237.2280694968886</v>
+        <v>23.74331897288759</v>
       </c>
       <c r="V27" t="n">
-        <v>27.16417039140131</v>
+        <v>240.6489209154022</v>
       </c>
       <c r="W27" t="n">
-        <v>53.21983305301066</v>
+        <v>266.7045835770116</v>
       </c>
       <c r="X27" t="n">
-        <v>3.828163915469673</v>
+        <v>3.828163915469588</v>
       </c>
       <c r="Y27" t="n">
-        <v>9.899535610024685</v>
+        <v>9.8995356100246</v>
       </c>
     </row>
     <row r="28">
@@ -2761,25 +2761,25 @@
         <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>21.95329384217963</v>
+        <v>21.95329384217955</v>
       </c>
       <c r="T28" t="n">
-        <v>10.27680792632208</v>
+        <v>10.27680792632199</v>
       </c>
       <c r="U28" t="n">
-        <v>75.17180644456468</v>
+        <v>75.1718064445646</v>
       </c>
       <c r="V28" t="n">
-        <v>31.62426466044897</v>
+        <v>31.62426466044889</v>
       </c>
       <c r="W28" t="n">
-        <v>76.82595656533439</v>
+        <v>76.82595656533431</v>
       </c>
       <c r="X28" t="n">
-        <v>8.434704884241597</v>
+        <v>8.434704884241512</v>
       </c>
       <c r="Y28" t="n">
-        <v>3.656522290167487</v>
+        <v>3.656522290167402</v>
       </c>
     </row>
     <row r="29">
@@ -2795,22 +2795,22 @@
         <v>136.7207468571778</v>
       </c>
       <c r="D29" t="n">
-        <v>124.2874091182263</v>
+        <v>124.2874091182262</v>
       </c>
       <c r="E29" t="n">
-        <v>157.9941615376352</v>
+        <v>157.9941615376351</v>
       </c>
       <c r="F29" t="n">
-        <v>189.7144991160125</v>
+        <v>189.7144991160124</v>
       </c>
       <c r="G29" t="n">
-        <v>205.3534224386476</v>
+        <v>205.3534224386475</v>
       </c>
       <c r="H29" t="n">
-        <v>133.5366480845496</v>
+        <v>133.5366480845495</v>
       </c>
       <c r="I29" t="n">
-        <v>27.52501869147541</v>
+        <v>27.52501869147501</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2840,25 +2840,25 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>14.03224403444719</v>
+        <v>14.03224403444714</v>
       </c>
       <c r="T29" t="n">
-        <v>8.981130875818266</v>
+        <v>8.981130875818209</v>
       </c>
       <c r="U29" t="n">
-        <v>36.66579096864876</v>
+        <v>36.66579096864871</v>
       </c>
       <c r="V29" t="n">
         <v>107.395033085151</v>
       </c>
       <c r="W29" t="n">
-        <v>124.4117133017659</v>
+        <v>124.4117133017658</v>
       </c>
       <c r="X29" t="n">
         <v>146.2979637707051</v>
       </c>
       <c r="Y29" t="n">
-        <v>168.8008168944489</v>
+        <v>168.8008168944488</v>
       </c>
     </row>
     <row r="30">
@@ -2868,10 +2868,10 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>0</v>
+        <v>8.933578354979879</v>
       </c>
       <c r="C30" t="n">
-        <v>0</v>
+        <v>187.5181515243659</v>
       </c>
       <c r="D30" t="n">
         <v>0</v>
@@ -2913,31 +2913,31 @@
         <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>6.869455874161041</v>
+        <v>6.869455874161048</v>
       </c>
       <c r="R30" t="n">
-        <v>134.7198007890777</v>
+        <v>0</v>
       </c>
       <c r="S30" t="n">
-        <v>191.5907913200043</v>
+        <v>0</v>
       </c>
       <c r="T30" t="n">
-        <v>1.486173081489291</v>
+        <v>1.486173081489234</v>
       </c>
       <c r="U30" t="n">
-        <v>237.2280694968886</v>
+        <v>23.74331897288756</v>
       </c>
       <c r="V30" t="n">
-        <v>27.16417039140126</v>
+        <v>240.6489209154022</v>
       </c>
       <c r="W30" t="n">
-        <v>53.2198330530106</v>
+        <v>266.7045835770116</v>
       </c>
       <c r="X30" t="n">
-        <v>87.45405220973446</v>
+        <v>3.82816391546956</v>
       </c>
       <c r="Y30" t="n">
-        <v>9.899535610024628</v>
+        <v>9.899535610024571</v>
       </c>
     </row>
     <row r="31">
@@ -2998,25 +2998,25 @@
         <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>21.95329384217958</v>
+        <v>21.95329384217952</v>
       </c>
       <c r="T31" t="n">
-        <v>10.27680792632202</v>
+        <v>10.27680792632196</v>
       </c>
       <c r="U31" t="n">
-        <v>75.17180644456462</v>
+        <v>75.17180644456457</v>
       </c>
       <c r="V31" t="n">
-        <v>31.62426466044892</v>
+        <v>31.62426466044886</v>
       </c>
       <c r="W31" t="n">
-        <v>76.82595656533434</v>
+        <v>76.82595656533428</v>
       </c>
       <c r="X31" t="n">
-        <v>8.43470488424154</v>
+        <v>8.434704884241484</v>
       </c>
       <c r="Y31" t="n">
-        <v>3.65652229016743</v>
+        <v>3.656522290167374</v>
       </c>
     </row>
     <row r="32">
@@ -3080,10 +3080,10 @@
         <v>13.20453416758286</v>
       </c>
       <c r="T32" t="n">
-        <v>8.153421008953883</v>
+        <v>8.153421008954107</v>
       </c>
       <c r="U32" t="n">
-        <v>35.83808110178504</v>
+        <v>35.83808110178481</v>
       </c>
       <c r="V32" t="n">
         <v>106.5673232182867</v>
@@ -3108,7 +3108,7 @@
         <v>0</v>
       </c>
       <c r="C33" t="n">
-        <v>187.5181515243659</v>
+        <v>0</v>
       </c>
       <c r="D33" t="n">
         <v>0</v>
@@ -3150,25 +3150,25 @@
         <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>6.869455874161041</v>
+        <v>6.869455874161048</v>
       </c>
       <c r="R33" t="n">
-        <v>134.7198007890777</v>
+        <v>0</v>
       </c>
       <c r="S33" t="n">
         <v>191.5907913200043</v>
       </c>
       <c r="T33" t="n">
-        <v>0.6584632146249662</v>
+        <v>8.830241241423547</v>
       </c>
       <c r="U33" t="n">
-        <v>22.9156091060233</v>
+        <v>237.2280694968886</v>
       </c>
       <c r="V33" t="n">
-        <v>140.8952070196227</v>
+        <v>26.33646052453693</v>
       </c>
       <c r="W33" t="n">
-        <v>52.39212318614628</v>
+        <v>266.7045835770116</v>
       </c>
       <c r="X33" t="n">
         <v>3.000454048605292</v>
@@ -3263,25 +3263,25 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>102.0280721215646</v>
+        <v>102.0280721215645</v>
       </c>
       <c r="C35" t="n">
-        <v>78.1463291249101</v>
+        <v>78.14632912491004</v>
       </c>
       <c r="D35" t="n">
-        <v>65.71299138595856</v>
+        <v>65.7129913859585</v>
       </c>
       <c r="E35" t="n">
-        <v>99.41974380536743</v>
+        <v>99.41974380536737</v>
       </c>
       <c r="F35" t="n">
-        <v>131.1400813837448</v>
+        <v>131.1400813837447</v>
       </c>
       <c r="G35" t="n">
         <v>146.7790047063798</v>
       </c>
       <c r="H35" t="n">
-        <v>74.96223035228184</v>
+        <v>74.96223035228181</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -3323,16 +3323,16 @@
         <v>0</v>
       </c>
       <c r="V35" t="n">
-        <v>48.82061535288329</v>
+        <v>48.82061535288324</v>
       </c>
       <c r="W35" t="n">
-        <v>65.83729556949817</v>
+        <v>65.83729556949811</v>
       </c>
       <c r="X35" t="n">
-        <v>87.72354603843741</v>
+        <v>87.72354603843735</v>
       </c>
       <c r="Y35" t="n">
-        <v>110.2263991621812</v>
+        <v>110.2263991621811</v>
       </c>
     </row>
     <row r="36">
@@ -3342,10 +3342,10 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>0</v>
+        <v>176.7504943976657</v>
       </c>
       <c r="C36" t="n">
-        <v>0</v>
+        <v>187.5181515243659</v>
       </c>
       <c r="D36" t="n">
         <v>0</v>
@@ -3354,7 +3354,7 @@
         <v>0</v>
       </c>
       <c r="F36" t="n">
-        <v>0</v>
+        <v>52.18318792051708</v>
       </c>
       <c r="G36" t="n">
         <v>0</v>
@@ -3387,19 +3387,19 @@
         <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>6.869455874161041</v>
+        <v>6.869455874161048</v>
       </c>
       <c r="R36" t="n">
         <v>134.7198007890777</v>
       </c>
       <c r="S36" t="n">
-        <v>155.8436320601741</v>
+        <v>191.5907913200043</v>
       </c>
       <c r="T36" t="n">
-        <v>214.9709236054903</v>
+        <v>0</v>
       </c>
       <c r="U36" t="n">
-        <v>237.2280694968886</v>
+        <v>0</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -3478,13 +3478,13 @@
         <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>16.59738871229688</v>
+        <v>16.59738871229683</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>18.2515388330666</v>
+        <v>18.25153883306655</v>
       </c>
       <c r="X37" t="n">
         <v>0</v>
@@ -3500,25 +3500,25 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>102.0280721215646</v>
+        <v>102.0280721215645</v>
       </c>
       <c r="C38" t="n">
-        <v>78.1463291249101</v>
+        <v>78.14632912491004</v>
       </c>
       <c r="D38" t="n">
-        <v>65.71299138595856</v>
+        <v>65.7129913859585</v>
       </c>
       <c r="E38" t="n">
-        <v>99.41974380536743</v>
+        <v>99.41974380536737</v>
       </c>
       <c r="F38" t="n">
-        <v>131.1400813837448</v>
+        <v>131.1400813837447</v>
       </c>
       <c r="G38" t="n">
         <v>146.7790047063798</v>
       </c>
       <c r="H38" t="n">
-        <v>74.96223035228184</v>
+        <v>74.96223035228181</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -3560,16 +3560,16 @@
         <v>0</v>
       </c>
       <c r="V38" t="n">
-        <v>48.82061535288329</v>
+        <v>48.82061535288324</v>
       </c>
       <c r="W38" t="n">
-        <v>65.83729556949817</v>
+        <v>65.83729556949811</v>
       </c>
       <c r="X38" t="n">
-        <v>87.72354603843741</v>
+        <v>87.72354603843735</v>
       </c>
       <c r="Y38" t="n">
-        <v>110.2263991621812</v>
+        <v>110.2263991621811</v>
       </c>
     </row>
     <row r="39">
@@ -3624,28 +3624,28 @@
         <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>0</v>
+        <v>6.869455874161048</v>
       </c>
       <c r="R39" t="n">
-        <v>36.97207935338405</v>
+        <v>134.7198007890777</v>
       </c>
       <c r="S39" t="n">
-        <v>0</v>
+        <v>191.5907913200043</v>
       </c>
       <c r="T39" t="n">
-        <v>214.9709236054903</v>
+        <v>0</v>
       </c>
       <c r="U39" t="n">
-        <v>237.2280694968886</v>
+        <v>0</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
       </c>
       <c r="W39" t="n">
-        <v>260.4608093700288</v>
+        <v>199.1389194030781</v>
       </c>
       <c r="X39" t="n">
-        <v>0</v>
+        <v>217.3129144394706</v>
       </c>
       <c r="Y39" t="n">
         <v>0</v>
@@ -3715,13 +3715,13 @@
         <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>16.59738871229688</v>
+        <v>16.59738871229683</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
       </c>
       <c r="W40" t="n">
-        <v>18.2515388330666</v>
+        <v>18.25153883306655</v>
       </c>
       <c r="X40" t="n">
         <v>0</v>
@@ -3743,13 +3743,13 @@
         <v>109.1957281657028</v>
       </c>
       <c r="D41" t="n">
-        <v>96.76239042675127</v>
+        <v>96.76239042675124</v>
       </c>
       <c r="E41" t="n">
         <v>130.4691428461601</v>
       </c>
       <c r="F41" t="n">
-        <v>162.1894804245375</v>
+        <v>162.1894804245374</v>
       </c>
       <c r="G41" t="n">
         <v>177.8284037471725</v>
@@ -3794,19 +3794,19 @@
         <v>0</v>
       </c>
       <c r="U41" t="n">
-        <v>9.140772277173429</v>
+        <v>9.140772277173706</v>
       </c>
       <c r="V41" t="n">
-        <v>79.870014393676</v>
+        <v>79.87001439367597</v>
       </c>
       <c r="W41" t="n">
-        <v>96.88669461029087</v>
+        <v>96.88669461029085</v>
       </c>
       <c r="X41" t="n">
         <v>118.7729450792301</v>
       </c>
       <c r="Y41" t="n">
-        <v>141.2757982029739</v>
+        <v>141.2757982029738</v>
       </c>
     </row>
     <row r="42">
@@ -3816,7 +3816,7 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>176.7504943976657</v>
+        <v>0</v>
       </c>
       <c r="C42" t="n">
         <v>0</v>
@@ -3861,7 +3861,7 @@
         <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>6.869455874161041</v>
+        <v>0</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -3870,19 +3870,19 @@
         <v>0</v>
       </c>
       <c r="T42" t="n">
-        <v>0</v>
+        <v>214.9709236054903</v>
       </c>
       <c r="U42" t="n">
         <v>237.2280694968886</v>
       </c>
       <c r="V42" t="n">
-        <v>0</v>
+        <v>240.6489209154022</v>
       </c>
       <c r="W42" t="n">
-        <v>111.4709476176057</v>
+        <v>56.78396780801059</v>
       </c>
       <c r="X42" t="n">
-        <v>217.3129144394706</v>
+        <v>0</v>
       </c>
       <c r="Y42" t="n">
         <v>0</v>
@@ -3952,13 +3952,13 @@
         <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>47.64678775308959</v>
+        <v>47.64678775308956</v>
       </c>
       <c r="V43" t="n">
-        <v>4.099245968973889</v>
+        <v>4.099245968973861</v>
       </c>
       <c r="W43" t="n">
-        <v>49.30093787385931</v>
+        <v>49.30093787385928</v>
       </c>
       <c r="X43" t="n">
         <v>0</v>
@@ -3980,19 +3980,19 @@
         <v>109.1957281657028</v>
       </c>
       <c r="D44" t="n">
-        <v>96.76239042675127</v>
+        <v>96.76239042675124</v>
       </c>
       <c r="E44" t="n">
         <v>130.4691428461601</v>
       </c>
       <c r="F44" t="n">
-        <v>162.1894804245375</v>
+        <v>162.1894804245374</v>
       </c>
       <c r="G44" t="n">
         <v>177.8284037471725</v>
       </c>
       <c r="H44" t="n">
-        <v>106.0116293930746</v>
+        <v>106.0116293930745</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
@@ -4031,19 +4031,19 @@
         <v>0</v>
       </c>
       <c r="U44" t="n">
-        <v>9.140772277173735</v>
+        <v>9.140772277173706</v>
       </c>
       <c r="V44" t="n">
-        <v>79.870014393676</v>
+        <v>79.87001439367597</v>
       </c>
       <c r="W44" t="n">
-        <v>96.88669461029087</v>
+        <v>96.88669461029085</v>
       </c>
       <c r="X44" t="n">
         <v>118.7729450792301</v>
       </c>
       <c r="Y44" t="n">
-        <v>141.2757982029739</v>
+        <v>141.2757982029738</v>
       </c>
     </row>
     <row r="45">
@@ -4101,25 +4101,25 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>0</v>
+        <v>134.7198007890777</v>
       </c>
       <c r="S45" t="n">
-        <v>0</v>
+        <v>107.5585765443002</v>
       </c>
       <c r="T45" t="n">
-        <v>214.9709236054903</v>
+        <v>0</v>
       </c>
       <c r="U45" t="n">
-        <v>237.2280694968886</v>
+        <v>0</v>
       </c>
       <c r="V45" t="n">
-        <v>54.42515992240663</v>
+        <v>240.6489209154022</v>
       </c>
       <c r="W45" t="n">
-        <v>25.69481436153558</v>
+        <v>266.7045835770116</v>
       </c>
       <c r="X45" t="n">
-        <v>217.3129144394706</v>
+        <v>0</v>
       </c>
       <c r="Y45" t="n">
         <v>0</v>
@@ -4189,13 +4189,13 @@
         <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>47.64678775308959</v>
+        <v>47.64678775308956</v>
       </c>
       <c r="V46" t="n">
-        <v>4.099245968973889</v>
+        <v>4.099245968973861</v>
       </c>
       <c r="W46" t="n">
-        <v>49.30093787385931</v>
+        <v>49.30093787385928</v>
       </c>
       <c r="X46" t="n">
         <v>0</v>
@@ -4784,7 +4784,7 @@
         <v>6.590454258427762</v>
       </c>
       <c r="D8" t="n">
-        <v>6.719070557086891</v>
+        <v>6.590454258427762</v>
       </c>
       <c r="E8" t="n">
         <v>6.719070557086891</v>
@@ -4857,16 +4857,16 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>6.333867974168094</v>
+        <v>0.2559399712010781</v>
       </c>
       <c r="C9" t="n">
-        <v>3.102302681225188</v>
+        <v>0.2559399712010781</v>
       </c>
       <c r="D9" t="n">
-        <v>3.102302681225188</v>
+        <v>0.2559399712010781</v>
       </c>
       <c r="E9" t="n">
-        <v>3.102302681225188</v>
+        <v>0.2559399712010781</v>
       </c>
       <c r="F9" t="n">
         <v>0.2559399712010781</v>
@@ -4902,31 +4902,31 @@
         <v>12.79699856005391</v>
       </c>
       <c r="Q9" t="n">
-        <v>12.79699856005391</v>
+        <v>9.565433267111001</v>
       </c>
       <c r="R9" t="n">
         <v>9.565433267111001</v>
       </c>
       <c r="S9" t="n">
-        <v>9.565433267111001</v>
+        <v>6.333867974168094</v>
       </c>
       <c r="T9" t="n">
-        <v>9.565433267111001</v>
+        <v>6.333867974168094</v>
       </c>
       <c r="U9" t="n">
-        <v>6.333867974168094</v>
+        <v>3.102302681225188</v>
       </c>
       <c r="V9" t="n">
-        <v>6.333867974168094</v>
+        <v>3.102302681225188</v>
       </c>
       <c r="W9" t="n">
-        <v>6.333867974168094</v>
+        <v>3.102302681225188</v>
       </c>
       <c r="X9" t="n">
-        <v>6.333867974168094</v>
+        <v>3.102302681225188</v>
       </c>
       <c r="Y9" t="n">
-        <v>6.333867974168094</v>
+        <v>0.2559399712010781</v>
       </c>
     </row>
     <row r="10">
@@ -5015,76 +5015,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>78.57630442554805</v>
+        <v>185.6587583579466</v>
       </c>
       <c r="C11" t="n">
-        <v>78.57630442554805</v>
+        <v>185.6587583579466</v>
       </c>
       <c r="D11" t="n">
-        <v>78.57630442554805</v>
+        <v>185.6587583579466</v>
       </c>
       <c r="E11" t="n">
-        <v>78.57630442554805</v>
+        <v>185.6587583579466</v>
       </c>
       <c r="F11" t="n">
-        <v>78.57630442554805</v>
+        <v>185.6587583579466</v>
       </c>
       <c r="G11" t="n">
-        <v>78.57630442554805</v>
+        <v>185.6587583579466</v>
       </c>
       <c r="H11" t="n">
-        <v>78.57630442554805</v>
+        <v>15.07983466553978</v>
       </c>
       <c r="I11" t="n">
-        <v>15.07983466553977</v>
+        <v>15.07983466553978</v>
       </c>
       <c r="J11" t="n">
-        <v>15.07983466553977</v>
+        <v>15.07983466553978</v>
       </c>
       <c r="K11" t="n">
-        <v>15.07983466553977</v>
+        <v>138.3986192474923</v>
       </c>
       <c r="L11" t="n">
-        <v>201.6927886515945</v>
+        <v>185.1194617282524</v>
       </c>
       <c r="M11" t="n">
-        <v>388.3057426376491</v>
+        <v>371.7324157143072</v>
       </c>
       <c r="N11" t="n">
-        <v>574.9186966237038</v>
+        <v>558.345369700362</v>
       </c>
       <c r="O11" t="n">
-        <v>753.9917332769886</v>
+        <v>592.5660043930297</v>
       </c>
       <c r="P11" t="n">
-        <v>753.9917332769886</v>
+        <v>753.991733276989</v>
       </c>
       <c r="Q11" t="n">
-        <v>753.9917332769886</v>
+        <v>753.991733276989</v>
       </c>
       <c r="R11" t="n">
-        <v>737.0894290049695</v>
+        <v>737.0894290049699</v>
       </c>
       <c r="S11" t="n">
-        <v>687.2220245550903</v>
+        <v>687.2220245550908</v>
       </c>
       <c r="T11" t="n">
-        <v>642.4567546088768</v>
+        <v>642.4567546088772</v>
       </c>
       <c r="U11" t="n">
-        <v>569.7271815385918</v>
+        <v>569.7271815385923</v>
       </c>
       <c r="V11" t="n">
-        <v>425.5539295627492</v>
+        <v>425.5539295627497</v>
       </c>
       <c r="W11" t="n">
-        <v>264.192111711538</v>
+        <v>376.0607112056711</v>
       </c>
       <c r="X11" t="n">
-        <v>264.192111711538</v>
+        <v>376.0607112056711</v>
       </c>
       <c r="Y11" t="n">
-        <v>264.192111711538</v>
+        <v>376.0607112056711</v>
       </c>
     </row>
     <row r="12">
@@ -5094,76 +5094,76 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>24.54436736382064</v>
+        <v>24.54436736382068</v>
       </c>
       <c r="C12" t="n">
-        <v>15.07983466553977</v>
+        <v>15.07983466553978</v>
       </c>
       <c r="D12" t="n">
-        <v>15.07983466553977</v>
+        <v>15.07983466553978</v>
       </c>
       <c r="E12" t="n">
-        <v>15.07983466553977</v>
+        <v>15.07983466553978</v>
       </c>
       <c r="F12" t="n">
-        <v>15.07983466553977</v>
+        <v>15.07983466553978</v>
       </c>
       <c r="G12" t="n">
-        <v>15.07983466553977</v>
+        <v>15.07983466553978</v>
       </c>
       <c r="H12" t="n">
-        <v>15.07983466553977</v>
+        <v>15.07983466553978</v>
       </c>
       <c r="I12" t="n">
-        <v>15.07983466553977</v>
+        <v>15.07983466553978</v>
       </c>
       <c r="J12" t="n">
-        <v>15.07983466553977</v>
+        <v>15.07983466553978</v>
       </c>
       <c r="K12" t="n">
-        <v>53.04316068142016</v>
+        <v>53.04316068142039</v>
       </c>
       <c r="L12" t="n">
-        <v>170.3760798097943</v>
+        <v>170.3760798097945</v>
       </c>
       <c r="M12" t="n">
-        <v>352.0527264137995</v>
+        <v>352.0527264137999</v>
       </c>
       <c r="N12" t="n">
-        <v>538.6656803998543</v>
+        <v>538.6656803998546</v>
       </c>
       <c r="O12" t="n">
-        <v>670.3666200188887</v>
+        <v>670.3666200188891</v>
       </c>
       <c r="P12" t="n">
-        <v>753.9917332769886</v>
+        <v>753.991733276989</v>
       </c>
       <c r="Q12" t="n">
-        <v>753.9917332769886</v>
+        <v>753.991733276989</v>
       </c>
       <c r="R12" t="n">
-        <v>753.9917332769886</v>
+        <v>617.9111264193348</v>
       </c>
       <c r="S12" t="n">
-        <v>740.4134230073558</v>
+        <v>460.2026776114828</v>
       </c>
       <c r="T12" t="n">
-        <v>550.0114701596315</v>
+        <v>423.0080721039853</v>
       </c>
       <c r="U12" t="n">
-        <v>359.6095173119071</v>
+        <v>363.3315010496209</v>
       </c>
       <c r="V12" t="n">
-        <v>199.248399375239</v>
+        <v>300.1995245220104</v>
       </c>
       <c r="W12" t="n">
-        <v>109.7975716742858</v>
+        <v>109.7975716742859</v>
       </c>
       <c r="X12" t="n">
-        <v>70.23731885973757</v>
+        <v>70.23731885973764</v>
       </c>
       <c r="Y12" t="n">
-        <v>24.54436736382064</v>
+        <v>24.54436736382068</v>
       </c>
     </row>
     <row r="13">
@@ -5173,76 +5173,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>15.07983466553977</v>
+        <v>15.07983466553978</v>
       </c>
       <c r="C13" t="n">
-        <v>15.07983466553977</v>
+        <v>15.07983466553978</v>
       </c>
       <c r="D13" t="n">
-        <v>15.07983466553977</v>
+        <v>15.07983466553978</v>
       </c>
       <c r="E13" t="n">
-        <v>15.07983466553977</v>
+        <v>15.07983466553978</v>
       </c>
       <c r="F13" t="n">
-        <v>15.07983466553977</v>
+        <v>15.07983466553978</v>
       </c>
       <c r="G13" t="n">
-        <v>15.07983466553977</v>
+        <v>19.61809889886368</v>
       </c>
       <c r="H13" t="n">
-        <v>15.07983466553977</v>
+        <v>19.61809889886368</v>
       </c>
       <c r="I13" t="n">
-        <v>15.07983466553977</v>
+        <v>19.61809889886368</v>
       </c>
       <c r="J13" t="n">
-        <v>15.07983466553977</v>
+        <v>19.61809889886368</v>
       </c>
       <c r="K13" t="n">
-        <v>15.07983466553977</v>
+        <v>19.61809889886368</v>
       </c>
       <c r="L13" t="n">
-        <v>159.6163180913799</v>
+        <v>19.61809889886368</v>
       </c>
       <c r="M13" t="n">
-        <v>191.8099014189434</v>
+        <v>171.0201836654963</v>
       </c>
       <c r="N13" t="n">
-        <v>351.8217271348921</v>
+        <v>331.0320093814449</v>
       </c>
       <c r="O13" t="n">
-        <v>351.8217271348921</v>
+        <v>470.2946957351831</v>
       </c>
       <c r="P13" t="n">
-        <v>470.2946957351829</v>
+        <v>470.2946957351831</v>
       </c>
       <c r="Q13" t="n">
-        <v>520.7166611426677</v>
+        <v>520.7166611426679</v>
       </c>
       <c r="R13" t="n">
-        <v>495.1795934633078</v>
+        <v>495.1795934633081</v>
       </c>
       <c r="S13" t="n">
-        <v>437.3111286015778</v>
+        <v>437.311128601578</v>
       </c>
       <c r="T13" t="n">
-        <v>391.2370939578857</v>
+        <v>391.2370939578859</v>
       </c>
       <c r="U13" t="n">
-        <v>279.6125557604133</v>
+        <v>279.6125557604134</v>
       </c>
       <c r="V13" t="n">
-        <v>211.975433506492</v>
+        <v>211.9754335064921</v>
       </c>
       <c r="W13" t="n">
-        <v>98.68003660117132</v>
+        <v>98.68003660117139</v>
       </c>
       <c r="X13" t="n">
-        <v>54.46671210099488</v>
+        <v>54.46671210099492</v>
       </c>
       <c r="Y13" t="n">
-        <v>15.07983466553977</v>
+        <v>15.07983466553978</v>
       </c>
     </row>
     <row r="14">
@@ -5252,76 +5252,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>78.5763044255483</v>
+        <v>217.9634108396563</v>
       </c>
       <c r="C14" t="n">
-        <v>78.5763044255483</v>
+        <v>217.9634108396563</v>
       </c>
       <c r="D14" t="n">
-        <v>78.5763044255483</v>
+        <v>217.9634108396563</v>
       </c>
       <c r="E14" t="n">
-        <v>78.5763044255483</v>
+        <v>217.9634108396563</v>
       </c>
       <c r="F14" t="n">
-        <v>78.5763044255483</v>
+        <v>217.9634108396563</v>
       </c>
       <c r="G14" t="n">
-        <v>78.5763044255483</v>
+        <v>78.57630442554812</v>
       </c>
       <c r="H14" t="n">
-        <v>78.5763044255483</v>
+        <v>78.57630442554812</v>
       </c>
       <c r="I14" t="n">
         <v>15.07983466553977</v>
       </c>
       <c r="J14" t="n">
-        <v>15.07983466553977</v>
+        <v>115.4328134021288</v>
       </c>
       <c r="K14" t="n">
-        <v>184.7866959522389</v>
+        <v>285.1396746888279</v>
       </c>
       <c r="L14" t="n">
-        <v>231.507538432999</v>
+        <v>331.860517169588</v>
       </c>
       <c r="M14" t="n">
-        <v>418.1204924190537</v>
+        <v>518.4734711556426</v>
       </c>
       <c r="N14" t="n">
-        <v>493.448385554746</v>
+        <v>705.0864251416973</v>
       </c>
       <c r="O14" t="n">
-        <v>680.0613395408008</v>
+        <v>739.3070598343651</v>
       </c>
       <c r="P14" t="n">
-        <v>680.0613395408008</v>
+        <v>753.9917332769886</v>
       </c>
       <c r="Q14" t="n">
         <v>753.9917332769886</v>
       </c>
       <c r="R14" t="n">
-        <v>737.0894290049694</v>
+        <v>737.0894290049695</v>
       </c>
       <c r="S14" t="n">
-        <v>687.2220245550902</v>
+        <v>687.2220245550903</v>
       </c>
       <c r="T14" t="n">
-        <v>642.4567546088766</v>
+        <v>642.4567546088767</v>
       </c>
       <c r="U14" t="n">
-        <v>569.7271815385918</v>
+        <v>569.7271815385919</v>
       </c>
       <c r="V14" t="n">
-        <v>425.5539295627491</v>
+        <v>569.7271815385919</v>
       </c>
       <c r="W14" t="n">
-        <v>264.1921117115379</v>
+        <v>408.3653636873807</v>
       </c>
       <c r="X14" t="n">
-        <v>264.1921117115379</v>
+        <v>408.3653636873807</v>
       </c>
       <c r="Y14" t="n">
-        <v>264.1921117115379</v>
+        <v>408.3653636873807</v>
       </c>
     </row>
     <row r="15">
@@ -5358,7 +5358,7 @@
         <v>15.07983466553977</v>
       </c>
       <c r="K15" t="n">
-        <v>53.04316068142014</v>
+        <v>53.04316068142013</v>
       </c>
       <c r="L15" t="n">
         <v>170.3760798097942</v>
@@ -5382,19 +5382,19 @@
         <v>747.0528889596541</v>
       </c>
       <c r="S15" t="n">
-        <v>733.4745786900212</v>
+        <v>556.6509361119297</v>
       </c>
       <c r="T15" t="n">
-        <v>543.0726258422968</v>
+        <v>449.3269232773281</v>
       </c>
       <c r="U15" t="n">
-        <v>483.3960547879324</v>
+        <v>389.6503522229637</v>
       </c>
       <c r="V15" t="n">
-        <v>420.2640782603218</v>
+        <v>199.2483993752393</v>
       </c>
       <c r="W15" t="n">
-        <v>229.8621254125974</v>
+        <v>109.797571674286</v>
       </c>
       <c r="X15" t="n">
         <v>70.23731885973768</v>
@@ -5428,31 +5428,31 @@
         <v>15.07983466553977</v>
       </c>
       <c r="H16" t="n">
-        <v>15.07983466553977</v>
+        <v>27.28046249895698</v>
       </c>
       <c r="I16" t="n">
-        <v>15.07983466553977</v>
+        <v>27.28046249895698</v>
       </c>
       <c r="J16" t="n">
-        <v>15.07983466553977</v>
+        <v>84.61003250341423</v>
       </c>
       <c r="K16" t="n">
-        <v>125.0869358392788</v>
+        <v>84.61003250341423</v>
       </c>
       <c r="L16" t="n">
-        <v>125.0869358392788</v>
+        <v>84.61003250341423</v>
       </c>
       <c r="M16" t="n">
-        <v>276.4890206059114</v>
+        <v>84.61003250341423</v>
       </c>
       <c r="N16" t="n">
-        <v>381.4539747889301</v>
+        <v>244.6218582193628</v>
       </c>
       <c r="O16" t="n">
-        <v>520.7166611426682</v>
+        <v>383.8845445731009</v>
       </c>
       <c r="P16" t="n">
-        <v>520.7166611426682</v>
+        <v>502.3575131733916</v>
       </c>
       <c r="Q16" t="n">
         <v>520.7166611426682</v>
@@ -5489,58 +5489,58 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>463.3923242961945</v>
+        <v>463.3923242961939</v>
       </c>
       <c r="C17" t="n">
-        <v>410.1015905040787</v>
+        <v>410.1015905040783</v>
       </c>
       <c r="D17" t="n">
-        <v>369.369783721005</v>
+        <v>369.3697837210046</v>
       </c>
       <c r="E17" t="n">
-        <v>294.5907522718618</v>
+        <v>294.5907522718616</v>
       </c>
       <c r="F17" t="n">
-        <v>187.7709757940553</v>
+        <v>187.7709757940554</v>
       </c>
       <c r="G17" t="n">
-        <v>65.15430707116217</v>
+        <v>65.15430707116222</v>
       </c>
       <c r="H17" t="n">
         <v>15.07983466553977</v>
       </c>
       <c r="I17" t="n">
-        <v>70.95335735993305</v>
+        <v>15.07983466553977</v>
       </c>
       <c r="J17" t="n">
-        <v>116.1234267576783</v>
+        <v>15.07983466553977</v>
       </c>
       <c r="K17" t="n">
-        <v>302.736380743733</v>
+        <v>15.07983466553977</v>
       </c>
       <c r="L17" t="n">
-        <v>489.3493347297876</v>
+        <v>61.80067714629985</v>
       </c>
       <c r="M17" t="n">
-        <v>570.2112338167349</v>
+        <v>142.6625762332471</v>
       </c>
       <c r="N17" t="n">
-        <v>645.5391269524273</v>
+        <v>329.2755302193018</v>
       </c>
       <c r="O17" t="n">
-        <v>679.7597616450951</v>
+        <v>363.4961649119695</v>
       </c>
       <c r="P17" t="n">
-        <v>679.7597616450951</v>
+        <v>498.1474096860832</v>
       </c>
       <c r="Q17" t="n">
-        <v>679.7597616450951</v>
+        <v>684.7603636721378</v>
       </c>
       <c r="R17" t="n">
-        <v>679.7597616450951</v>
+        <v>684.7603636721378</v>
       </c>
       <c r="S17" t="n">
-        <v>679.7597616450951</v>
+        <v>753.9917332769886</v>
       </c>
       <c r="T17" t="n">
         <v>753.9917332769886</v>
@@ -5549,16 +5549,16 @@
         <v>753.9917332769886</v>
       </c>
       <c r="V17" t="n">
-        <v>730.3229325879305</v>
+        <v>730.3229325879304</v>
       </c>
       <c r="W17" t="n">
-        <v>689.4655660235038</v>
+        <v>689.4655660235036</v>
       </c>
       <c r="X17" t="n">
-        <v>626.5008757530778</v>
+        <v>626.5008757530775</v>
       </c>
       <c r="Y17" t="n">
-        <v>540.8060308122035</v>
+        <v>540.8060308122032</v>
       </c>
     </row>
     <row r="18">
@@ -5595,7 +5595,7 @@
         <v>15.07983466553977</v>
       </c>
       <c r="K18" t="n">
-        <v>53.04316068142001</v>
+        <v>53.04316068142013</v>
       </c>
       <c r="L18" t="n">
         <v>170.3760798097942</v>
@@ -5604,40 +5604,40 @@
         <v>352.0527264137996</v>
       </c>
       <c r="N18" t="n">
-        <v>538.6656803998544</v>
+        <v>538.6656803998543</v>
       </c>
       <c r="O18" t="n">
-        <v>670.3666200188887</v>
+        <v>670.3666200188886</v>
       </c>
       <c r="P18" t="n">
-        <v>753.9917332769886</v>
+        <v>753.9917332769885</v>
       </c>
       <c r="Q18" t="n">
-        <v>747.0528889596542</v>
+        <v>753.9917332769885</v>
       </c>
       <c r="R18" t="n">
-        <v>610.972282102</v>
+        <v>617.9111264193343</v>
       </c>
       <c r="S18" t="n">
-        <v>610.972282102</v>
+        <v>427.5091735716099</v>
       </c>
       <c r="T18" t="n">
-        <v>420.5703292542756</v>
+        <v>427.5091735716099</v>
       </c>
       <c r="U18" t="n">
-        <v>230.1683764065512</v>
+        <v>427.5091735716099</v>
       </c>
       <c r="V18" t="n">
-        <v>39.76642355882683</v>
+        <v>237.1072207238855</v>
       </c>
       <c r="W18" t="n">
-        <v>39.76642355882683</v>
+        <v>237.1072207238855</v>
       </c>
       <c r="X18" t="n">
-        <v>39.76642355882683</v>
+        <v>237.1072207238855</v>
       </c>
       <c r="Y18" t="n">
-        <v>39.76642355882683</v>
+        <v>46.70526787616114</v>
       </c>
     </row>
     <row r="19">
@@ -5726,19 +5726,19 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>463.3923242961945</v>
+        <v>463.3923242961944</v>
       </c>
       <c r="C20" t="n">
-        <v>410.1015905040789</v>
+        <v>410.1015905040788</v>
       </c>
       <c r="D20" t="n">
-        <v>369.3697837210053</v>
+        <v>369.3697837210052</v>
       </c>
       <c r="E20" t="n">
-        <v>294.5907522718621</v>
+        <v>294.590752271862</v>
       </c>
       <c r="F20" t="n">
-        <v>187.7709757940549</v>
+        <v>187.7709757940548</v>
       </c>
       <c r="G20" t="n">
         <v>65.15430707116217</v>
@@ -5750,34 +5750,34 @@
         <v>15.07983466553977</v>
       </c>
       <c r="J20" t="n">
-        <v>15.07983466553977</v>
+        <v>201.6927886515945</v>
       </c>
       <c r="K20" t="n">
-        <v>15.07983466553977</v>
+        <v>201.6927886515945</v>
       </c>
       <c r="L20" t="n">
-        <v>61.80067714629988</v>
+        <v>295.133459323452</v>
       </c>
       <c r="M20" t="n">
-        <v>156.2576912354757</v>
+        <v>375.9953584103993</v>
       </c>
       <c r="N20" t="n">
-        <v>342.8706452215304</v>
+        <v>451.3232515460917</v>
       </c>
       <c r="O20" t="n">
-        <v>377.0912799141981</v>
+        <v>637.9362055321463</v>
       </c>
       <c r="P20" t="n">
-        <v>377.0912799141981</v>
+        <v>637.9362055321463</v>
       </c>
       <c r="Q20" t="n">
-        <v>563.7042339002528</v>
+        <v>637.9362055321463</v>
       </c>
       <c r="R20" t="n">
-        <v>563.7042339002528</v>
+        <v>637.9362055321463</v>
       </c>
       <c r="S20" t="n">
-        <v>632.9356035051037</v>
+        <v>707.1675751369972</v>
       </c>
       <c r="T20" t="n">
         <v>707.1675751369972</v>
@@ -5795,7 +5795,7 @@
         <v>626.5008757530777</v>
       </c>
       <c r="Y20" t="n">
-        <v>540.8060308122035</v>
+        <v>540.8060308122034</v>
       </c>
     </row>
     <row r="21">
@@ -5805,10 +5805,10 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>15.07983466553977</v>
+        <v>175.859950904508</v>
       </c>
       <c r="C21" t="n">
-        <v>15.07983466553977</v>
+        <v>175.859950904508</v>
       </c>
       <c r="D21" t="n">
         <v>15.07983466553977</v>
@@ -5832,13 +5832,13 @@
         <v>15.07983466553977</v>
       </c>
       <c r="K21" t="n">
-        <v>53.04316068142023</v>
+        <v>53.04316068142015</v>
       </c>
       <c r="L21" t="n">
         <v>170.3760798097943</v>
       </c>
       <c r="M21" t="n">
-        <v>352.0527264137997</v>
+        <v>352.0527264137996</v>
       </c>
       <c r="N21" t="n">
         <v>538.6656803998544</v>
@@ -5856,25 +5856,25 @@
         <v>747.0528889596542</v>
       </c>
       <c r="S21" t="n">
-        <v>556.6509361119298</v>
+        <v>747.0528889596542</v>
       </c>
       <c r="T21" t="n">
-        <v>395.8837403609886</v>
+        <v>556.6638565999568</v>
       </c>
       <c r="U21" t="n">
-        <v>205.4817875132642</v>
+        <v>556.6638565999568</v>
       </c>
       <c r="V21" t="n">
-        <v>205.4817875132642</v>
+        <v>556.6638565999568</v>
       </c>
       <c r="W21" t="n">
-        <v>15.07983466553977</v>
+        <v>556.6638565999568</v>
       </c>
       <c r="X21" t="n">
-        <v>15.07983466553977</v>
+        <v>366.2619037522325</v>
       </c>
       <c r="Y21" t="n">
-        <v>15.07983466553977</v>
+        <v>175.859950904508</v>
       </c>
     </row>
     <row r="22">
@@ -5963,76 +5963,76 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>463.3923242961946</v>
+        <v>463.3923242961943</v>
       </c>
       <c r="C23" t="n">
-        <v>410.1015905040789</v>
+        <v>410.1015905040787</v>
       </c>
       <c r="D23" t="n">
         <v>369.3697837210053</v>
       </c>
       <c r="E23" t="n">
-        <v>294.5907522718621</v>
+        <v>294.590752271862</v>
       </c>
       <c r="F23" t="n">
-        <v>187.7709757940552</v>
+        <v>187.7709757940551</v>
       </c>
       <c r="G23" t="n">
         <v>65.15430707116215</v>
       </c>
       <c r="H23" t="n">
-        <v>15.07983466553979</v>
+        <v>15.07983466553978</v>
       </c>
       <c r="I23" t="n">
-        <v>15.07983466553979</v>
+        <v>15.07983466553978</v>
       </c>
       <c r="J23" t="n">
-        <v>15.07983466553979</v>
+        <v>42.09409161964069</v>
       </c>
       <c r="K23" t="n">
-        <v>201.6927886515946</v>
+        <v>228.7070456056955</v>
       </c>
       <c r="L23" t="n">
-        <v>248.4136311323547</v>
+        <v>275.4278880864556</v>
       </c>
       <c r="M23" t="n">
-        <v>380.7658253048795</v>
+        <v>356.2897871734028</v>
       </c>
       <c r="N23" t="n">
-        <v>567.3787792909344</v>
+        <v>431.6176803090952</v>
       </c>
       <c r="O23" t="n">
-        <v>753.9917332769893</v>
+        <v>465.8383150017629</v>
       </c>
       <c r="P23" t="n">
-        <v>753.9917332769893</v>
+        <v>652.4512689878177</v>
       </c>
       <c r="Q23" t="n">
-        <v>753.9917332769893</v>
+        <v>652.4512689878177</v>
       </c>
       <c r="R23" t="n">
-        <v>753.9917332769893</v>
+        <v>753.9917332769891</v>
       </c>
       <c r="S23" t="n">
-        <v>753.9917332769893</v>
+        <v>753.9917332769891</v>
       </c>
       <c r="T23" t="n">
-        <v>753.9917332769893</v>
+        <v>753.9917332769891</v>
       </c>
       <c r="U23" t="n">
-        <v>753.9917332769893</v>
+        <v>753.9917332769891</v>
       </c>
       <c r="V23" t="n">
-        <v>730.3229325879311</v>
+        <v>730.3229325879305</v>
       </c>
       <c r="W23" t="n">
-        <v>689.4655660235039</v>
+        <v>689.4655660235036</v>
       </c>
       <c r="X23" t="n">
-        <v>626.5008757530779</v>
+        <v>626.5008757530776</v>
       </c>
       <c r="Y23" t="n">
-        <v>540.8060308122036</v>
+        <v>540.8060308122033</v>
       </c>
     </row>
     <row r="24">
@@ -6042,76 +6042,76 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>46.70526787616137</v>
+        <v>39.76642355882694</v>
       </c>
       <c r="C24" t="n">
-        <v>46.70526787616137</v>
+        <v>39.76642355882694</v>
       </c>
       <c r="D24" t="n">
-        <v>15.07983466553979</v>
+        <v>39.76642355882694</v>
       </c>
       <c r="E24" t="n">
-        <v>15.07983466553979</v>
+        <v>15.07983466553978</v>
       </c>
       <c r="F24" t="n">
-        <v>15.07983466553979</v>
+        <v>15.07983466553978</v>
       </c>
       <c r="G24" t="n">
-        <v>15.07983466553979</v>
+        <v>15.07983466553978</v>
       </c>
       <c r="H24" t="n">
-        <v>15.07983466553979</v>
+        <v>15.07983466553978</v>
       </c>
       <c r="I24" t="n">
-        <v>15.07983466553979</v>
+        <v>15.07983466553978</v>
       </c>
       <c r="J24" t="n">
-        <v>15.07983466553979</v>
+        <v>15.07983466553978</v>
       </c>
       <c r="K24" t="n">
-        <v>53.04316068142069</v>
+        <v>53.04316068142062</v>
       </c>
       <c r="L24" t="n">
-        <v>170.3760798097948</v>
+        <v>170.3760798097947</v>
       </c>
       <c r="M24" t="n">
-        <v>352.0527264138002</v>
+        <v>352.0527264138001</v>
       </c>
       <c r="N24" t="n">
-        <v>538.6656803998551</v>
+        <v>538.6656803998549</v>
       </c>
       <c r="O24" t="n">
-        <v>670.3666200188894</v>
+        <v>670.3666200188892</v>
       </c>
       <c r="P24" t="n">
-        <v>753.9917332769893</v>
+        <v>753.9917332769891</v>
       </c>
       <c r="Q24" t="n">
-        <v>753.9917332769893</v>
+        <v>747.0528889596546</v>
       </c>
       <c r="R24" t="n">
-        <v>617.9111264193351</v>
+        <v>610.9722821020005</v>
       </c>
       <c r="S24" t="n">
-        <v>617.9111264193351</v>
+        <v>610.9722821020005</v>
       </c>
       <c r="T24" t="n">
-        <v>427.5091735716105</v>
+        <v>610.9722821020005</v>
       </c>
       <c r="U24" t="n">
-        <v>237.1072207238859</v>
+        <v>420.570329254276</v>
       </c>
       <c r="V24" t="n">
-        <v>237.1072207238859</v>
+        <v>420.570329254276</v>
       </c>
       <c r="W24" t="n">
-        <v>237.1072207238859</v>
+        <v>230.1683764065515</v>
       </c>
       <c r="X24" t="n">
-        <v>237.1072207238859</v>
+        <v>39.76642355882694</v>
       </c>
       <c r="Y24" t="n">
-        <v>46.70526787616137</v>
+        <v>39.76642355882694</v>
       </c>
     </row>
     <row r="25">
@@ -6121,76 +6121,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>15.07983466553979</v>
+        <v>15.07983466553978</v>
       </c>
       <c r="C25" t="n">
-        <v>15.07983466553979</v>
+        <v>15.07983466553978</v>
       </c>
       <c r="D25" t="n">
-        <v>15.07983466553979</v>
+        <v>15.07983466553978</v>
       </c>
       <c r="E25" t="n">
-        <v>15.07983466553979</v>
+        <v>15.07983466553978</v>
       </c>
       <c r="F25" t="n">
-        <v>15.07983466553979</v>
+        <v>15.07983466553978</v>
       </c>
       <c r="G25" t="n">
-        <v>15.07983466553979</v>
+        <v>15.07983466553978</v>
       </c>
       <c r="H25" t="n">
-        <v>15.07983466553979</v>
+        <v>15.07983466553978</v>
       </c>
       <c r="I25" t="n">
-        <v>15.07983466553979</v>
+        <v>15.07983466553978</v>
       </c>
       <c r="J25" t="n">
-        <v>15.07983466553979</v>
+        <v>15.07983466553978</v>
       </c>
       <c r="K25" t="n">
-        <v>15.07983466553979</v>
+        <v>15.07983466553978</v>
       </c>
       <c r="L25" t="n">
-        <v>15.07983466553979</v>
+        <v>15.07983466553978</v>
       </c>
       <c r="M25" t="n">
-        <v>15.07983466553979</v>
+        <v>15.07983466553978</v>
       </c>
       <c r="N25" t="n">
-        <v>15.07983466553979</v>
+        <v>15.07983466553978</v>
       </c>
       <c r="O25" t="n">
-        <v>15.07983466553979</v>
+        <v>15.07983466553978</v>
       </c>
       <c r="P25" t="n">
-        <v>15.07983466553979</v>
+        <v>15.07983466553978</v>
       </c>
       <c r="Q25" t="n">
-        <v>15.07983466553979</v>
+        <v>15.07983466553978</v>
       </c>
       <c r="R25" t="n">
-        <v>15.07983466553979</v>
+        <v>15.07983466553978</v>
       </c>
       <c r="S25" t="n">
-        <v>15.07983466553979</v>
+        <v>15.07983466553978</v>
       </c>
       <c r="T25" t="n">
-        <v>15.07983466553979</v>
+        <v>15.07983466553978</v>
       </c>
       <c r="U25" t="n">
-        <v>15.07983466553979</v>
+        <v>15.07983466553978</v>
       </c>
       <c r="V25" t="n">
-        <v>15.07983466553979</v>
+        <v>15.07983466553978</v>
       </c>
       <c r="W25" t="n">
-        <v>15.07983466553979</v>
+        <v>15.07983466553978</v>
       </c>
       <c r="X25" t="n">
-        <v>15.07983466553979</v>
+        <v>15.07983466553978</v>
       </c>
       <c r="Y25" t="n">
-        <v>15.07983466553979</v>
+        <v>15.07983466553978</v>
       </c>
     </row>
     <row r="26">
@@ -6200,46 +6200,46 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>1020.898422489612</v>
+        <v>1020.898422489611</v>
       </c>
       <c r="C26" t="n">
-        <v>882.7966579874117</v>
+        <v>882.7966579874112</v>
       </c>
       <c r="D26" t="n">
-        <v>757.2538204942535</v>
+        <v>757.2538204942533</v>
       </c>
       <c r="E26" t="n">
-        <v>597.663758335026</v>
+        <v>597.6637583350259</v>
       </c>
       <c r="F26" t="n">
-        <v>406.0329511471346</v>
+        <v>406.0329511471345</v>
       </c>
       <c r="G26" t="n">
-        <v>198.605251714157</v>
+        <v>198.6052517141568</v>
       </c>
       <c r="H26" t="n">
-        <v>63.71974859845027</v>
+        <v>63.71974859845014</v>
       </c>
       <c r="I26" t="n">
-        <v>35.91669941514207</v>
+        <v>35.91669941514208</v>
       </c>
       <c r="J26" t="n">
         <v>171.2527996589549</v>
       </c>
       <c r="K26" t="n">
-        <v>375.9427824528779</v>
+        <v>375.942782452878</v>
       </c>
       <c r="L26" t="n">
-        <v>634.0135279523988</v>
+        <v>634.013527952399</v>
       </c>
       <c r="M26" t="n">
-        <v>926.2253300581076</v>
+        <v>926.2253300581073</v>
       </c>
       <c r="N26" t="n">
         <v>1212.903126212561</v>
       </c>
       <c r="O26" t="n">
-        <v>1458.47366392399</v>
+        <v>1458.473663923989</v>
       </c>
       <c r="P26" t="n">
         <v>1654.882514315173</v>
@@ -6254,22 +6254,22 @@
         <v>1781.660986883925</v>
       </c>
       <c r="T26" t="n">
-        <v>1772.589137514411</v>
+        <v>1772.589137514412</v>
       </c>
       <c r="U26" t="n">
-        <v>1735.552985020827</v>
+        <v>1735.552985020826</v>
       </c>
       <c r="V26" t="n">
-        <v>1627.073153621685</v>
+        <v>1627.073153621684</v>
       </c>
       <c r="W26" t="n">
-        <v>1501.404756347174</v>
+        <v>1501.404756347173</v>
       </c>
       <c r="X26" t="n">
-        <v>1353.629035366664</v>
+        <v>1353.629035366663</v>
       </c>
       <c r="Y26" t="n">
-        <v>1183.123159715705</v>
+        <v>1183.123159715704</v>
       </c>
     </row>
     <row r="27">
@@ -6279,31 +6279,31 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>120.3872936517729</v>
+        <v>35.91669941514208</v>
       </c>
       <c r="C27" t="n">
-        <v>35.91669941514207</v>
+        <v>35.91669941514208</v>
       </c>
       <c r="D27" t="n">
-        <v>35.91669941514207</v>
+        <v>35.91669941514208</v>
       </c>
       <c r="E27" t="n">
-        <v>35.91669941514207</v>
+        <v>35.91669941514208</v>
       </c>
       <c r="F27" t="n">
-        <v>35.91669941514207</v>
+        <v>35.91669941514208</v>
       </c>
       <c r="G27" t="n">
-        <v>35.91669941514207</v>
+        <v>35.91669941514208</v>
       </c>
       <c r="H27" t="n">
-        <v>35.91669941514207</v>
+        <v>35.91669941514208</v>
       </c>
       <c r="I27" t="n">
-        <v>35.91669941514207</v>
+        <v>35.91669941514208</v>
       </c>
       <c r="J27" t="n">
-        <v>35.91669941514207</v>
+        <v>35.91669941514208</v>
       </c>
       <c r="K27" t="n">
         <v>73.88002543102243</v>
@@ -6312,43 +6312,43 @@
         <v>191.2129445593965</v>
       </c>
       <c r="M27" t="n">
-        <v>372.889591163402</v>
+        <v>372.8895911634019</v>
       </c>
       <c r="N27" t="n">
-        <v>577.7945675741612</v>
+        <v>577.7945675741611</v>
       </c>
       <c r="O27" t="n">
-        <v>709.4955071931956</v>
+        <v>709.4955071931954</v>
       </c>
       <c r="P27" t="n">
-        <v>793.1206204512955</v>
+        <v>793.1206204512953</v>
       </c>
       <c r="Q27" t="n">
-        <v>786.1817761339611</v>
+        <v>786.1817761339609</v>
       </c>
       <c r="R27" t="n">
-        <v>650.1011692763069</v>
+        <v>766.2815382736781</v>
       </c>
       <c r="S27" t="n">
-        <v>456.5751174379187</v>
+        <v>766.2815382736781</v>
       </c>
       <c r="T27" t="n">
-        <v>455.0739325071214</v>
+        <v>764.7803533428809</v>
       </c>
       <c r="U27" t="n">
-        <v>215.4496198840016</v>
+        <v>740.7972028652166</v>
       </c>
       <c r="V27" t="n">
-        <v>188.0110639330912</v>
+        <v>497.7174847688507</v>
       </c>
       <c r="W27" t="n">
-        <v>134.2536568088379</v>
+        <v>228.318915499142</v>
       </c>
       <c r="X27" t="n">
-        <v>130.3868245709898</v>
+        <v>224.452083261294</v>
       </c>
       <c r="Y27" t="n">
-        <v>120.3872936517729</v>
+        <v>214.4525523420772</v>
       </c>
     </row>
     <row r="28">
@@ -6358,76 +6358,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>35.91669941514207</v>
+        <v>35.91669941514208</v>
       </c>
       <c r="C28" t="n">
-        <v>35.91669941514207</v>
+        <v>35.91669941514208</v>
       </c>
       <c r="D28" t="n">
-        <v>35.91669941514207</v>
+        <v>35.91669941514208</v>
       </c>
       <c r="E28" t="n">
-        <v>35.91669941514207</v>
+        <v>35.91669941514208</v>
       </c>
       <c r="F28" t="n">
-        <v>35.91669941514207</v>
+        <v>35.91669941514208</v>
       </c>
       <c r="G28" t="n">
-        <v>35.91669941514207</v>
+        <v>35.91669941514208</v>
       </c>
       <c r="H28" t="n">
-        <v>35.91669941514207</v>
+        <v>35.91669941514208</v>
       </c>
       <c r="I28" t="n">
-        <v>35.91669941514207</v>
+        <v>35.91669941514208</v>
       </c>
       <c r="J28" t="n">
-        <v>35.91669941514207</v>
+        <v>35.91669941514208</v>
       </c>
       <c r="K28" t="n">
-        <v>35.91669941514207</v>
+        <v>35.91669941514208</v>
       </c>
       <c r="L28" t="n">
-        <v>35.91669941514207</v>
+        <v>71.16756695283652</v>
       </c>
       <c r="M28" t="n">
-        <v>35.91669941514207</v>
+        <v>71.16756695283652</v>
       </c>
       <c r="N28" t="n">
-        <v>102.7521825938119</v>
+        <v>266.162514176009</v>
       </c>
       <c r="O28" t="n">
-        <v>102.7521825938119</v>
+        <v>266.162514176009</v>
       </c>
       <c r="P28" t="n">
-        <v>256.2082727013264</v>
+        <v>266.162514176009</v>
       </c>
       <c r="Q28" t="n">
-        <v>256.2082727013264</v>
+        <v>266.162514176009</v>
       </c>
       <c r="R28" t="n">
-        <v>266.1625141760096</v>
+        <v>266.162514176009</v>
       </c>
       <c r="S28" t="n">
-        <v>243.9874698909796</v>
+        <v>243.9874698909792</v>
       </c>
       <c r="T28" t="n">
-        <v>233.6068558239876</v>
+        <v>233.6068558239872</v>
       </c>
       <c r="U28" t="n">
-        <v>157.6757382032152</v>
+        <v>157.6757382032149</v>
       </c>
       <c r="V28" t="n">
-        <v>125.7320365259941</v>
+        <v>125.7320365259938</v>
       </c>
       <c r="W28" t="n">
-        <v>48.13006019737347</v>
+        <v>48.1300601973733</v>
       </c>
       <c r="X28" t="n">
-        <v>39.6101562738971</v>
+        <v>39.61015627389703</v>
       </c>
       <c r="Y28" t="n">
-        <v>35.91669941514207</v>
+        <v>35.91669941514208</v>
       </c>
     </row>
     <row r="29">
@@ -6437,40 +6437,40 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>1020.898422489611</v>
+        <v>1020.89842248961</v>
       </c>
       <c r="C29" t="n">
-        <v>882.7966579874113</v>
+        <v>882.7966579874106</v>
       </c>
       <c r="D29" t="n">
-        <v>757.2538204942534</v>
+        <v>757.2538204942529</v>
       </c>
       <c r="E29" t="n">
-        <v>597.663758335026</v>
+        <v>597.6637583350255</v>
       </c>
       <c r="F29" t="n">
-        <v>406.0329511471346</v>
+        <v>406.0329511471341</v>
       </c>
       <c r="G29" t="n">
-        <v>198.6052517141572</v>
+        <v>198.6052517141568</v>
       </c>
       <c r="H29" t="n">
-        <v>63.71974859845056</v>
+        <v>63.71974859845016</v>
       </c>
       <c r="I29" t="n">
         <v>35.91669941514207</v>
       </c>
       <c r="J29" t="n">
-        <v>171.252799658955</v>
+        <v>171.2527996589554</v>
       </c>
       <c r="K29" t="n">
-        <v>375.9427824528782</v>
+        <v>375.9427824528784</v>
       </c>
       <c r="L29" t="n">
-        <v>634.0135279523993</v>
+        <v>634.0135279523995</v>
       </c>
       <c r="M29" t="n">
-        <v>926.2253300581075</v>
+        <v>926.2253300581077</v>
       </c>
       <c r="N29" t="n">
         <v>1212.903126212561</v>
@@ -6488,25 +6488,25 @@
         <v>1795.834970757104</v>
       </c>
       <c r="S29" t="n">
-        <v>1781.660986883925</v>
+        <v>1781.660986883923</v>
       </c>
       <c r="T29" t="n">
-        <v>1772.589137514412</v>
+        <v>1772.58913751441</v>
       </c>
       <c r="U29" t="n">
-        <v>1735.552985020827</v>
+        <v>1735.552985020825</v>
       </c>
       <c r="V29" t="n">
-        <v>1627.073153621684</v>
+        <v>1627.073153621683</v>
       </c>
       <c r="W29" t="n">
-        <v>1501.404756347173</v>
+        <v>1501.404756347172</v>
       </c>
       <c r="X29" t="n">
-        <v>1353.629035366663</v>
+        <v>1353.629035366662</v>
       </c>
       <c r="Y29" t="n">
-        <v>1183.123159715705</v>
+        <v>1183.123159715704</v>
       </c>
     </row>
     <row r="30">
@@ -6516,7 +6516,7 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>35.91669941514207</v>
+        <v>225.3289736821783</v>
       </c>
       <c r="C30" t="n">
         <v>35.91669941514207</v>
@@ -6549,43 +6549,43 @@
         <v>191.2129445593965</v>
       </c>
       <c r="M30" t="n">
-        <v>372.889591163402</v>
+        <v>372.8895911634019</v>
       </c>
       <c r="N30" t="n">
-        <v>577.7945675741612</v>
+        <v>577.7945675741611</v>
       </c>
       <c r="O30" t="n">
-        <v>709.4955071931956</v>
+        <v>709.4955071931954</v>
       </c>
       <c r="P30" t="n">
-        <v>793.1206204512955</v>
+        <v>793.1206204512953</v>
       </c>
       <c r="Q30" t="n">
-        <v>786.1817761339611</v>
+        <v>786.1817761339609</v>
       </c>
       <c r="R30" t="n">
-        <v>650.1011692763069</v>
+        <v>786.1817761339609</v>
       </c>
       <c r="S30" t="n">
-        <v>456.5751174379187</v>
+        <v>786.1817761339609</v>
       </c>
       <c r="T30" t="n">
-        <v>455.0739325071215</v>
+        <v>784.6805912031637</v>
       </c>
       <c r="U30" t="n">
-        <v>215.4496198840016</v>
+        <v>760.6974407254994</v>
       </c>
       <c r="V30" t="n">
-        <v>188.0110639330913</v>
+        <v>517.6177226291335</v>
       </c>
       <c r="W30" t="n">
-        <v>134.2536568088381</v>
+        <v>248.2191533594248</v>
       </c>
       <c r="X30" t="n">
-        <v>45.91623033435886</v>
+        <v>244.3523211215768</v>
       </c>
       <c r="Y30" t="n">
-        <v>35.91669941514207</v>
+        <v>234.35279020236</v>
       </c>
     </row>
     <row r="31">
@@ -6631,37 +6631,37 @@
         <v>35.91669941514207</v>
       </c>
       <c r="N31" t="n">
-        <v>180.7574272613005</v>
+        <v>35.91669941514207</v>
       </c>
       <c r="O31" t="n">
-        <v>180.7574272613005</v>
+        <v>35.91669941514207</v>
       </c>
       <c r="P31" t="n">
-        <v>180.7574272613005</v>
+        <v>189.3727895226567</v>
       </c>
       <c r="Q31" t="n">
-        <v>266.1625141760092</v>
+        <v>266.1625141760088</v>
       </c>
       <c r="R31" t="n">
-        <v>266.1625141760092</v>
+        <v>266.1625141760088</v>
       </c>
       <c r="S31" t="n">
-        <v>243.9874698909793</v>
+        <v>243.987469890979</v>
       </c>
       <c r="T31" t="n">
-        <v>233.6068558239874</v>
+        <v>233.6068558239871</v>
       </c>
       <c r="U31" t="n">
-        <v>157.675738203215</v>
+        <v>157.6757382032148</v>
       </c>
       <c r="V31" t="n">
-        <v>125.7320365259939</v>
+        <v>125.7320365259937</v>
       </c>
       <c r="W31" t="n">
-        <v>48.13006019737335</v>
+        <v>48.13006019737324</v>
       </c>
       <c r="X31" t="n">
-        <v>39.61015627389705</v>
+        <v>39.61015627389699</v>
       </c>
       <c r="Y31" t="n">
         <v>35.91669941514207</v>
@@ -6680,13 +6680,13 @@
         <v>877.5242945806687</v>
       </c>
       <c r="D32" t="n">
-        <v>752.8175276601007</v>
+        <v>752.8175276601008</v>
       </c>
       <c r="E32" t="n">
-        <v>594.0635360734635</v>
+        <v>594.0635360734636</v>
       </c>
       <c r="F32" t="n">
-        <v>403.2687994581623</v>
+        <v>403.2687994581624</v>
       </c>
       <c r="G32" t="n">
         <v>196.6771705977753</v>
@@ -6704,16 +6704,16 @@
         <v>377.3257080180682</v>
       </c>
       <c r="L32" t="n">
-        <v>616.2999327831709</v>
+        <v>636.215886285785</v>
       </c>
       <c r="M32" t="n">
-        <v>909.3311676570748</v>
+        <v>929.247121159689</v>
       </c>
       <c r="N32" t="n">
         <v>1196.828396579724</v>
       </c>
       <c r="O32" t="n">
-        <v>1443.218367059348</v>
+        <v>1443.218367059349</v>
       </c>
       <c r="P32" t="n">
         <v>1640.446650218727</v>
@@ -6743,7 +6743,7 @@
         <v>1345.84846024215</v>
       </c>
       <c r="Y32" t="n">
-        <v>1176.178655163782</v>
+        <v>1176.178655163781</v>
       </c>
     </row>
     <row r="33">
@@ -6753,7 +6753,7 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>225.0730337109773</v>
+        <v>35.660759443941</v>
       </c>
       <c r="C33" t="n">
         <v>35.660759443941</v>
@@ -6780,49 +6780,49 @@
         <v>35.660759443941</v>
       </c>
       <c r="K33" t="n">
-        <v>73.62408545982137</v>
+        <v>73.62408545982134</v>
       </c>
       <c r="L33" t="n">
-        <v>190.9570045881955</v>
+        <v>190.9570045881954</v>
       </c>
       <c r="M33" t="n">
-        <v>372.6336511922009</v>
+        <v>372.6336511922008</v>
       </c>
       <c r="N33" t="n">
-        <v>577.5386276029601</v>
+        <v>577.53862760296</v>
       </c>
       <c r="O33" t="n">
-        <v>709.2395672219945</v>
+        <v>709.2395672219943</v>
       </c>
       <c r="P33" t="n">
-        <v>792.8646804800944</v>
+        <v>792.8646804800942</v>
       </c>
       <c r="Q33" t="n">
-        <v>785.92583616276</v>
+        <v>785.9258361627598</v>
       </c>
       <c r="R33" t="n">
-        <v>649.8452293051058</v>
+        <v>785.9258361627598</v>
       </c>
       <c r="S33" t="n">
-        <v>456.3191774667176</v>
+        <v>592.3997843243716</v>
       </c>
       <c r="T33" t="n">
-        <v>455.6540631085106</v>
+        <v>583.4803487269741</v>
       </c>
       <c r="U33" t="n">
-        <v>432.5069832034365</v>
+        <v>343.8560361038543</v>
       </c>
       <c r="V33" t="n">
-        <v>290.1885922745246</v>
+        <v>317.2535507255341</v>
       </c>
       <c r="W33" t="n">
-        <v>237.2672557228617</v>
+        <v>47.85498145582544</v>
       </c>
       <c r="X33" t="n">
-        <v>234.2364940576039</v>
+        <v>44.82421979056757</v>
       </c>
       <c r="Y33" t="n">
-        <v>225.0730337109773</v>
+        <v>35.660759443941</v>
       </c>
     </row>
     <row r="34">
@@ -6868,10 +6868,10 @@
         <v>35.660759443941</v>
       </c>
       <c r="N34" t="n">
-        <v>105.7785573209663</v>
+        <v>84.98883956751894</v>
       </c>
       <c r="O34" t="n">
-        <v>105.7785573209663</v>
+        <v>260.0540801966766</v>
       </c>
       <c r="P34" t="n">
         <v>260.0540801966766</v>
@@ -6911,76 +6911,76 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>623.0190675361102</v>
+        <v>623.01906753611</v>
       </c>
       <c r="C35" t="n">
-        <v>544.0833815513524</v>
+        <v>544.0833815513521</v>
       </c>
       <c r="D35" t="n">
-        <v>477.7066225756367</v>
+        <v>477.7066225756365</v>
       </c>
       <c r="E35" t="n">
-        <v>377.2826389338514</v>
+        <v>377.2826389338512</v>
       </c>
       <c r="F35" t="n">
-        <v>244.8179102634022</v>
+        <v>244.817910263402</v>
       </c>
       <c r="G35" t="n">
-        <v>96.55628934786678</v>
+        <v>96.55628934786674</v>
       </c>
       <c r="H35" t="n">
-        <v>20.8368647496023</v>
+        <v>20.83686474960229</v>
       </c>
       <c r="I35" t="n">
-        <v>20.8368647496023</v>
+        <v>20.83686474960229</v>
       </c>
       <c r="J35" t="n">
-        <v>214.1616385483603</v>
+        <v>20.83686474960229</v>
       </c>
       <c r="K35" t="n">
-        <v>260.8925850974337</v>
+        <v>278.6930660259306</v>
       </c>
       <c r="L35" t="n">
-        <v>307.6134275781938</v>
+        <v>325.4139085066907</v>
       </c>
       <c r="M35" t="n">
-        <v>388.475326665141</v>
+        <v>406.2758075936379</v>
       </c>
       <c r="N35" t="n">
-        <v>463.8032198008333</v>
+        <v>664.1320088699663</v>
       </c>
       <c r="O35" t="n">
-        <v>721.6594210771618</v>
+        <v>698.3526435626341</v>
       </c>
       <c r="P35" t="n">
-        <v>976.0569450232899</v>
+        <v>952.7501675087623</v>
       </c>
       <c r="Q35" t="n">
-        <v>976.0569450232899</v>
+        <v>1041.843237480114</v>
       </c>
       <c r="R35" t="n">
-        <v>976.0569450232899</v>
+        <v>1041.843237480114</v>
       </c>
       <c r="S35" t="n">
-        <v>1020.153696984132</v>
+        <v>1041.843237480114</v>
       </c>
       <c r="T35" t="n">
-        <v>1020.153696984132</v>
+        <v>1041.843237480114</v>
       </c>
       <c r="U35" t="n">
-        <v>1041.843237480115</v>
+        <v>1041.843237480114</v>
       </c>
       <c r="V35" t="n">
-        <v>992.5294845984147</v>
+        <v>992.529484598414</v>
       </c>
       <c r="W35" t="n">
-        <v>926.0271658413458</v>
+        <v>926.0271658413452</v>
       </c>
       <c r="X35" t="n">
-        <v>837.4175233782778</v>
+        <v>837.4175233782775</v>
       </c>
       <c r="Y35" t="n">
-        <v>726.0777262447614</v>
+        <v>726.0777262447612</v>
       </c>
     </row>
     <row r="36">
@@ -6990,43 +6990,43 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>20.8368647496023</v>
+        <v>262.9594298454437</v>
       </c>
       <c r="C36" t="n">
-        <v>20.8368647496023</v>
+        <v>73.54715557840743</v>
       </c>
       <c r="D36" t="n">
-        <v>20.8368647496023</v>
+        <v>73.54715557840743</v>
       </c>
       <c r="E36" t="n">
-        <v>20.8368647496023</v>
+        <v>73.54715557840743</v>
       </c>
       <c r="F36" t="n">
-        <v>20.8368647496023</v>
+        <v>20.83686474960229</v>
       </c>
       <c r="G36" t="n">
-        <v>20.8368647496023</v>
+        <v>20.83686474960229</v>
       </c>
       <c r="H36" t="n">
-        <v>20.8368647496023</v>
+        <v>20.83686474960229</v>
       </c>
       <c r="I36" t="n">
-        <v>20.8368647496023</v>
+        <v>20.83686474960229</v>
       </c>
       <c r="J36" t="n">
-        <v>20.8368647496023</v>
+        <v>20.83686474960229</v>
       </c>
       <c r="K36" t="n">
-        <v>58.80019076548267</v>
+        <v>58.80019076548264</v>
       </c>
       <c r="L36" t="n">
-        <v>176.1331098938568</v>
+        <v>176.1331098938567</v>
       </c>
       <c r="M36" t="n">
-        <v>357.8097564978622</v>
+        <v>357.8097564978621</v>
       </c>
       <c r="N36" t="n">
-        <v>562.7147329086214</v>
+        <v>562.7147329086213</v>
       </c>
       <c r="O36" t="n">
         <v>694.4156725276557</v>
@@ -7041,25 +7041,25 @@
         <v>635.021334610767</v>
       </c>
       <c r="S36" t="n">
-        <v>477.603524448975</v>
+        <v>441.4952827723788</v>
       </c>
       <c r="T36" t="n">
-        <v>260.4611773727221</v>
+        <v>441.4952827723788</v>
       </c>
       <c r="U36" t="n">
-        <v>20.8368647496023</v>
+        <v>441.4952827723788</v>
       </c>
       <c r="V36" t="n">
-        <v>20.8368647496023</v>
+        <v>441.4952827723788</v>
       </c>
       <c r="W36" t="n">
-        <v>20.8368647496023</v>
+        <v>441.4952827723788</v>
       </c>
       <c r="X36" t="n">
-        <v>20.8368647496023</v>
+        <v>441.4952827723788</v>
       </c>
       <c r="Y36" t="n">
-        <v>20.8368647496023</v>
+        <v>441.4952827723788</v>
       </c>
     </row>
     <row r="37">
@@ -7069,76 +7069,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>20.8368647496023</v>
+        <v>20.83686474960229</v>
       </c>
       <c r="C37" t="n">
-        <v>20.8368647496023</v>
+        <v>20.83686474960229</v>
       </c>
       <c r="D37" t="n">
-        <v>20.8368647496023</v>
+        <v>20.83686474960229</v>
       </c>
       <c r="E37" t="n">
-        <v>20.8368647496023</v>
+        <v>20.83686474960229</v>
       </c>
       <c r="F37" t="n">
-        <v>20.8368647496023</v>
+        <v>20.83686474960229</v>
       </c>
       <c r="G37" t="n">
-        <v>20.8368647496023</v>
+        <v>20.83686474960229</v>
       </c>
       <c r="H37" t="n">
-        <v>20.8368647496023</v>
+        <v>20.83686474960229</v>
       </c>
       <c r="I37" t="n">
-        <v>20.8368647496023</v>
+        <v>20.83686474960229</v>
       </c>
       <c r="J37" t="n">
-        <v>20.8368647496023</v>
+        <v>20.83686474960229</v>
       </c>
       <c r="K37" t="n">
-        <v>20.8368647496023</v>
+        <v>20.83686474960229</v>
       </c>
       <c r="L37" t="n">
-        <v>20.8368647496023</v>
+        <v>20.83686474960229</v>
       </c>
       <c r="M37" t="n">
-        <v>20.8368647496023</v>
+        <v>20.83686474960229</v>
       </c>
       <c r="N37" t="n">
-        <v>20.8368647496023</v>
+        <v>20.83686474960229</v>
       </c>
       <c r="O37" t="n">
-        <v>20.8368647496023</v>
+        <v>20.83686474960229</v>
       </c>
       <c r="P37" t="n">
-        <v>20.8368647496023</v>
+        <v>20.83686474960229</v>
       </c>
       <c r="Q37" t="n">
-        <v>20.8368647496023</v>
+        <v>20.83686474960229</v>
       </c>
       <c r="R37" t="n">
-        <v>20.8368647496023</v>
+        <v>37.60190385293242</v>
       </c>
       <c r="S37" t="n">
-        <v>56.03780166411087</v>
+        <v>37.60190385293242</v>
       </c>
       <c r="T37" t="n">
-        <v>56.03780166411087</v>
+        <v>37.60190385293242</v>
       </c>
       <c r="U37" t="n">
-        <v>39.27276256078069</v>
+        <v>20.83686474960229</v>
       </c>
       <c r="V37" t="n">
-        <v>39.27276256078069</v>
+        <v>39.27276256078062</v>
       </c>
       <c r="W37" t="n">
-        <v>20.8368647496023</v>
+        <v>20.83686474960229</v>
       </c>
       <c r="X37" t="n">
-        <v>20.8368647496023</v>
+        <v>20.83686474960229</v>
       </c>
       <c r="Y37" t="n">
-        <v>20.8368647496023</v>
+        <v>20.83686474960229</v>
       </c>
     </row>
     <row r="38">
@@ -7148,76 +7148,76 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>623.0190675361105</v>
+        <v>623.0190675361096</v>
       </c>
       <c r="C38" t="n">
-        <v>544.0833815513528</v>
+        <v>544.0833815513517</v>
       </c>
       <c r="D38" t="n">
-        <v>477.7066225756371</v>
+        <v>477.7066225756361</v>
       </c>
       <c r="E38" t="n">
-        <v>377.2826389338518</v>
+        <v>377.2826389338509</v>
       </c>
       <c r="F38" t="n">
-        <v>244.8179102634028</v>
+        <v>244.8179102634016</v>
       </c>
       <c r="G38" t="n">
-        <v>96.55628934786678</v>
+        <v>96.55628934786674</v>
       </c>
       <c r="H38" t="n">
-        <v>20.8368647496023</v>
+        <v>20.83686474960228</v>
       </c>
       <c r="I38" t="n">
-        <v>51.57576979998704</v>
+        <v>20.83686474960228</v>
       </c>
       <c r="J38" t="n">
-        <v>51.57576979998704</v>
+        <v>31.14757656866641</v>
       </c>
       <c r="K38" t="n">
-        <v>51.57576979998704</v>
+        <v>31.14757656866641</v>
       </c>
       <c r="L38" t="n">
-        <v>309.4319710763155</v>
+        <v>289.0037778449947</v>
       </c>
       <c r="M38" t="n">
-        <v>399.2778416578229</v>
+        <v>369.8656769319419</v>
       </c>
       <c r="N38" t="n">
-        <v>474.6057347935152</v>
+        <v>627.7218782082701</v>
       </c>
       <c r="O38" t="n">
-        <v>508.826369486183</v>
+        <v>661.9425129009379</v>
       </c>
       <c r="P38" t="n">
-        <v>763.2238934323111</v>
+        <v>916.3400368470661</v>
       </c>
       <c r="Q38" t="n">
-        <v>943.7478503389693</v>
+        <v>916.3400368470661</v>
       </c>
       <c r="R38" t="n">
-        <v>1020.153696984132</v>
+        <v>992.745883492229</v>
       </c>
       <c r="S38" t="n">
-        <v>1020.153696984132</v>
+        <v>992.745883492229</v>
       </c>
       <c r="T38" t="n">
-        <v>1020.153696984132</v>
+        <v>1041.843237480114</v>
       </c>
       <c r="U38" t="n">
-        <v>1041.843237480115</v>
+        <v>1041.843237480114</v>
       </c>
       <c r="V38" t="n">
-        <v>992.5294845984147</v>
+        <v>992.5294845984138</v>
       </c>
       <c r="W38" t="n">
-        <v>926.0271658413458</v>
+        <v>926.027165841345</v>
       </c>
       <c r="X38" t="n">
-        <v>837.4175233782778</v>
+        <v>837.4175233782769</v>
       </c>
       <c r="Y38" t="n">
-        <v>726.0777262447616</v>
+        <v>726.0777262447606</v>
       </c>
     </row>
     <row r="39">
@@ -7227,43 +7227,43 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>20.8368647496023</v>
+        <v>20.83686474960228</v>
       </c>
       <c r="C39" t="n">
-        <v>20.8368647496023</v>
+        <v>20.83686474960228</v>
       </c>
       <c r="D39" t="n">
-        <v>20.8368647496023</v>
+        <v>20.83686474960228</v>
       </c>
       <c r="E39" t="n">
-        <v>20.8368647496023</v>
+        <v>20.83686474960228</v>
       </c>
       <c r="F39" t="n">
-        <v>20.8368647496023</v>
+        <v>20.83686474960228</v>
       </c>
       <c r="G39" t="n">
-        <v>20.8368647496023</v>
+        <v>20.83686474960228</v>
       </c>
       <c r="H39" t="n">
-        <v>20.8368647496023</v>
+        <v>20.83686474960228</v>
       </c>
       <c r="I39" t="n">
-        <v>20.8368647496023</v>
+        <v>20.83686474960228</v>
       </c>
       <c r="J39" t="n">
-        <v>20.8368647496023</v>
+        <v>20.83686474960228</v>
       </c>
       <c r="K39" t="n">
-        <v>58.80019076548267</v>
+        <v>58.80019076548264</v>
       </c>
       <c r="L39" t="n">
-        <v>176.1331098938568</v>
+        <v>176.1331098938567</v>
       </c>
       <c r="M39" t="n">
-        <v>357.8097564978622</v>
+        <v>357.8097564978621</v>
       </c>
       <c r="N39" t="n">
-        <v>562.7147329086214</v>
+        <v>562.7147329086213</v>
       </c>
       <c r="O39" t="n">
         <v>694.4156725276557</v>
@@ -7272,31 +7272,31 @@
         <v>778.0407857857556</v>
       </c>
       <c r="Q39" t="n">
-        <v>778.0407857857556</v>
+        <v>771.1019414684212</v>
       </c>
       <c r="R39" t="n">
-        <v>740.6952510853677</v>
+        <v>635.021334610767</v>
       </c>
       <c r="S39" t="n">
-        <v>740.6952510853677</v>
+        <v>441.4952827723788</v>
       </c>
       <c r="T39" t="n">
-        <v>523.5529040091149</v>
+        <v>441.4952827723788</v>
       </c>
       <c r="U39" t="n">
-        <v>283.928591385995</v>
+        <v>441.4952827723788</v>
       </c>
       <c r="V39" t="n">
-        <v>283.928591385995</v>
+        <v>441.4952827723788</v>
       </c>
       <c r="W39" t="n">
-        <v>20.8368647496023</v>
+        <v>240.3448591329059</v>
       </c>
       <c r="X39" t="n">
-        <v>20.8368647496023</v>
+        <v>20.83686474960228</v>
       </c>
       <c r="Y39" t="n">
-        <v>20.8368647496023</v>
+        <v>20.83686474960228</v>
       </c>
     </row>
     <row r="40">
@@ -7306,76 +7306,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>20.8368647496023</v>
+        <v>20.83686474960228</v>
       </c>
       <c r="C40" t="n">
-        <v>20.8368647496023</v>
+        <v>20.83686474960228</v>
       </c>
       <c r="D40" t="n">
-        <v>20.8368647496023</v>
+        <v>20.83686474960228</v>
       </c>
       <c r="E40" t="n">
-        <v>20.8368647496023</v>
+        <v>20.83686474960228</v>
       </c>
       <c r="F40" t="n">
-        <v>20.8368647496023</v>
+        <v>20.83686474960228</v>
       </c>
       <c r="G40" t="n">
-        <v>20.8368647496023</v>
+        <v>20.83686474960228</v>
       </c>
       <c r="H40" t="n">
-        <v>20.8368647496023</v>
+        <v>20.83686474960228</v>
       </c>
       <c r="I40" t="n">
-        <v>20.8368647496023</v>
+        <v>20.83686474960228</v>
       </c>
       <c r="J40" t="n">
-        <v>20.8368647496023</v>
+        <v>20.83686474960228</v>
       </c>
       <c r="K40" t="n">
-        <v>20.8368647496023</v>
+        <v>20.83686474960228</v>
       </c>
       <c r="L40" t="n">
-        <v>20.8368647496023</v>
+        <v>20.83686474960228</v>
       </c>
       <c r="M40" t="n">
-        <v>20.8368647496023</v>
+        <v>20.83686474960228</v>
       </c>
       <c r="N40" t="n">
-        <v>20.8368647496023</v>
+        <v>20.83686474960228</v>
       </c>
       <c r="O40" t="n">
-        <v>20.8368647496023</v>
+        <v>37.60190385293241</v>
       </c>
       <c r="P40" t="n">
-        <v>20.8368647496023</v>
+        <v>37.60190385293241</v>
       </c>
       <c r="Q40" t="n">
-        <v>20.8368647496023</v>
+        <v>37.60190385293241</v>
       </c>
       <c r="R40" t="n">
-        <v>37.60190385293249</v>
+        <v>37.60190385293241</v>
       </c>
       <c r="S40" t="n">
-        <v>37.60190385293249</v>
+        <v>37.60190385293241</v>
       </c>
       <c r="T40" t="n">
-        <v>37.60190385293249</v>
+        <v>37.60190385293241</v>
       </c>
       <c r="U40" t="n">
-        <v>20.8368647496023</v>
+        <v>20.83686474960228</v>
       </c>
       <c r="V40" t="n">
-        <v>39.27276256078069</v>
+        <v>39.27276256078061</v>
       </c>
       <c r="W40" t="n">
-        <v>20.8368647496023</v>
+        <v>20.83686474960228</v>
       </c>
       <c r="X40" t="n">
-        <v>20.8368647496023</v>
+        <v>20.83686474960228</v>
       </c>
       <c r="Y40" t="n">
-        <v>20.8368647496023</v>
+        <v>20.83686474960228</v>
       </c>
     </row>
     <row r="41">
@@ -7385,76 +7385,76 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>818.4263542753174</v>
+        <v>818.4263542753165</v>
       </c>
       <c r="C41" t="n">
-        <v>708.1276389564256</v>
+        <v>708.1276389564244</v>
       </c>
       <c r="D41" t="n">
-        <v>610.3878506465758</v>
+        <v>610.3878506465747</v>
       </c>
       <c r="E41" t="n">
-        <v>478.6008376706565</v>
+        <v>478.6008376706554</v>
       </c>
       <c r="F41" t="n">
-        <v>314.7730796660732</v>
+        <v>314.7730796660721</v>
       </c>
       <c r="G41" t="n">
         <v>135.1484294164039</v>
       </c>
       <c r="H41" t="n">
-        <v>28.06597548400537</v>
+        <v>28.06597548400535</v>
       </c>
       <c r="I41" t="n">
-        <v>28.06597548400537</v>
+        <v>28.06597548400535</v>
       </c>
       <c r="J41" t="n">
-        <v>190.6518442323786</v>
+        <v>28.06597548400535</v>
       </c>
       <c r="K41" t="n">
-        <v>238.141253562806</v>
+        <v>260.0057267824887</v>
       </c>
       <c r="L41" t="n">
-        <v>284.8620960435661</v>
+        <v>545.32624078657</v>
       </c>
       <c r="M41" t="n">
-        <v>604.3236666538346</v>
+        <v>864.7878113968386</v>
       </c>
       <c r="N41" t="n">
-        <v>918.2512313128482</v>
+        <v>1053.095230541543</v>
       </c>
       <c r="O41" t="n">
-        <v>952.4718660055159</v>
+        <v>1325.915536757532</v>
       </c>
       <c r="P41" t="n">
-        <v>1176.130484901259</v>
+        <v>1325.915536757532</v>
       </c>
       <c r="Q41" t="n">
-        <v>1325.915536757533</v>
+        <v>1325.915536757532</v>
       </c>
       <c r="R41" t="n">
-        <v>1371.582478352311</v>
+        <v>1371.58247835231</v>
       </c>
       <c r="S41" t="n">
-        <v>1384.940325262768</v>
+        <v>1384.940325262767</v>
       </c>
       <c r="T41" t="n">
-        <v>1403.298774200269</v>
+        <v>1403.298774200268</v>
       </c>
       <c r="U41" t="n">
-        <v>1394.065670889992</v>
+        <v>1394.065670889991</v>
       </c>
       <c r="V41" t="n">
-        <v>1313.388888674158</v>
+        <v>1313.388888674157</v>
       </c>
       <c r="W41" t="n">
-        <v>1215.523540582955</v>
+        <v>1215.523540582954</v>
       </c>
       <c r="X41" t="n">
-        <v>1095.550868785753</v>
+        <v>1095.550868785752</v>
       </c>
       <c r="Y41" t="n">
-        <v>952.8480423181026</v>
+        <v>952.8480423181016</v>
       </c>
     </row>
     <row r="42">
@@ -7464,43 +7464,43 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>28.06597548400537</v>
+        <v>28.06597548400535</v>
       </c>
       <c r="C42" t="n">
-        <v>28.06597548400537</v>
+        <v>28.06597548400535</v>
       </c>
       <c r="D42" t="n">
-        <v>28.06597548400537</v>
+        <v>28.06597548400535</v>
       </c>
       <c r="E42" t="n">
-        <v>28.06597548400537</v>
+        <v>28.06597548400535</v>
       </c>
       <c r="F42" t="n">
-        <v>28.06597548400537</v>
+        <v>28.06597548400535</v>
       </c>
       <c r="G42" t="n">
-        <v>28.06597548400537</v>
+        <v>28.06597548400535</v>
       </c>
       <c r="H42" t="n">
-        <v>28.06597548400537</v>
+        <v>28.06597548400535</v>
       </c>
       <c r="I42" t="n">
-        <v>28.06597548400537</v>
+        <v>28.06597548400535</v>
       </c>
       <c r="J42" t="n">
-        <v>28.06597548400537</v>
+        <v>28.06597548400535</v>
       </c>
       <c r="K42" t="n">
-        <v>66.02930149988575</v>
+        <v>66.0293014998857</v>
       </c>
       <c r="L42" t="n">
         <v>183.3622206282598</v>
       </c>
       <c r="M42" t="n">
-        <v>365.0388672322653</v>
+        <v>365.0388672322651</v>
       </c>
       <c r="N42" t="n">
-        <v>569.9438436430245</v>
+        <v>569.9438436430244</v>
       </c>
       <c r="O42" t="n">
         <v>701.6447832620588</v>
@@ -7509,31 +7509,31 @@
         <v>785.2698965201587</v>
       </c>
       <c r="Q42" t="n">
-        <v>778.3310522028243</v>
+        <v>785.2698965201587</v>
       </c>
       <c r="R42" t="n">
-        <v>778.3310522028243</v>
+        <v>785.2698965201587</v>
       </c>
       <c r="S42" t="n">
-        <v>778.3310522028243</v>
+        <v>785.2698965201587</v>
       </c>
       <c r="T42" t="n">
-        <v>778.3310522028243</v>
+        <v>568.1275494439059</v>
       </c>
       <c r="U42" t="n">
-        <v>538.7067395797044</v>
+        <v>328.503236820786</v>
       </c>
       <c r="V42" t="n">
-        <v>538.7067395797044</v>
+        <v>85.42351872442009</v>
       </c>
       <c r="W42" t="n">
-        <v>426.1098227942441</v>
+        <v>28.06597548400535</v>
       </c>
       <c r="X42" t="n">
-        <v>206.6018284109405</v>
+        <v>28.06597548400535</v>
       </c>
       <c r="Y42" t="n">
-        <v>206.6018284109405</v>
+        <v>28.06597548400535</v>
       </c>
     </row>
     <row r="43">
@@ -7543,76 +7543,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>28.06597548400537</v>
+        <v>28.06597548400535</v>
       </c>
       <c r="C43" t="n">
-        <v>28.06597548400537</v>
+        <v>28.06597548400535</v>
       </c>
       <c r="D43" t="n">
-        <v>28.06597548400537</v>
+        <v>28.06597548400535</v>
       </c>
       <c r="E43" t="n">
-        <v>28.06597548400537</v>
+        <v>28.06597548400535</v>
       </c>
       <c r="F43" t="n">
-        <v>28.06597548400537</v>
+        <v>28.06597548400535</v>
       </c>
       <c r="G43" t="n">
-        <v>28.06597548400537</v>
+        <v>28.06597548400535</v>
       </c>
       <c r="H43" t="n">
-        <v>28.06597548400537</v>
+        <v>28.06597548400535</v>
       </c>
       <c r="I43" t="n">
-        <v>28.06597548400537</v>
+        <v>28.06597548400535</v>
       </c>
       <c r="J43" t="n">
-        <v>28.06597548400537</v>
+        <v>28.06597548400535</v>
       </c>
       <c r="K43" t="n">
-        <v>28.06597548400537</v>
+        <v>28.06597548400535</v>
       </c>
       <c r="L43" t="n">
-        <v>28.06597548400537</v>
+        <v>28.06597548400535</v>
       </c>
       <c r="M43" t="n">
-        <v>28.06597548400537</v>
+        <v>28.06597548400535</v>
       </c>
       <c r="N43" t="n">
-        <v>28.06597548400537</v>
+        <v>28.06597548400535</v>
       </c>
       <c r="O43" t="n">
-        <v>130.1336235606951</v>
+        <v>28.06597548400535</v>
       </c>
       <c r="P43" t="n">
-        <v>130.1336235606951</v>
+        <v>28.06597548400535</v>
       </c>
       <c r="Q43" t="n">
-        <v>130.1336235606951</v>
+        <v>130.133623560695</v>
       </c>
       <c r="R43" t="n">
-        <v>130.1336235606951</v>
+        <v>130.133623560695</v>
       </c>
       <c r="S43" t="n">
-        <v>130.1336235606951</v>
+        <v>130.133623560695</v>
       </c>
       <c r="T43" t="n">
-        <v>130.1336235606951</v>
+        <v>130.133623560695</v>
       </c>
       <c r="U43" t="n">
-        <v>82.00555512323083</v>
+        <v>82.00555512323076</v>
       </c>
       <c r="V43" t="n">
-        <v>77.86490262931781</v>
+        <v>77.86490262931777</v>
       </c>
       <c r="W43" t="n">
-        <v>28.06597548400537</v>
+        <v>28.06597548400535</v>
       </c>
       <c r="X43" t="n">
-        <v>28.06597548400537</v>
+        <v>28.06597548400535</v>
       </c>
       <c r="Y43" t="n">
-        <v>28.06597548400537</v>
+        <v>28.06597548400535</v>
       </c>
     </row>
     <row r="44">
@@ -7622,76 +7622,76 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>818.4263542753171</v>
+        <v>818.426354275316</v>
       </c>
       <c r="C44" t="n">
-        <v>708.1276389564252</v>
+        <v>708.1276389564242</v>
       </c>
       <c r="D44" t="n">
-        <v>610.3878506465754</v>
+        <v>610.3878506465745</v>
       </c>
       <c r="E44" t="n">
-        <v>478.6008376706561</v>
+        <v>478.6008376706552</v>
       </c>
       <c r="F44" t="n">
-        <v>314.7730796660728</v>
+        <v>314.7730796660719</v>
       </c>
       <c r="G44" t="n">
         <v>135.1484294164039</v>
       </c>
       <c r="H44" t="n">
-        <v>28.06597548400537</v>
+        <v>28.06597548400535</v>
       </c>
       <c r="I44" t="n">
-        <v>28.06597548400537</v>
+        <v>28.06597548400535</v>
       </c>
       <c r="J44" t="n">
-        <v>28.06597548400537</v>
+        <v>28.06597548400535</v>
       </c>
       <c r="K44" t="n">
-        <v>260.0057267824886</v>
+        <v>260.0057267824887</v>
       </c>
       <c r="L44" t="n">
-        <v>545.32624078657</v>
+        <v>306.7265692632488</v>
       </c>
       <c r="M44" t="n">
-        <v>626.1881398735172</v>
+        <v>626.1881398735173</v>
       </c>
       <c r="N44" t="n">
-        <v>701.5160330092097</v>
+        <v>940.115704532531</v>
       </c>
       <c r="O44" t="n">
-        <v>974.3363392251986</v>
+        <v>1179.640155304524</v>
       </c>
       <c r="P44" t="n">
-        <v>1197.994958120942</v>
+        <v>1403.298774200268</v>
       </c>
       <c r="Q44" t="n">
-        <v>1325.915536757533</v>
+        <v>1403.298774200268</v>
       </c>
       <c r="R44" t="n">
-        <v>1371.582478352311</v>
+        <v>1403.298774200268</v>
       </c>
       <c r="S44" t="n">
-        <v>1384.940325262768</v>
+        <v>1403.298774200268</v>
       </c>
       <c r="T44" t="n">
-        <v>1403.298774200269</v>
+        <v>1403.298774200268</v>
       </c>
       <c r="U44" t="n">
-        <v>1394.065670889992</v>
+        <v>1394.065670889991</v>
       </c>
       <c r="V44" t="n">
-        <v>1313.388888674158</v>
+        <v>1313.388888674157</v>
       </c>
       <c r="W44" t="n">
-        <v>1215.523540582955</v>
+        <v>1215.523540582954</v>
       </c>
       <c r="X44" t="n">
-        <v>1095.550868785753</v>
+        <v>1095.550868785752</v>
       </c>
       <c r="Y44" t="n">
-        <v>952.8480423181022</v>
+        <v>952.8480423181012</v>
       </c>
     </row>
     <row r="45">
@@ -7701,43 +7701,43 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>28.06597548400537</v>
+        <v>28.06597548400535</v>
       </c>
       <c r="C45" t="n">
-        <v>28.06597548400537</v>
+        <v>28.06597548400535</v>
       </c>
       <c r="D45" t="n">
-        <v>28.06597548400537</v>
+        <v>28.06597548400535</v>
       </c>
       <c r="E45" t="n">
-        <v>28.06597548400537</v>
+        <v>28.06597548400535</v>
       </c>
       <c r="F45" t="n">
-        <v>28.06597548400537</v>
+        <v>28.06597548400535</v>
       </c>
       <c r="G45" t="n">
-        <v>28.06597548400537</v>
+        <v>28.06597548400535</v>
       </c>
       <c r="H45" t="n">
-        <v>28.06597548400537</v>
+        <v>28.06597548400535</v>
       </c>
       <c r="I45" t="n">
-        <v>28.06597548400537</v>
+        <v>28.06597548400535</v>
       </c>
       <c r="J45" t="n">
-        <v>28.06597548400537</v>
+        <v>28.06597548400535</v>
       </c>
       <c r="K45" t="n">
-        <v>66.02930149988575</v>
+        <v>66.0293014998857</v>
       </c>
       <c r="L45" t="n">
         <v>183.3622206282598</v>
       </c>
       <c r="M45" t="n">
-        <v>365.0388672322653</v>
+        <v>365.0388672322651</v>
       </c>
       <c r="N45" t="n">
-        <v>569.9438436430245</v>
+        <v>569.9438436430244</v>
       </c>
       <c r="O45" t="n">
         <v>701.6447832620588</v>
@@ -7749,28 +7749,28 @@
         <v>785.2698965201587</v>
       </c>
       <c r="R45" t="n">
-        <v>785.2698965201587</v>
+        <v>649.1892896625045</v>
       </c>
       <c r="S45" t="n">
-        <v>785.2698965201587</v>
+        <v>540.54426285008</v>
       </c>
       <c r="T45" t="n">
-        <v>568.1275494439059</v>
+        <v>540.54426285008</v>
       </c>
       <c r="U45" t="n">
-        <v>328.503236820786</v>
+        <v>540.54426285008</v>
       </c>
       <c r="V45" t="n">
-        <v>273.5283278082541</v>
+        <v>297.4645447537141</v>
       </c>
       <c r="W45" t="n">
-        <v>247.573969867309</v>
+        <v>28.06597548400535</v>
       </c>
       <c r="X45" t="n">
-        <v>28.06597548400537</v>
+        <v>28.06597548400535</v>
       </c>
       <c r="Y45" t="n">
-        <v>28.06597548400537</v>
+        <v>28.06597548400535</v>
       </c>
     </row>
     <row r="46">
@@ -7780,76 +7780,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>28.06597548400537</v>
+        <v>28.06597548400535</v>
       </c>
       <c r="C46" t="n">
-        <v>28.06597548400537</v>
+        <v>28.06597548400535</v>
       </c>
       <c r="D46" t="n">
-        <v>28.06597548400537</v>
+        <v>28.06597548400535</v>
       </c>
       <c r="E46" t="n">
-        <v>28.06597548400537</v>
+        <v>28.06597548400535</v>
       </c>
       <c r="F46" t="n">
-        <v>28.06597548400537</v>
+        <v>28.06597548400535</v>
       </c>
       <c r="G46" t="n">
-        <v>28.06597548400537</v>
+        <v>28.06597548400535</v>
       </c>
       <c r="H46" t="n">
-        <v>28.06597548400537</v>
+        <v>28.06597548400535</v>
       </c>
       <c r="I46" t="n">
-        <v>28.06597548400537</v>
+        <v>28.06597548400535</v>
       </c>
       <c r="J46" t="n">
-        <v>28.06597548400537</v>
+        <v>28.06597548400535</v>
       </c>
       <c r="K46" t="n">
-        <v>28.06597548400537</v>
+        <v>28.06597548400535</v>
       </c>
       <c r="L46" t="n">
-        <v>28.06597548400537</v>
+        <v>28.06597548400535</v>
       </c>
       <c r="M46" t="n">
-        <v>70.33787732314764</v>
+        <v>28.06597548400535</v>
       </c>
       <c r="N46" t="n">
-        <v>70.33787732314764</v>
+        <v>28.06597548400535</v>
       </c>
       <c r="O46" t="n">
-        <v>70.33787732314764</v>
+        <v>28.06597548400535</v>
       </c>
       <c r="P46" t="n">
-        <v>70.33787732314764</v>
+        <v>28.06597548400535</v>
       </c>
       <c r="Q46" t="n">
-        <v>70.33787732314764</v>
+        <v>130.133623560695</v>
       </c>
       <c r="R46" t="n">
-        <v>107.5418873023911</v>
+        <v>130.133623560695</v>
       </c>
       <c r="S46" t="n">
-        <v>113.0578949031936</v>
+        <v>130.133623560695</v>
       </c>
       <c r="T46" t="n">
-        <v>130.1336235606951</v>
+        <v>130.133623560695</v>
       </c>
       <c r="U46" t="n">
-        <v>82.00555512323083</v>
+        <v>82.00555512323076</v>
       </c>
       <c r="V46" t="n">
-        <v>77.86490262931781</v>
+        <v>77.86490262931777</v>
       </c>
       <c r="W46" t="n">
-        <v>28.06597548400537</v>
+        <v>28.06597548400535</v>
       </c>
       <c r="X46" t="n">
-        <v>28.06597548400537</v>
+        <v>28.06597548400535</v>
       </c>
       <c r="Y46" t="n">
-        <v>28.06597548400537</v>
+        <v>28.06597548400535</v>
       </c>
     </row>
   </sheetData>
@@ -8769,7 +8769,7 @@
         <v>81.70699090058493</v>
       </c>
       <c r="K12" t="n">
-        <v>171.373473584151</v>
+        <v>171.3734735841512</v>
       </c>
       <c r="L12" t="n">
         <v>240.3045437566416</v>
@@ -8778,7 +8778,7 @@
         <v>301.77688131</v>
       </c>
       <c r="N12" t="n">
-        <v>292.1370682466383</v>
+        <v>292.1370682466384</v>
       </c>
       <c r="O12" t="n">
         <v>255.2227828913207</v>
@@ -9717,7 +9717,7 @@
         <v>81.70699090058493</v>
       </c>
       <c r="K24" t="n">
-        <v>171.3734735841515</v>
+        <v>171.3734735841514</v>
       </c>
       <c r="L24" t="n">
         <v>240.3045437566416</v>
@@ -9726,7 +9726,7 @@
         <v>301.77688131</v>
       </c>
       <c r="N24" t="n">
-        <v>292.1370682466385</v>
+        <v>292.1370682466384</v>
       </c>
       <c r="O24" t="n">
         <v>255.2227828913207</v>
@@ -23255,13 +23255,13 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>12.17932701163545</v>
+        <v>7.441042905518259</v>
       </c>
       <c r="C11" t="n">
         <v>172.057233228111</v>
       </c>
       <c r="D11" t="n">
-        <v>159.6238954891594</v>
+        <v>159.6238954891595</v>
       </c>
       <c r="E11" t="n">
         <v>193.3306479085683</v>
@@ -23273,10 +23273,10 @@
         <v>240.6899088095807</v>
       </c>
       <c r="H11" t="n">
-        <v>168.8731344554827</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>62.86150506240818</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -23318,13 +23318,13 @@
         <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>0</v>
+        <v>110.7499134991913</v>
       </c>
       <c r="X11" t="n">
         <v>181.6344501416383</v>
       </c>
       <c r="Y11" t="n">
-        <v>204.137303265382</v>
+        <v>204.1373032653821</v>
       </c>
     </row>
     <row r="12">
@@ -23492,7 +23492,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>12.17932701163582</v>
+        <v>7.441042905518373</v>
       </c>
       <c r="C14" t="n">
         <v>172.057233228111</v>
@@ -23507,7 +23507,7 @@
         <v>225.0509854869457</v>
       </c>
       <c r="G14" t="n">
-        <v>240.6899088095807</v>
+        <v>102.6966734596137</v>
       </c>
       <c r="H14" t="n">
         <v>168.8731344554828</v>
@@ -23552,7 +23552,7 @@
         <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>0</v>
+        <v>142.7315194560842</v>
       </c>
       <c r="W14" t="n">
         <v>0</v>
@@ -23741,7 +23741,7 @@
         <v>0</v>
       </c>
       <c r="F17" t="n">
-        <v>0</v>
+        <v>1.392663762089796e-12</v>
       </c>
       <c r="G17" t="n">
         <v>0</v>
@@ -26163,7 +26163,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>1575519.350788624</v>
+        <v>1575519.350788623</v>
       </c>
     </row>
     <row r="8">
@@ -26378,7 +26378,7 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>95439.52541913329</v>
+        <v>95439.52541913325</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -26387,22 +26387,22 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>143496.2830068792</v>
+        <v>143496.2830068793</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>96101.69331262475</v>
+        <v>96101.69331262466</v>
       </c>
       <c r="M3" t="n">
-        <v>46197.36629232272</v>
+        <v>46197.36629232277</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>72254.91485924376</v>
+        <v>72254.91485924377</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -26427,19 +26427,19 @@
         <v>296218.5005573042</v>
       </c>
       <c r="F4" t="n">
-        <v>296218.5005573041</v>
+        <v>296218.5005573042</v>
       </c>
       <c r="G4" t="n">
+        <v>366826.368600526</v>
+      </c>
+      <c r="H4" t="n">
         <v>366826.3686005261</v>
-      </c>
-      <c r="H4" t="n">
-        <v>366826.368600526</v>
       </c>
       <c r="I4" t="n">
         <v>366826.3686005261</v>
       </c>
       <c r="J4" t="n">
-        <v>367614.5661588977</v>
+        <v>367614.5661588978</v>
       </c>
       <c r="K4" t="n">
         <v>367614.5661588978</v>
@@ -26448,16 +26448,16 @@
         <v>367599.7761915192</v>
       </c>
       <c r="M4" t="n">
-        <v>366789.8388182007</v>
+        <v>366789.8388182006</v>
       </c>
       <c r="N4" t="n">
-        <v>366789.8388182007</v>
+        <v>366789.8388182006</v>
       </c>
       <c r="O4" t="n">
         <v>367176.9014819183</v>
       </c>
       <c r="P4" t="n">
-        <v>367176.9014819184</v>
+        <v>367176.9014819183</v>
       </c>
     </row>
     <row r="5">
@@ -26488,13 +26488,13 @@
         <v>38672.33876582418</v>
       </c>
       <c r="I5" t="n">
-        <v>38672.33876582419</v>
+        <v>38672.33876582418</v>
       </c>
       <c r="J5" t="n">
-        <v>47449.6772201635</v>
+        <v>47449.67722016352</v>
       </c>
       <c r="K5" t="n">
-        <v>47449.67722016351</v>
+        <v>47449.67722016352</v>
       </c>
       <c r="L5" t="n">
         <v>47324.74758284811</v>
@@ -26503,13 +26503,13 @@
         <v>40913.2955986873</v>
       </c>
       <c r="N5" t="n">
-        <v>40913.2955986873</v>
+        <v>40913.29559868729</v>
       </c>
       <c r="O5" t="n">
-        <v>43797.12782887323</v>
+        <v>43797.12782887322</v>
       </c>
       <c r="P5" t="n">
-        <v>43797.12782887323</v>
+        <v>43797.12782887322</v>
       </c>
     </row>
     <row r="6">
@@ -26519,22 +26519,22 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-442707.7230532152</v>
+        <v>-442712.1894374205</v>
       </c>
       <c r="C6" t="n">
-        <v>-442707.7230532152</v>
+        <v>-442712.1894374205</v>
       </c>
       <c r="D6" t="n">
-        <v>-443733.8468450491</v>
+        <v>-443737.0399278976</v>
       </c>
       <c r="E6" t="n">
-        <v>-603987.5726737662</v>
+        <v>-604297.5304740397</v>
       </c>
       <c r="F6" t="n">
-        <v>-324861.4574950518</v>
+        <v>-325171.4152953255</v>
       </c>
       <c r="G6" t="n">
-        <v>-500938.2327854835</v>
+        <v>-500938.2327854834</v>
       </c>
       <c r="H6" t="n">
         <v>-405498.7073663502</v>
@@ -26543,25 +26543,25 @@
         <v>-405498.7073663503</v>
       </c>
       <c r="J6" t="n">
-        <v>-558560.5263859405</v>
+        <v>-558560.5263859406</v>
       </c>
       <c r="K6" t="n">
         <v>-415064.2433790613</v>
       </c>
       <c r="L6" t="n">
-        <v>-511026.2170869921</v>
+        <v>-511026.217086992</v>
       </c>
       <c r="M6" t="n">
         <v>-453900.5007092107</v>
       </c>
       <c r="N6" t="n">
-        <v>-407703.134416888</v>
+        <v>-407703.1344168879</v>
       </c>
       <c r="O6" t="n">
         <v>-483228.9441700353</v>
       </c>
       <c r="P6" t="n">
-        <v>-410974.0293107916</v>
+        <v>-410974.0293107915</v>
       </c>
     </row>
   </sheetData>
@@ -26692,7 +26692,7 @@
         <v>400</v>
       </c>
       <c r="E2" t="n">
-        <v>178.1482641530679</v>
+        <v>178.1482641530678</v>
       </c>
       <c r="F2" t="n">
         <v>178.1482641530678</v>
@@ -26707,7 +26707,7 @@
         <v>297.4476709269844</v>
       </c>
       <c r="J2" t="n">
-        <v>213.4847505240009</v>
+        <v>213.484750524001</v>
       </c>
       <c r="K2" t="n">
         <v>213.484750524001</v>
@@ -26716,10 +26716,10 @@
         <v>214.3124603908653</v>
       </c>
       <c r="M2" t="n">
-        <v>272.0591682562687</v>
+        <v>272.0591682562688</v>
       </c>
       <c r="N2" t="n">
-        <v>272.0591682562687</v>
+        <v>272.0591682562688</v>
       </c>
       <c r="O2" t="n">
         <v>241.009769215476</v>
@@ -26744,40 +26744,40 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>101.1713840758395</v>
+        <v>101.1713840758394</v>
       </c>
       <c r="F3" t="n">
-        <v>101.1713840758395</v>
+        <v>101.1713840758394</v>
       </c>
       <c r="G3" t="n">
-        <v>101.1713840758395</v>
+        <v>101.1713840758394</v>
       </c>
       <c r="H3" t="n">
         <v>101.1713840758395</v>
       </c>
       <c r="I3" t="n">
-        <v>101.1713840758395</v>
+        <v>101.1713840758394</v>
       </c>
       <c r="J3" t="n">
-        <v>101.1713840758395</v>
+        <v>101.1713840758394</v>
       </c>
       <c r="K3" t="n">
-        <v>101.1713840758395</v>
+        <v>101.1713840758394</v>
       </c>
       <c r="L3" t="n">
-        <v>101.1713840758395</v>
+        <v>101.1713840758394</v>
       </c>
       <c r="M3" t="n">
-        <v>101.1713840758395</v>
+        <v>101.1713840758394</v>
       </c>
       <c r="N3" t="n">
-        <v>101.1713840758395</v>
+        <v>101.1713840758394</v>
       </c>
       <c r="O3" t="n">
-        <v>101.1713840758395</v>
+        <v>101.1713840758394</v>
       </c>
       <c r="P3" t="n">
-        <v>101.1713840758395</v>
+        <v>101.1713840758394</v>
       </c>
     </row>
     <row r="4">
@@ -26820,16 +26820,16 @@
         <v>445.7594930492624</v>
       </c>
       <c r="M4" t="n">
-        <v>260.4608093700288</v>
+        <v>260.4608093700286</v>
       </c>
       <c r="N4" t="n">
-        <v>260.4608093700288</v>
+        <v>260.4608093700285</v>
       </c>
       <c r="O4" t="n">
-        <v>350.8246935500671</v>
+        <v>350.8246935500669</v>
       </c>
       <c r="P4" t="n">
-        <v>350.8246935500671</v>
+        <v>350.8246935500669</v>
       </c>
     </row>
   </sheetData>
@@ -26914,7 +26914,7 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>178.1482641530679</v>
+        <v>178.1482641530678</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -26929,22 +26929,22 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>94.18534375008437</v>
+        <v>94.18534375008443</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>120.1271166407809</v>
+        <v>120.1271166407808</v>
       </c>
       <c r="M2" t="n">
-        <v>57.74670786540341</v>
+        <v>57.74670786540347</v>
       </c>
       <c r="N2" t="n">
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>63.13594470929166</v>
+        <v>63.13594470929169</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -26966,7 +26966,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>101.1713840758395</v>
+        <v>101.1713840758394</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27018,7 +27018,7 @@
         <v>3.199249640013477</v>
       </c>
       <c r="E4" t="n">
-        <v>185.2986836792337</v>
+        <v>185.2986836792338</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27033,7 +27033,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>260.4608093700285</v>
+        <v>260.4608093700286</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27151,7 +27151,7 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>178.1482641530679</v>
+        <v>178.1482641530678</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -27166,7 +27166,7 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>94.18534375008437</v>
+        <v>94.18534375008443</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -27264,7 +27264,7 @@
         <v>3.199249640013477</v>
       </c>
       <c r="M4" t="n">
-        <v>185.2986836792337</v>
+        <v>185.2986836792338</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27856,10 +27856,10 @@
         <v>350.2054973811788</v>
       </c>
       <c r="D8" t="n">
-        <v>337.9020750954183</v>
+        <v>337.7721596422273</v>
       </c>
       <c r="E8" t="n">
-        <v>371.4789120616362</v>
+        <v>371.6088275148272</v>
       </c>
       <c r="F8" t="n">
         <v>400</v>
@@ -27932,7 +27932,7 @@
         <v>176.7504943976657</v>
       </c>
       <c r="C9" t="n">
-        <v>184.3189018843524</v>
+        <v>187.5181515243659</v>
       </c>
       <c r="D9" t="n">
         <v>159.1723150765785</v>
@@ -27941,7 +27941,7 @@
         <v>171.8275718397997</v>
       </c>
       <c r="F9" t="n">
-        <v>156.0055400370045</v>
+        <v>158.8234391199283</v>
       </c>
       <c r="G9" t="n">
         <v>148.9622183950918</v>
@@ -27974,13 +27974,13 @@
         <v>0</v>
       </c>
       <c r="Q9" t="n">
-        <v>34.64768193211606</v>
+        <v>31.44843229210258</v>
       </c>
       <c r="R9" t="n">
-        <v>145.0317031582867</v>
+        <v>148.2309527983001</v>
       </c>
       <c r="S9" t="n">
-        <v>195.63287444794</v>
+        <v>192.4336248079265</v>
       </c>
       <c r="T9" t="n">
         <v>215.8480604164874</v>
@@ -27998,7 +27998,7 @@
         <v>217.3129144394706</v>
       </c>
       <c r="Y9" t="n">
-        <v>223.3842861340256</v>
+        <v>220.5663870511017</v>
       </c>
     </row>
     <row r="10">
@@ -28087,76 +28087,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>178.1482641530679</v>
+        <v>178.1482641530678</v>
       </c>
       <c r="C11" t="n">
-        <v>178.1482641530679</v>
+        <v>178.1482641530678</v>
       </c>
       <c r="D11" t="n">
-        <v>178.1482641530679</v>
+        <v>178.1482641530678</v>
       </c>
       <c r="E11" t="n">
-        <v>178.1482641530679</v>
+        <v>178.1482641530678</v>
       </c>
       <c r="F11" t="n">
-        <v>178.1482641530679</v>
+        <v>178.1482641530678</v>
       </c>
       <c r="G11" t="n">
-        <v>178.1482641530679</v>
+        <v>178.1482641530678</v>
       </c>
       <c r="H11" t="n">
-        <v>178.1482641530679</v>
+        <v>178.1482641530678</v>
       </c>
       <c r="I11" t="n">
-        <v>178.1482641530679</v>
+        <v>178.1482641530678</v>
       </c>
       <c r="J11" t="n">
         <v>76.78161896459406</v>
       </c>
       <c r="K11" t="n">
-        <v>6.727192146300972</v>
+        <v>131.2916210169601</v>
       </c>
       <c r="L11" t="n">
-        <v>141.3051631366612</v>
+        <v>0</v>
       </c>
       <c r="M11" t="n">
-        <v>106.8192473728358</v>
+        <v>106.8192473728359</v>
       </c>
       <c r="N11" t="n">
-        <v>112.4091523741034</v>
+        <v>112.4091523741035</v>
       </c>
       <c r="O11" t="n">
-        <v>146.3155575359769</v>
+        <v>0</v>
       </c>
       <c r="P11" t="n">
-        <v>15.09197235108876</v>
+        <v>178.1482641530678</v>
       </c>
       <c r="Q11" t="n">
-        <v>89.71173703742197</v>
+        <v>89.71173703742198</v>
       </c>
       <c r="R11" t="n">
-        <v>178.1482641530679</v>
+        <v>178.1482641530678</v>
       </c>
       <c r="S11" t="n">
-        <v>178.1482641530679</v>
+        <v>178.1482641530678</v>
       </c>
       <c r="T11" t="n">
-        <v>178.1482641530679</v>
+        <v>178.1482641530678</v>
       </c>
       <c r="U11" t="n">
-        <v>178.1482641530679</v>
+        <v>178.1482641530678</v>
       </c>
       <c r="V11" t="n">
-        <v>178.1482641530679</v>
+        <v>178.1482641530678</v>
       </c>
       <c r="W11" t="n">
-        <v>178.1482641530679</v>
+        <v>178.1482641530678</v>
       </c>
       <c r="X11" t="n">
-        <v>178.1482641530679</v>
+        <v>178.1482641530678</v>
       </c>
       <c r="Y11" t="n">
-        <v>178.1482641530679</v>
+        <v>178.1482641530678</v>
       </c>
     </row>
     <row r="12">
@@ -28169,7 +28169,7 @@
         <v>176.7504943976657</v>
       </c>
       <c r="C12" t="n">
-        <v>178.1482641530679</v>
+        <v>178.1482641530678</v>
       </c>
       <c r="D12" t="n">
         <v>159.1723150765785</v>
@@ -28187,10 +28187,10 @@
         <v>125.7355245857741</v>
       </c>
       <c r="I12" t="n">
-        <v>107.3634103439873</v>
+        <v>107.3634103439874</v>
       </c>
       <c r="J12" t="n">
-        <v>52.47517038390259</v>
+        <v>52.4751703839026</v>
       </c>
       <c r="K12" t="n">
         <v>0</v>
@@ -28211,31 +28211,31 @@
         <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>6.869455874161041</v>
+        <v>6.869455874161048</v>
       </c>
       <c r="R12" t="n">
-        <v>134.7198007890777</v>
+        <v>0</v>
       </c>
       <c r="S12" t="n">
-        <v>178.1482641530679</v>
+        <v>35.45942700023085</v>
       </c>
       <c r="T12" t="n">
-        <v>26.47299028624312</v>
+        <v>178.1482641530678</v>
       </c>
       <c r="U12" t="n">
-        <v>48.73013617764147</v>
+        <v>178.1482641530678</v>
       </c>
       <c r="V12" t="n">
-        <v>81.89141415810087</v>
+        <v>178.1482641530678</v>
       </c>
       <c r="W12" t="n">
-        <v>178.1482641530679</v>
+        <v>78.20665025776435</v>
       </c>
       <c r="X12" t="n">
-        <v>178.1482641530679</v>
+        <v>178.1482641530678</v>
       </c>
       <c r="Y12" t="n">
-        <v>178.1482641530679</v>
+        <v>178.1482641530678</v>
       </c>
     </row>
     <row r="13">
@@ -28260,7 +28260,7 @@
         <v>138.9268822184467</v>
       </c>
       <c r="G13" t="n">
-        <v>168.7007749271525</v>
+        <v>173.2848802133382</v>
       </c>
       <c r="H13" t="n">
         <v>165.8243976546666</v>
@@ -28272,49 +28272,49 @@
         <v>120.239607582909</v>
       </c>
       <c r="K13" t="n">
-        <v>67.02998013918997</v>
+        <v>67.02998013918999</v>
       </c>
       <c r="L13" t="n">
-        <v>178.1482641530679</v>
+        <v>32.15181624817889</v>
       </c>
       <c r="M13" t="n">
-        <v>57.73563643683643</v>
+        <v>178.1482641530678</v>
       </c>
       <c r="N13" t="n">
-        <v>178.1482641530679</v>
+        <v>178.1482641530678</v>
       </c>
       <c r="O13" t="n">
-        <v>37.4788839977768</v>
+        <v>178.1482641530678</v>
       </c>
       <c r="P13" t="n">
-        <v>178.1482641530679</v>
+        <v>58.47859890024888</v>
       </c>
       <c r="Q13" t="n">
-        <v>178.1482641530679</v>
+        <v>178.1482641530678</v>
       </c>
       <c r="R13" t="n">
-        <v>178.1482641530679</v>
+        <v>178.1482641530678</v>
       </c>
       <c r="S13" t="n">
-        <v>178.1482641530679</v>
+        <v>178.1482641530678</v>
       </c>
       <c r="T13" t="n">
-        <v>178.1482641530679</v>
+        <v>178.1482641530678</v>
       </c>
       <c r="U13" t="n">
-        <v>178.1482641530679</v>
+        <v>178.1482641530678</v>
       </c>
       <c r="V13" t="n">
-        <v>178.1482641530679</v>
+        <v>178.1482641530678</v>
       </c>
       <c r="W13" t="n">
-        <v>178.1482641530679</v>
+        <v>178.1482641530678</v>
       </c>
       <c r="X13" t="n">
-        <v>178.1482641530679</v>
+        <v>178.1482641530678</v>
       </c>
       <c r="Y13" t="n">
-        <v>178.1482641530679</v>
+        <v>178.1482641530678</v>
       </c>
     </row>
     <row r="14">
@@ -28348,7 +28348,7 @@
         <v>178.1482641530678</v>
       </c>
       <c r="J14" t="n">
-        <v>76.78161896459406</v>
+        <v>178.1482641530678</v>
       </c>
       <c r="K14" t="n">
         <v>178.1482641530678</v>
@@ -28360,16 +28360,16 @@
         <v>106.8192473728358</v>
       </c>
       <c r="N14" t="n">
-        <v>0</v>
+        <v>112.4091523741034</v>
       </c>
       <c r="O14" t="n">
-        <v>153.9316356498858</v>
+        <v>0</v>
       </c>
       <c r="P14" t="n">
-        <v>15.09197235108876</v>
+        <v>29.9249758284863</v>
       </c>
       <c r="Q14" t="n">
-        <v>164.3889024275107</v>
+        <v>89.71173703742198</v>
       </c>
       <c r="R14" t="n">
         <v>178.1482641530678</v>
@@ -28424,10 +28424,10 @@
         <v>125.7355245857741</v>
       </c>
       <c r="I15" t="n">
-        <v>107.3634103439873</v>
+        <v>107.3634103439874</v>
       </c>
       <c r="J15" t="n">
-        <v>52.47517038390259</v>
+        <v>52.4751703839026</v>
       </c>
       <c r="K15" t="n">
         <v>0</v>
@@ -28454,22 +28454,22 @@
         <v>134.7198007890777</v>
       </c>
       <c r="S15" t="n">
-        <v>178.1482641530678</v>
+        <v>3.092858000757161</v>
       </c>
       <c r="T15" t="n">
-        <v>26.47299028624312</v>
+        <v>108.7201508992348</v>
       </c>
       <c r="U15" t="n">
         <v>178.1482641530678</v>
       </c>
       <c r="V15" t="n">
+        <v>52.15098759615509</v>
+      </c>
+      <c r="W15" t="n">
         <v>178.1482641530678</v>
       </c>
-      <c r="W15" t="n">
-        <v>78.20665025776444</v>
-      </c>
       <c r="X15" t="n">
-        <v>59.28435595213949</v>
+        <v>178.1482641530678</v>
       </c>
       <c r="Y15" t="n">
         <v>178.1482641530678</v>
@@ -28500,34 +28500,34 @@
         <v>168.7007749271525</v>
       </c>
       <c r="H16" t="n">
-        <v>165.8243976546666</v>
+        <v>178.1482641530678</v>
       </c>
       <c r="I16" t="n">
         <v>164.852968067965</v>
       </c>
       <c r="J16" t="n">
-        <v>120.239607582909</v>
+        <v>178.1482641530678</v>
       </c>
       <c r="K16" t="n">
+        <v>67.02998013918999</v>
+      </c>
+      <c r="L16" t="n">
+        <v>32.15181624817889</v>
+      </c>
+      <c r="M16" t="n">
+        <v>25.21686539889346</v>
+      </c>
+      <c r="N16" t="n">
         <v>178.1482641530678</v>
-      </c>
-      <c r="L16" t="n">
-        <v>32.15181624817888</v>
-      </c>
-      <c r="M16" t="n">
-        <v>178.1482641530678</v>
-      </c>
-      <c r="N16" t="n">
-        <v>122.5453636147547</v>
       </c>
       <c r="O16" t="n">
         <v>178.1482641530678</v>
       </c>
       <c r="P16" t="n">
-        <v>58.47859890024887</v>
+        <v>178.1482641530678</v>
       </c>
       <c r="Q16" t="n">
-        <v>127.2169859636892</v>
+        <v>145.7615798720494</v>
       </c>
       <c r="R16" t="n">
         <v>178.1482641530678</v>
@@ -28582,40 +28582,40 @@
         <v>297.4476709269844</v>
       </c>
       <c r="I17" t="n">
-        <v>297.4476709269844</v>
+        <v>241.009769215476</v>
       </c>
       <c r="J17" t="n">
-        <v>122.4079516895893</v>
+        <v>76.78161896459406</v>
       </c>
       <c r="K17" t="n">
-        <v>195.2251254655481</v>
+        <v>6.727192146300986</v>
       </c>
       <c r="L17" t="n">
-        <v>141.3051631366612</v>
+        <v>0</v>
       </c>
       <c r="M17" t="n">
         <v>0</v>
       </c>
       <c r="N17" t="n">
-        <v>0</v>
+        <v>112.4091523741034</v>
       </c>
       <c r="O17" t="n">
         <v>0</v>
       </c>
       <c r="P17" t="n">
-        <v>15.09197235108876</v>
+        <v>151.1033307087794</v>
       </c>
       <c r="Q17" t="n">
-        <v>89.71173703742197</v>
+        <v>278.2096703566691</v>
       </c>
       <c r="R17" t="n">
         <v>194.8815453823669</v>
       </c>
       <c r="S17" t="n">
-        <v>227.5169945584482</v>
+        <v>297.4476709269844</v>
       </c>
       <c r="T17" t="n">
-        <v>297.4476709269844</v>
+        <v>222.4658813998193</v>
       </c>
       <c r="U17" t="n">
         <v>250.1505414926498</v>
@@ -28640,7 +28640,7 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>152.3107713933115</v>
+        <v>145.4413155191506</v>
       </c>
       <c r="C18" t="n">
         <v>187.5181515243659</v>
@@ -28661,10 +28661,10 @@
         <v>125.7355245857741</v>
       </c>
       <c r="I18" t="n">
-        <v>107.3634103439873</v>
+        <v>107.3634103439874</v>
       </c>
       <c r="J18" t="n">
-        <v>52.47517038390259</v>
+        <v>52.4751703839026</v>
       </c>
       <c r="K18" t="n">
         <v>0</v>
@@ -28685,19 +28685,19 @@
         <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>0</v>
+        <v>6.869455874161048</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
       </c>
       <c r="S18" t="n">
-        <v>191.5907913200043</v>
+        <v>3.092858000757158</v>
       </c>
       <c r="T18" t="n">
-        <v>26.47299028624312</v>
+        <v>214.9709236054903</v>
       </c>
       <c r="U18" t="n">
-        <v>48.73013617764146</v>
+        <v>237.2280694968886</v>
       </c>
       <c r="V18" t="n">
         <v>52.15098759615509</v>
@@ -28709,7 +28709,7 @@
         <v>217.3129144394706</v>
       </c>
       <c r="Y18" t="n">
-        <v>223.3842861340256</v>
+        <v>34.88635281477846</v>
       </c>
     </row>
     <row r="19">
@@ -28746,13 +28746,13 @@
         <v>120.239607582909</v>
       </c>
       <c r="K19" t="n">
-        <v>67.02998013918997</v>
+        <v>67.02998013918999</v>
       </c>
       <c r="L19" t="n">
-        <v>32.15181624817888</v>
+        <v>32.15181624817889</v>
       </c>
       <c r="M19" t="n">
-        <v>25.21686539889345</v>
+        <v>25.21686539889346</v>
       </c>
       <c r="N19" t="n">
         <v>16.52015736928135</v>
@@ -28761,7 +28761,7 @@
         <v>37.4788839977768</v>
       </c>
       <c r="P19" t="n">
-        <v>58.47859890024887</v>
+        <v>58.47859890024888</v>
       </c>
       <c r="Q19" t="n">
         <v>127.2169859636892</v>
@@ -28770,7 +28770,7 @@
         <v>203.4299611556341</v>
       </c>
       <c r="S19" t="n">
-        <v>235.4380443661805</v>
+        <v>235.4380443661806</v>
       </c>
       <c r="T19" t="n">
         <v>223.761558450323</v>
@@ -28822,37 +28822,37 @@
         <v>241.009769215476</v>
       </c>
       <c r="J20" t="n">
-        <v>76.78161896459406</v>
+        <v>265.2795522838412</v>
       </c>
       <c r="K20" t="n">
-        <v>6.727192146300972</v>
+        <v>6.727192146300965</v>
       </c>
       <c r="L20" t="n">
-        <v>0</v>
+        <v>47.19174564757319</v>
       </c>
       <c r="M20" t="n">
-        <v>13.7324393961905</v>
+        <v>0</v>
       </c>
       <c r="N20" t="n">
-        <v>112.4091523741034</v>
+        <v>0</v>
       </c>
       <c r="O20" t="n">
-        <v>0</v>
+        <v>153.9316356498858</v>
       </c>
       <c r="P20" t="n">
         <v>15.09197235108876</v>
       </c>
       <c r="Q20" t="n">
-        <v>278.2096703566691</v>
+        <v>89.71173703742195</v>
       </c>
       <c r="R20" t="n">
-        <v>194.8815453823669</v>
+        <v>194.8815453823668</v>
       </c>
       <c r="S20" t="n">
         <v>297.4476709269844</v>
       </c>
       <c r="T20" t="n">
-        <v>297.4476709269844</v>
+        <v>222.4658813998192</v>
       </c>
       <c r="U20" t="n">
         <v>297.4476709269844</v>
@@ -28883,7 +28883,7 @@
         <v>187.5181515243659</v>
       </c>
       <c r="D21" t="n">
-        <v>159.1723150765785</v>
+        <v>0</v>
       </c>
       <c r="E21" t="n">
         <v>171.8275718397997</v>
@@ -28928,25 +28928,25 @@
         <v>134.7198007890777</v>
       </c>
       <c r="S21" t="n">
-        <v>3.092858000757161</v>
+        <v>191.5907913200043</v>
       </c>
       <c r="T21" t="n">
-        <v>55.81139981205843</v>
+        <v>26.4857815693899</v>
       </c>
       <c r="U21" t="n">
-        <v>48.73013617764146</v>
+        <v>237.2280694968886</v>
       </c>
       <c r="V21" t="n">
         <v>240.6489209154022</v>
       </c>
       <c r="W21" t="n">
-        <v>78.20665025776444</v>
+        <v>266.7045835770116</v>
       </c>
       <c r="X21" t="n">
-        <v>217.3129144394706</v>
+        <v>28.81498112022345</v>
       </c>
       <c r="Y21" t="n">
-        <v>223.3842861340256</v>
+        <v>34.88635281477846</v>
       </c>
     </row>
     <row r="22">
@@ -28986,16 +28986,16 @@
         <v>67.02998013918997</v>
       </c>
       <c r="L22" t="n">
-        <v>32.15181624817888</v>
+        <v>32.15181624817887</v>
       </c>
       <c r="M22" t="n">
         <v>25.21686539889345</v>
       </c>
       <c r="N22" t="n">
-        <v>16.52015736928135</v>
+        <v>16.52015736928134</v>
       </c>
       <c r="O22" t="n">
-        <v>37.4788839977768</v>
+        <v>37.47888399777679</v>
       </c>
       <c r="P22" t="n">
         <v>58.47859890024887</v>
@@ -29059,37 +29059,37 @@
         <v>241.009769215476</v>
       </c>
       <c r="J23" t="n">
-        <v>76.78161896459406</v>
+        <v>104.0687472010596</v>
       </c>
       <c r="K23" t="n">
-        <v>195.2251254655483</v>
+        <v>195.2251254655482</v>
       </c>
       <c r="L23" t="n">
         <v>0</v>
       </c>
       <c r="M23" t="n">
-        <v>52.01039907634092</v>
+        <v>0</v>
       </c>
       <c r="N23" t="n">
-        <v>112.4091523741035</v>
+        <v>0</v>
       </c>
       <c r="O23" t="n">
-        <v>153.931635649886</v>
+        <v>0</v>
       </c>
       <c r="P23" t="n">
-        <v>15.09197235108876</v>
+        <v>203.5899056703361</v>
       </c>
       <c r="Q23" t="n">
-        <v>89.71173703742197</v>
+        <v>89.71173703742198</v>
       </c>
       <c r="R23" t="n">
-        <v>194.8815453823669</v>
+        <v>297.4476709269844</v>
       </c>
       <c r="S23" t="n">
         <v>227.5169945584482</v>
       </c>
       <c r="T23" t="n">
-        <v>222.4658813998192</v>
+        <v>222.4658813998193</v>
       </c>
       <c r="U23" t="n">
         <v>250.1505414926498</v>
@@ -29120,10 +29120,10 @@
         <v>187.5181515243659</v>
       </c>
       <c r="D24" t="n">
-        <v>127.8631361980632</v>
+        <v>159.1723150765785</v>
       </c>
       <c r="E24" t="n">
-        <v>171.8275718397997</v>
+        <v>147.3878488354454</v>
       </c>
       <c r="F24" t="n">
         <v>158.8234391199283</v>
@@ -29135,10 +29135,10 @@
         <v>125.7355245857741</v>
       </c>
       <c r="I24" t="n">
-        <v>107.3634103439873</v>
+        <v>107.3634103439874</v>
       </c>
       <c r="J24" t="n">
-        <v>52.47517038390259</v>
+        <v>52.4751703839026</v>
       </c>
       <c r="K24" t="n">
         <v>0</v>
@@ -29159,7 +29159,7 @@
         <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>6.869455874161041</v>
+        <v>0</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -29168,22 +29168,22 @@
         <v>191.5907913200043</v>
       </c>
       <c r="T24" t="n">
-        <v>26.47299028624295</v>
+        <v>214.9709236054903</v>
       </c>
       <c r="U24" t="n">
-        <v>48.73013617764128</v>
+        <v>48.73013617764134</v>
       </c>
       <c r="V24" t="n">
         <v>240.6489209154022</v>
       </c>
       <c r="W24" t="n">
-        <v>266.7045835770116</v>
+        <v>78.20665025776432</v>
       </c>
       <c r="X24" t="n">
-        <v>217.3129144394706</v>
+        <v>28.81498112022334</v>
       </c>
       <c r="Y24" t="n">
-        <v>34.88635281477829</v>
+        <v>223.3842861340256</v>
       </c>
     </row>
     <row r="25">
@@ -29220,13 +29220,13 @@
         <v>120.239607582909</v>
       </c>
       <c r="K25" t="n">
-        <v>67.02998013918997</v>
+        <v>67.02998013918999</v>
       </c>
       <c r="L25" t="n">
-        <v>32.15181624817888</v>
+        <v>32.15181624817889</v>
       </c>
       <c r="M25" t="n">
-        <v>25.21686539889345</v>
+        <v>25.21686539889346</v>
       </c>
       <c r="N25" t="n">
         <v>16.52015736928135</v>
@@ -29235,7 +29235,7 @@
         <v>37.4788839977768</v>
       </c>
       <c r="P25" t="n">
-        <v>58.47859890024887</v>
+        <v>58.47859890024888</v>
       </c>
       <c r="Q25" t="n">
         <v>127.2169859636892</v>
@@ -29244,7 +29244,7 @@
         <v>203.4299611556341</v>
       </c>
       <c r="S25" t="n">
-        <v>235.4380443661805</v>
+        <v>235.4380443661806</v>
       </c>
       <c r="T25" t="n">
         <v>223.761558450323</v>
@@ -29272,76 +29272,76 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>213.4847505240009</v>
+        <v>213.484750524001</v>
       </c>
       <c r="C26" t="n">
-        <v>213.4847505240009</v>
+        <v>213.484750524001</v>
       </c>
       <c r="D26" t="n">
-        <v>213.4847505240009</v>
+        <v>213.484750524001</v>
       </c>
       <c r="E26" t="n">
-        <v>213.4847505240009</v>
+        <v>213.484750524001</v>
       </c>
       <c r="F26" t="n">
-        <v>213.4847505240009</v>
+        <v>213.484750524001</v>
       </c>
       <c r="G26" t="n">
-        <v>213.4847505240009</v>
+        <v>213.484750524001</v>
       </c>
       <c r="H26" t="n">
-        <v>213.4847505240009</v>
+        <v>213.484750524001</v>
       </c>
       <c r="I26" t="n">
-        <v>213.4847505240009</v>
+        <v>213.484750524001</v>
       </c>
       <c r="J26" t="n">
-        <v>213.4847505240009</v>
+        <v>213.484750524001</v>
       </c>
       <c r="K26" t="n">
-        <v>213.4847505240009</v>
+        <v>213.484750524001</v>
       </c>
       <c r="L26" t="n">
-        <v>213.4847505240009</v>
+        <v>213.484750524001</v>
       </c>
       <c r="M26" t="n">
-        <v>213.4847505240016</v>
+        <v>213.484750524001</v>
       </c>
       <c r="N26" t="n">
-        <v>213.4847505240009</v>
+        <v>213.484750524001</v>
       </c>
       <c r="O26" t="n">
-        <v>213.4847505240009</v>
+        <v>213.484750524001</v>
       </c>
       <c r="P26" t="n">
-        <v>213.4847505240009</v>
+        <v>213.484750524001</v>
       </c>
       <c r="Q26" t="n">
-        <v>213.4847505240009</v>
+        <v>213.484750524001</v>
       </c>
       <c r="R26" t="n">
-        <v>213.4847505240009</v>
+        <v>213.484750524001</v>
       </c>
       <c r="S26" t="n">
-        <v>213.4847505240009</v>
+        <v>213.484750524001</v>
       </c>
       <c r="T26" t="n">
-        <v>213.4847505240009</v>
+        <v>213.484750524001</v>
       </c>
       <c r="U26" t="n">
-        <v>213.4847505240009</v>
+        <v>213.484750524001</v>
       </c>
       <c r="V26" t="n">
-        <v>213.4847505240009</v>
+        <v>213.484750524001</v>
       </c>
       <c r="W26" t="n">
-        <v>213.4847505240009</v>
+        <v>213.484750524001</v>
       </c>
       <c r="X26" t="n">
-        <v>213.4847505240009</v>
+        <v>213.484750524001</v>
       </c>
       <c r="Y26" t="n">
-        <v>213.4847505240009</v>
+        <v>213.484750524001</v>
       </c>
     </row>
     <row r="27">
@@ -29351,10 +29351,10 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>176.7504943976657</v>
+        <v>0</v>
       </c>
       <c r="C27" t="n">
-        <v>103.8922632301013</v>
+        <v>187.5181515243659</v>
       </c>
       <c r="D27" t="n">
         <v>159.1723150765785</v>
@@ -29372,10 +29372,10 @@
         <v>125.7355245857741</v>
       </c>
       <c r="I27" t="n">
-        <v>107.3634103439873</v>
+        <v>107.3634103439874</v>
       </c>
       <c r="J27" t="n">
-        <v>52.47517038390259</v>
+        <v>52.4751703839026</v>
       </c>
       <c r="K27" t="n">
         <v>0</v>
@@ -29399,28 +29399,28 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>0</v>
+        <v>115.0185653073977</v>
       </c>
       <c r="S27" t="n">
-        <v>0</v>
+        <v>191.5907913200043</v>
       </c>
       <c r="T27" t="n">
-        <v>213.4847505240009</v>
+        <v>213.484750524001</v>
       </c>
       <c r="U27" t="n">
-        <v>0</v>
+        <v>213.484750524001</v>
       </c>
       <c r="V27" t="n">
-        <v>213.4847505240009</v>
+        <v>0</v>
       </c>
       <c r="W27" t="n">
-        <v>213.4847505240009</v>
+        <v>0</v>
       </c>
       <c r="X27" t="n">
-        <v>213.4847505240009</v>
+        <v>213.484750524001</v>
       </c>
       <c r="Y27" t="n">
-        <v>213.4847505240009</v>
+        <v>213.484750524001</v>
       </c>
     </row>
     <row r="28">
@@ -29457,49 +29457,49 @@
         <v>120.239607582909</v>
       </c>
       <c r="K28" t="n">
-        <v>67.02998013918997</v>
+        <v>67.02998013918999</v>
       </c>
       <c r="L28" t="n">
-        <v>32.15181624817888</v>
+        <v>67.75875315494096</v>
       </c>
       <c r="M28" t="n">
-        <v>25.21686539889345</v>
+        <v>25.21686539889346</v>
       </c>
       <c r="N28" t="n">
-        <v>84.03074643864477</v>
+        <v>213.484750524001</v>
       </c>
       <c r="O28" t="n">
         <v>37.4788839977768</v>
       </c>
       <c r="P28" t="n">
-        <v>213.4847505240009</v>
+        <v>58.47859890024888</v>
       </c>
       <c r="Q28" t="n">
         <v>127.2169859636892</v>
       </c>
       <c r="R28" t="n">
-        <v>213.4847505240009</v>
+        <v>203.4299611556341</v>
       </c>
       <c r="S28" t="n">
-        <v>213.4847505240009</v>
+        <v>213.484750524001</v>
       </c>
       <c r="T28" t="n">
-        <v>213.4847505240009</v>
+        <v>213.484750524001</v>
       </c>
       <c r="U28" t="n">
-        <v>213.4847505240009</v>
+        <v>213.484750524001</v>
       </c>
       <c r="V28" t="n">
-        <v>213.4847505240009</v>
+        <v>213.484750524001</v>
       </c>
       <c r="W28" t="n">
-        <v>213.4847505240009</v>
+        <v>213.484750524001</v>
       </c>
       <c r="X28" t="n">
-        <v>213.4847505240009</v>
+        <v>213.484750524001</v>
       </c>
       <c r="Y28" t="n">
-        <v>213.4847505240009</v>
+        <v>213.484750524001</v>
       </c>
     </row>
     <row r="29">
@@ -29588,10 +29588,10 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>176.7504943976657</v>
+        <v>167.8169160426858</v>
       </c>
       <c r="C30" t="n">
-        <v>187.5181515243659</v>
+        <v>0</v>
       </c>
       <c r="D30" t="n">
         <v>159.1723150765785</v>
@@ -29609,10 +29609,10 @@
         <v>125.7355245857741</v>
       </c>
       <c r="I30" t="n">
-        <v>107.3634103439873</v>
+        <v>107.3634103439874</v>
       </c>
       <c r="J30" t="n">
-        <v>52.47517038390259</v>
+        <v>52.4751703839026</v>
       </c>
       <c r="K30" t="n">
         <v>0</v>
@@ -29636,25 +29636,25 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>0</v>
+        <v>134.7198007890777</v>
       </c>
       <c r="S30" t="n">
-        <v>0</v>
+        <v>191.5907913200043</v>
       </c>
       <c r="T30" t="n">
         <v>213.484750524001</v>
       </c>
       <c r="U30" t="n">
-        <v>0</v>
+        <v>213.484750524001</v>
       </c>
       <c r="V30" t="n">
+        <v>0</v>
+      </c>
+      <c r="W30" t="n">
+        <v>0</v>
+      </c>
+      <c r="X30" t="n">
         <v>213.484750524001</v>
-      </c>
-      <c r="W30" t="n">
-        <v>213.484750524001</v>
-      </c>
-      <c r="X30" t="n">
-        <v>129.8588622297361</v>
       </c>
       <c r="Y30" t="n">
         <v>213.484750524001</v>
@@ -29694,25 +29694,25 @@
         <v>120.239607582909</v>
       </c>
       <c r="K31" t="n">
-        <v>67.02998013918997</v>
+        <v>67.02998013918999</v>
       </c>
       <c r="L31" t="n">
-        <v>32.15181624817888</v>
+        <v>32.15181624817889</v>
       </c>
       <c r="M31" t="n">
-        <v>25.21686539889345</v>
+        <v>25.21686539889346</v>
       </c>
       <c r="N31" t="n">
-        <v>162.8239228704515</v>
+        <v>16.52015736928135</v>
       </c>
       <c r="O31" t="n">
         <v>37.4788839977768</v>
       </c>
       <c r="P31" t="n">
-        <v>58.47859890024887</v>
+        <v>213.484750524001</v>
       </c>
       <c r="Q31" t="n">
-        <v>213.484750524001</v>
+        <v>204.7823644014186</v>
       </c>
       <c r="R31" t="n">
         <v>203.4299611556341</v>
@@ -29776,13 +29776,13 @@
         <v>214.3124603908653</v>
       </c>
       <c r="L32" t="n">
-        <v>194.1953356407501</v>
+        <v>214.3124603908653</v>
       </c>
       <c r="M32" t="n">
         <v>214.3124603908653</v>
       </c>
       <c r="N32" t="n">
-        <v>214.3124603908653</v>
+        <v>194.1953356407503</v>
       </c>
       <c r="O32" t="n">
         <v>214.3124603908653</v>
@@ -29828,7 +29828,7 @@
         <v>176.7504943976657</v>
       </c>
       <c r="C33" t="n">
-        <v>0</v>
+        <v>187.5181515243659</v>
       </c>
       <c r="D33" t="n">
         <v>159.1723150765785</v>
@@ -29846,10 +29846,10 @@
         <v>125.7355245857741</v>
       </c>
       <c r="I33" t="n">
-        <v>107.3634103439873</v>
+        <v>107.3634103439874</v>
       </c>
       <c r="J33" t="n">
-        <v>52.47517038390259</v>
+        <v>52.4751703839026</v>
       </c>
       <c r="K33" t="n">
         <v>0</v>
@@ -29873,22 +29873,22 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>0</v>
+        <v>134.7198007890777</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
       </c>
       <c r="T33" t="n">
+        <v>206.1406823640667</v>
+      </c>
+      <c r="U33" t="n">
+        <v>0</v>
+      </c>
+      <c r="V33" t="n">
         <v>214.3124603908653</v>
       </c>
-      <c r="U33" t="n">
-        <v>214.3124603908653</v>
-      </c>
-      <c r="V33" t="n">
-        <v>99.7537138957795</v>
-      </c>
       <c r="W33" t="n">
-        <v>214.3124603908653</v>
+        <v>0</v>
       </c>
       <c r="X33" t="n">
         <v>214.3124603908653</v>
@@ -29931,22 +29931,22 @@
         <v>120.239607582909</v>
       </c>
       <c r="K34" t="n">
-        <v>67.02998013918997</v>
+        <v>67.02998013918999</v>
       </c>
       <c r="L34" t="n">
-        <v>32.15181624817888</v>
+        <v>32.15181624817889</v>
       </c>
       <c r="M34" t="n">
-        <v>25.21686539889345</v>
+        <v>25.21686539889346</v>
       </c>
       <c r="N34" t="n">
-        <v>87.34621583092307</v>
+        <v>66.34650092845099</v>
       </c>
       <c r="O34" t="n">
-        <v>37.4788839977768</v>
+        <v>214.3124603908653</v>
       </c>
       <c r="P34" t="n">
-        <v>214.3124603908653</v>
+        <v>58.47859890024888</v>
       </c>
       <c r="Q34" t="n">
         <v>127.2169859636892</v>
@@ -29983,34 +29983,34 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>272.0591682562687</v>
+        <v>272.0591682562688</v>
       </c>
       <c r="C35" t="n">
-        <v>272.0591682562687</v>
+        <v>272.0591682562688</v>
       </c>
       <c r="D35" t="n">
-        <v>272.0591682562687</v>
+        <v>272.0591682562688</v>
       </c>
       <c r="E35" t="n">
-        <v>272.0591682562687</v>
+        <v>272.0591682562688</v>
       </c>
       <c r="F35" t="n">
-        <v>272.0591682562687</v>
+        <v>272.0591682562688</v>
       </c>
       <c r="G35" t="n">
-        <v>272.0591682562687</v>
+        <v>272.0591682562688</v>
       </c>
       <c r="H35" t="n">
-        <v>272.0591682562687</v>
+        <v>272.0591682562688</v>
       </c>
       <c r="I35" t="n">
         <v>241.009769215476</v>
       </c>
       <c r="J35" t="n">
-        <v>272.0591682562687</v>
+        <v>76.78161896459406</v>
       </c>
       <c r="K35" t="n">
-        <v>53.93016845849632</v>
+        <v>267.1880015163296</v>
       </c>
       <c r="L35" t="n">
         <v>0</v>
@@ -30019,40 +30019,40 @@
         <v>0</v>
       </c>
       <c r="N35" t="n">
-        <v>0</v>
+        <v>184.3720284248848</v>
       </c>
       <c r="O35" t="n">
-        <v>225.8945117006674</v>
+        <v>0</v>
       </c>
       <c r="P35" t="n">
-        <v>272.0591682562687</v>
+        <v>272.0591682562688</v>
       </c>
       <c r="Q35" t="n">
-        <v>89.71173703742197</v>
+        <v>179.7047370084847</v>
       </c>
       <c r="R35" t="n">
         <v>194.8815453823669</v>
       </c>
       <c r="S35" t="n">
-        <v>272.0591682562687</v>
+        <v>227.5169945584482</v>
       </c>
       <c r="T35" t="n">
-        <v>222.4658813998192</v>
+        <v>222.4658813998193</v>
       </c>
       <c r="U35" t="n">
-        <v>272.0591682562687</v>
+        <v>250.1505414926498</v>
       </c>
       <c r="V35" t="n">
-        <v>272.0591682562687</v>
+        <v>272.0591682562688</v>
       </c>
       <c r="W35" t="n">
-        <v>272.0591682562687</v>
+        <v>272.0591682562688</v>
       </c>
       <c r="X35" t="n">
-        <v>272.0591682562687</v>
+        <v>272.0591682562688</v>
       </c>
       <c r="Y35" t="n">
-        <v>272.0591682562687</v>
+        <v>272.0591682562688</v>
       </c>
     </row>
     <row r="36">
@@ -30062,10 +30062,10 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>176.7504943976657</v>
+        <v>0</v>
       </c>
       <c r="C36" t="n">
-        <v>187.5181515243659</v>
+        <v>0</v>
       </c>
       <c r="D36" t="n">
         <v>159.1723150765785</v>
@@ -30074,7 +30074,7 @@
         <v>171.8275718397997</v>
       </c>
       <c r="F36" t="n">
-        <v>158.8234391199283</v>
+        <v>106.6402511994113</v>
       </c>
       <c r="G36" t="n">
         <v>148.7446044746268</v>
@@ -30083,10 +30083,10 @@
         <v>125.7355245857741</v>
       </c>
       <c r="I36" t="n">
-        <v>107.3634103439873</v>
+        <v>107.3634103439874</v>
       </c>
       <c r="J36" t="n">
-        <v>52.47517038390259</v>
+        <v>52.4751703839026</v>
       </c>
       <c r="K36" t="n">
         <v>0</v>
@@ -30113,13 +30113,13 @@
         <v>0</v>
       </c>
       <c r="S36" t="n">
-        <v>35.7471592598302</v>
+        <v>0</v>
       </c>
       <c r="T36" t="n">
-        <v>0</v>
+        <v>214.9709236054903</v>
       </c>
       <c r="U36" t="n">
-        <v>0</v>
+        <v>237.2280694968886</v>
       </c>
       <c r="V36" t="n">
         <v>240.6489209154022</v>
@@ -30168,13 +30168,13 @@
         <v>120.239607582909</v>
       </c>
       <c r="K37" t="n">
-        <v>67.02998013918997</v>
+        <v>67.02998013918999</v>
       </c>
       <c r="L37" t="n">
-        <v>32.15181624817888</v>
+        <v>32.15181624817889</v>
       </c>
       <c r="M37" t="n">
-        <v>25.21686539889345</v>
+        <v>25.21686539889346</v>
       </c>
       <c r="N37" t="n">
         <v>16.52015736928135</v>
@@ -30183,28 +30183,28 @@
         <v>37.4788839977768</v>
       </c>
       <c r="P37" t="n">
-        <v>58.47859890024887</v>
+        <v>58.47859890024888</v>
       </c>
       <c r="Q37" t="n">
         <v>127.2169859636892</v>
       </c>
       <c r="R37" t="n">
-        <v>203.4299611556341</v>
+        <v>220.3643440882908</v>
       </c>
       <c r="S37" t="n">
-        <v>270.9945463000276</v>
+        <v>235.4380443661806</v>
       </c>
       <c r="T37" t="n">
         <v>223.761558450323</v>
       </c>
       <c r="U37" t="n">
-        <v>272.0591682562687</v>
+        <v>272.0591682562688</v>
       </c>
       <c r="V37" t="n">
-        <v>245.1090151844499</v>
+        <v>263.7311341856401</v>
       </c>
       <c r="W37" t="n">
-        <v>272.0591682562687</v>
+        <v>272.0591682562688</v>
       </c>
       <c r="X37" t="n">
         <v>221.9194554082425</v>
@@ -30220,76 +30220,76 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>272.0591682562687</v>
+        <v>272.0591682562688</v>
       </c>
       <c r="C38" t="n">
-        <v>272.0591682562687</v>
+        <v>272.0591682562688</v>
       </c>
       <c r="D38" t="n">
-        <v>272.0591682562687</v>
+        <v>272.0591682562688</v>
       </c>
       <c r="E38" t="n">
-        <v>272.0591682562687</v>
+        <v>272.0591682562688</v>
       </c>
       <c r="F38" t="n">
-        <v>272.0591682562687</v>
+        <v>272.0591682562688</v>
       </c>
       <c r="G38" t="n">
-        <v>272.0591682562687</v>
+        <v>272.0591682562688</v>
       </c>
       <c r="H38" t="n">
-        <v>272.0591682562687</v>
+        <v>272.0591682562688</v>
       </c>
       <c r="I38" t="n">
-        <v>272.0591682562687</v>
+        <v>241.009769215476</v>
       </c>
       <c r="J38" t="n">
-        <v>76.78161896459406</v>
+        <v>87.19647938789116</v>
       </c>
       <c r="K38" t="n">
-        <v>6.727192146300972</v>
+        <v>6.727192146300986</v>
       </c>
       <c r="L38" t="n">
-        <v>213.2680391874428</v>
+        <v>213.2680391874426</v>
       </c>
       <c r="M38" t="n">
-        <v>9.074718681373852</v>
+        <v>0</v>
       </c>
       <c r="N38" t="n">
-        <v>0</v>
+        <v>184.3720284248847</v>
       </c>
       <c r="O38" t="n">
         <v>0</v>
       </c>
       <c r="P38" t="n">
-        <v>272.0591682562687</v>
+        <v>272.0591682562688</v>
       </c>
       <c r="Q38" t="n">
-        <v>272.0591682562687</v>
+        <v>89.71173703742198</v>
       </c>
       <c r="R38" t="n">
-        <v>272.0591682562687</v>
+        <v>272.0591682562688</v>
       </c>
       <c r="S38" t="n">
         <v>227.5169945584482</v>
       </c>
       <c r="T38" t="n">
-        <v>222.4658813998192</v>
+        <v>272.0591682562688</v>
       </c>
       <c r="U38" t="n">
-        <v>272.0591682562687</v>
+        <v>250.1505414926498</v>
       </c>
       <c r="V38" t="n">
-        <v>272.0591682562687</v>
+        <v>272.0591682562688</v>
       </c>
       <c r="W38" t="n">
-        <v>272.0591682562687</v>
+        <v>272.0591682562688</v>
       </c>
       <c r="X38" t="n">
-        <v>272.0591682562687</v>
+        <v>272.0591682562688</v>
       </c>
       <c r="Y38" t="n">
-        <v>272.0591682562687</v>
+        <v>272.0591682562688</v>
       </c>
     </row>
     <row r="39">
@@ -30320,10 +30320,10 @@
         <v>125.7355245857741</v>
       </c>
       <c r="I39" t="n">
-        <v>107.3634103439873</v>
+        <v>107.3634103439874</v>
       </c>
       <c r="J39" t="n">
-        <v>52.47517038390259</v>
+        <v>52.4751703839026</v>
       </c>
       <c r="K39" t="n">
         <v>0</v>
@@ -30344,28 +30344,28 @@
         <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>6.869455874161041</v>
+        <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>97.74772143569361</v>
+        <v>0</v>
       </c>
       <c r="S39" t="n">
-        <v>191.5907913200043</v>
+        <v>0</v>
       </c>
       <c r="T39" t="n">
-        <v>0</v>
+        <v>214.9709236054903</v>
       </c>
       <c r="U39" t="n">
-        <v>0</v>
+        <v>237.2280694968886</v>
       </c>
       <c r="V39" t="n">
         <v>240.6489209154022</v>
       </c>
       <c r="W39" t="n">
-        <v>6.243774206982835</v>
+        <v>67.56566417393344</v>
       </c>
       <c r="X39" t="n">
-        <v>217.3129144394706</v>
+        <v>0</v>
       </c>
       <c r="Y39" t="n">
         <v>223.3842861340256</v>
@@ -30405,43 +30405,43 @@
         <v>120.239607582909</v>
       </c>
       <c r="K40" t="n">
-        <v>67.02998013918997</v>
+        <v>67.02998013918999</v>
       </c>
       <c r="L40" t="n">
-        <v>32.15181624817888</v>
+        <v>32.15181624817889</v>
       </c>
       <c r="M40" t="n">
-        <v>25.21686539889345</v>
+        <v>25.21686539889346</v>
       </c>
       <c r="N40" t="n">
         <v>16.52015736928135</v>
       </c>
       <c r="O40" t="n">
-        <v>37.4788839977768</v>
+        <v>54.4132669304335</v>
       </c>
       <c r="P40" t="n">
-        <v>58.47859890024887</v>
+        <v>58.47859890024888</v>
       </c>
       <c r="Q40" t="n">
         <v>127.2169859636892</v>
       </c>
       <c r="R40" t="n">
-        <v>220.3643440882909</v>
+        <v>203.4299611556341</v>
       </c>
       <c r="S40" t="n">
-        <v>235.4380443661805</v>
+        <v>235.4380443661806</v>
       </c>
       <c r="T40" t="n">
         <v>223.761558450323</v>
       </c>
       <c r="U40" t="n">
-        <v>272.0591682562687</v>
+        <v>272.0591682562688</v>
       </c>
       <c r="V40" t="n">
-        <v>263.7311341856402</v>
+        <v>263.7311341856401</v>
       </c>
       <c r="W40" t="n">
-        <v>272.0591682562687</v>
+        <v>272.0591682562688</v>
       </c>
       <c r="X40" t="n">
         <v>221.9194554082425</v>
@@ -30481,28 +30481,28 @@
         <v>241.009769215476</v>
       </c>
       <c r="J41" t="n">
+        <v>76.78161896459406</v>
+      </c>
+      <c r="K41" t="n">
         <v>241.009769215476</v>
       </c>
-      <c r="K41" t="n">
-        <v>54.69629248006603</v>
-      </c>
       <c r="L41" t="n">
-        <v>0</v>
+        <v>241.009769215476</v>
       </c>
       <c r="M41" t="n">
         <v>241.009769215476</v>
       </c>
       <c r="N41" t="n">
+        <v>114.1207333424362</v>
+      </c>
+      <c r="O41" t="n">
         <v>241.009769215476</v>
       </c>
-      <c r="O41" t="n">
-        <v>0</v>
-      </c>
       <c r="P41" t="n">
-        <v>241.009769215476</v>
+        <v>15.09197235108878</v>
       </c>
       <c r="Q41" t="n">
-        <v>241.009769215476</v>
+        <v>89.71173703742198</v>
       </c>
       <c r="R41" t="n">
         <v>241.009769215476</v>
@@ -30536,7 +30536,7 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>0</v>
+        <v>176.7504943976657</v>
       </c>
       <c r="C42" t="n">
         <v>187.5181515243659</v>
@@ -30557,10 +30557,10 @@
         <v>125.7355245857741</v>
       </c>
       <c r="I42" t="n">
-        <v>107.3634103439873</v>
+        <v>107.3634103439874</v>
       </c>
       <c r="J42" t="n">
-        <v>52.47517038390259</v>
+        <v>52.4751703839026</v>
       </c>
       <c r="K42" t="n">
         <v>0</v>
@@ -30581,7 +30581,7 @@
         <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>0</v>
+        <v>6.869455874161048</v>
       </c>
       <c r="R42" t="n">
         <v>134.7198007890777</v>
@@ -30590,19 +30590,19 @@
         <v>191.5907913200043</v>
       </c>
       <c r="T42" t="n">
-        <v>214.9709236054903</v>
+        <v>0</v>
       </c>
       <c r="U42" t="n">
         <v>0</v>
       </c>
       <c r="V42" t="n">
-        <v>240.6489209154022</v>
+        <v>0</v>
       </c>
       <c r="W42" t="n">
-        <v>155.2336359594059</v>
+        <v>209.920615769001</v>
       </c>
       <c r="X42" t="n">
-        <v>0</v>
+        <v>217.3129144394706</v>
       </c>
       <c r="Y42" t="n">
         <v>223.3842861340256</v>
@@ -30642,31 +30642,31 @@
         <v>120.239607582909</v>
       </c>
       <c r="K43" t="n">
-        <v>67.02998013918997</v>
+        <v>67.02998013918999</v>
       </c>
       <c r="L43" t="n">
-        <v>32.15181624817888</v>
+        <v>32.15181624817889</v>
       </c>
       <c r="M43" t="n">
-        <v>25.21686539889345</v>
+        <v>25.21686539889346</v>
       </c>
       <c r="N43" t="n">
         <v>16.52015736928135</v>
       </c>
       <c r="O43" t="n">
-        <v>140.5775184186755</v>
+        <v>37.4788839977768</v>
       </c>
       <c r="P43" t="n">
-        <v>58.47859890024887</v>
+        <v>58.47859890024888</v>
       </c>
       <c r="Q43" t="n">
-        <v>127.2169859636892</v>
+        <v>230.3156203845878</v>
       </c>
       <c r="R43" t="n">
         <v>203.4299611556341</v>
       </c>
       <c r="S43" t="n">
-        <v>235.4380443661805</v>
+        <v>235.4380443661806</v>
       </c>
       <c r="T43" t="n">
         <v>223.761558450323</v>
@@ -30724,31 +30724,31 @@
         <v>241.009769215476</v>
       </c>
       <c r="L44" t="n">
+        <v>0</v>
+      </c>
+      <c r="M44" t="n">
         <v>241.009769215476</v>
       </c>
-      <c r="M44" t="n">
-        <v>0</v>
-      </c>
       <c r="N44" t="n">
-        <v>0</v>
+        <v>241.009769215476</v>
       </c>
       <c r="O44" t="n">
-        <v>241.009769215476</v>
+        <v>207.3775919993188</v>
       </c>
       <c r="P44" t="n">
         <v>241.009769215476</v>
       </c>
       <c r="Q44" t="n">
-        <v>218.924442730948</v>
+        <v>89.71173703742198</v>
       </c>
       <c r="R44" t="n">
-        <v>241.009769215476</v>
+        <v>194.8815453823669</v>
       </c>
       <c r="S44" t="n">
-        <v>241.009769215476</v>
+        <v>227.5169945584482</v>
       </c>
       <c r="T44" t="n">
-        <v>241.009769215476</v>
+        <v>222.4658813998193</v>
       </c>
       <c r="U44" t="n">
         <v>241.009769215476</v>
@@ -30794,10 +30794,10 @@
         <v>125.7355245857741</v>
       </c>
       <c r="I45" t="n">
-        <v>107.3634103439873</v>
+        <v>107.3634103439874</v>
       </c>
       <c r="J45" t="n">
-        <v>52.47517038390259</v>
+        <v>52.4751703839026</v>
       </c>
       <c r="K45" t="n">
         <v>0</v>
@@ -30818,28 +30818,28 @@
         <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>6.869455874161041</v>
+        <v>6.869455874161048</v>
       </c>
       <c r="R45" t="n">
-        <v>134.7198007890777</v>
+        <v>0</v>
       </c>
       <c r="S45" t="n">
-        <v>191.5907913200043</v>
+        <v>84.03221477570409</v>
       </c>
       <c r="T45" t="n">
-        <v>0</v>
+        <v>214.9709236054903</v>
       </c>
       <c r="U45" t="n">
-        <v>0</v>
+        <v>237.2280694968886</v>
       </c>
       <c r="V45" t="n">
-        <v>186.2237609929956</v>
+        <v>0</v>
       </c>
       <c r="W45" t="n">
-        <v>241.009769215476</v>
+        <v>0</v>
       </c>
       <c r="X45" t="n">
-        <v>0</v>
+        <v>217.3129144394706</v>
       </c>
       <c r="Y45" t="n">
         <v>223.3842861340256</v>
@@ -30879,13 +30879,13 @@
         <v>120.239607582909</v>
       </c>
       <c r="K46" t="n">
-        <v>67.02998013918997</v>
+        <v>67.02998013918999</v>
       </c>
       <c r="L46" t="n">
-        <v>32.15181624817888</v>
+        <v>32.15181624817889</v>
       </c>
       <c r="M46" t="n">
-        <v>67.9157561455018</v>
+        <v>25.21686539889346</v>
       </c>
       <c r="N46" t="n">
         <v>16.52015736928135</v>
@@ -30894,19 +30894,19 @@
         <v>37.4788839977768</v>
       </c>
       <c r="P46" t="n">
-        <v>58.47859890024887</v>
+        <v>58.47859890024888</v>
       </c>
       <c r="Q46" t="n">
-        <v>127.2169859636892</v>
+        <v>230.3156203845878</v>
       </c>
       <c r="R46" t="n">
-        <v>241.009769215476</v>
+        <v>203.4299611556341</v>
       </c>
       <c r="S46" t="n">
-        <v>241.009769215476</v>
+        <v>235.4380443661806</v>
       </c>
       <c r="T46" t="n">
-        <v>241.009769215476</v>
+        <v>223.761558450323</v>
       </c>
       <c r="U46" t="n">
         <v>241.009769215476</v>
@@ -31750,43 +31750,43 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>0.4067191319631734</v>
+        <v>0.4067191319631733</v>
       </c>
       <c r="H11" t="n">
-        <v>4.165312310217851</v>
+        <v>4.165312310217849</v>
       </c>
       <c r="I11" t="n">
-        <v>15.68003933501026</v>
+        <v>15.68003933501025</v>
       </c>
       <c r="J11" t="n">
-        <v>34.51977792645942</v>
+        <v>34.51977792645941</v>
       </c>
       <c r="K11" t="n">
-        <v>51.73619878246055</v>
+        <v>51.73619878246054</v>
       </c>
       <c r="L11" t="n">
-        <v>64.18332941727854</v>
+        <v>64.18332941727851</v>
       </c>
       <c r="M11" t="n">
-        <v>71.41632078032862</v>
+        <v>71.4163207803286</v>
       </c>
       <c r="N11" t="n">
-        <v>72.57191151401899</v>
+        <v>72.57191151401898</v>
       </c>
       <c r="O11" t="n">
-        <v>68.52759814556018</v>
+        <v>68.52759814556016</v>
       </c>
       <c r="P11" t="n">
-        <v>58.48671957521933</v>
+        <v>58.48671957521931</v>
       </c>
       <c r="Q11" t="n">
-        <v>43.92109066178817</v>
+        <v>43.92109066178816</v>
       </c>
       <c r="R11" t="n">
-        <v>25.54857067318171</v>
+        <v>25.5485706731817</v>
       </c>
       <c r="S11" t="n">
-        <v>9.268112219610822</v>
+        <v>9.268112219610821</v>
       </c>
       <c r="T11" t="n">
         <v>1.780413000168792</v>
@@ -31829,46 +31829,46 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>0.2176139204650132</v>
+        <v>0.2176139204650131</v>
       </c>
       <c r="H12" t="n">
         <v>2.101692337122627</v>
       </c>
       <c r="I12" t="n">
-        <v>7.492409103729621</v>
+        <v>7.492409103729619</v>
       </c>
       <c r="J12" t="n">
         <v>20.55974324884583</v>
       </c>
       <c r="K12" t="n">
-        <v>35.13987592000171</v>
+        <v>35.1398759200017</v>
       </c>
       <c r="L12" t="n">
-        <v>47.24989970447578</v>
+        <v>47.24989970447577</v>
       </c>
       <c r="M12" t="n">
-        <v>55.13840432133249</v>
+        <v>55.13840432133248</v>
       </c>
       <c r="N12" t="n">
-        <v>56.59775381427551</v>
+        <v>56.59775381427549</v>
       </c>
       <c r="O12" t="n">
-        <v>51.77588747134022</v>
+        <v>51.7758874713402</v>
       </c>
       <c r="P12" t="n">
-        <v>41.55471433862169</v>
+        <v>41.55471433862167</v>
       </c>
       <c r="Q12" t="n">
-        <v>27.77822605795502</v>
+        <v>27.77822605795501</v>
       </c>
       <c r="R12" t="n">
         <v>13.51115200922249</v>
       </c>
       <c r="S12" t="n">
-        <v>4.042083127935658</v>
+        <v>4.042083127935657</v>
       </c>
       <c r="T12" t="n">
-        <v>0.8771368109971361</v>
+        <v>0.8771368109971358</v>
       </c>
       <c r="U12" t="n">
         <v>0.01431670529375087</v>
@@ -31908,49 +31908,49 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0.1824402007924974</v>
+        <v>0.1824402007924973</v>
       </c>
       <c r="H13" t="n">
-        <v>1.622059239773296</v>
+        <v>1.622059239773295</v>
       </c>
       <c r="I13" t="n">
-        <v>5.486474402014377</v>
+        <v>5.486474402014375</v>
       </c>
       <c r="J13" t="n">
         <v>12.89852219602956</v>
       </c>
       <c r="K13" t="n">
-        <v>21.19623423752833</v>
+        <v>21.19623423752832</v>
       </c>
       <c r="L13" t="n">
-        <v>27.12388221600457</v>
+        <v>27.12388221600456</v>
       </c>
       <c r="M13" t="n">
         <v>28.59833074786392</v>
       </c>
       <c r="N13" t="n">
-        <v>27.91832636309191</v>
+        <v>27.9183263630919</v>
       </c>
       <c r="O13" t="n">
         <v>25.78709310837954</v>
       </c>
       <c r="P13" t="n">
-        <v>22.06531301221258</v>
+        <v>22.06531301221257</v>
       </c>
       <c r="Q13" t="n">
-        <v>15.27687899545176</v>
+        <v>15.27687899545175</v>
       </c>
       <c r="R13" t="n">
-        <v>8.203174846542652</v>
+        <v>8.20317484654265</v>
       </c>
       <c r="S13" t="n">
-        <v>3.179435135629249</v>
+        <v>3.179435135629248</v>
       </c>
       <c r="T13" t="n">
-        <v>0.779517221567943</v>
+        <v>0.7795172215679428</v>
       </c>
       <c r="U13" t="n">
-        <v>0.009951283679590776</v>
+        <v>0.009951283679590774</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31987,43 +31987,43 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>0.4067191319631734</v>
+        <v>0.4067191319631733</v>
       </c>
       <c r="H14" t="n">
-        <v>4.165312310217851</v>
+        <v>4.165312310217849</v>
       </c>
       <c r="I14" t="n">
-        <v>15.68003933501026</v>
+        <v>15.68003933501025</v>
       </c>
       <c r="J14" t="n">
-        <v>34.51977792645942</v>
+        <v>34.51977792645941</v>
       </c>
       <c r="K14" t="n">
-        <v>51.73619878246055</v>
+        <v>51.73619878246054</v>
       </c>
       <c r="L14" t="n">
-        <v>64.18332941727854</v>
+        <v>64.18332941727851</v>
       </c>
       <c r="M14" t="n">
-        <v>71.41632078032862</v>
+        <v>71.4163207803286</v>
       </c>
       <c r="N14" t="n">
-        <v>72.57191151401899</v>
+        <v>72.57191151401898</v>
       </c>
       <c r="O14" t="n">
-        <v>68.52759814556018</v>
+        <v>68.52759814556016</v>
       </c>
       <c r="P14" t="n">
-        <v>58.48671957521933</v>
+        <v>58.48671957521931</v>
       </c>
       <c r="Q14" t="n">
-        <v>43.92109066178817</v>
+        <v>43.92109066178816</v>
       </c>
       <c r="R14" t="n">
-        <v>25.54857067318171</v>
+        <v>25.5485706731817</v>
       </c>
       <c r="S14" t="n">
-        <v>9.268112219610822</v>
+        <v>9.268112219610821</v>
       </c>
       <c r="T14" t="n">
         <v>1.780413000168792</v>
@@ -32066,46 +32066,46 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>0.2176139204650132</v>
+        <v>0.2176139204650131</v>
       </c>
       <c r="H15" t="n">
         <v>2.101692337122627</v>
       </c>
       <c r="I15" t="n">
-        <v>7.492409103729621</v>
+        <v>7.492409103729619</v>
       </c>
       <c r="J15" t="n">
         <v>20.55974324884583</v>
       </c>
       <c r="K15" t="n">
-        <v>35.13987592000171</v>
+        <v>35.1398759200017</v>
       </c>
       <c r="L15" t="n">
-        <v>47.24989970447578</v>
+        <v>47.24989970447577</v>
       </c>
       <c r="M15" t="n">
-        <v>55.13840432133249</v>
+        <v>55.13840432133248</v>
       </c>
       <c r="N15" t="n">
-        <v>56.59775381427551</v>
+        <v>56.59775381427549</v>
       </c>
       <c r="O15" t="n">
-        <v>51.77588747134022</v>
+        <v>51.7758874713402</v>
       </c>
       <c r="P15" t="n">
-        <v>41.55471433862169</v>
+        <v>41.55471433862167</v>
       </c>
       <c r="Q15" t="n">
-        <v>27.77822605795502</v>
+        <v>27.77822605795501</v>
       </c>
       <c r="R15" t="n">
         <v>13.51115200922249</v>
       </c>
       <c r="S15" t="n">
-        <v>4.042083127935658</v>
+        <v>4.042083127935657</v>
       </c>
       <c r="T15" t="n">
-        <v>0.8771368109971361</v>
+        <v>0.8771368109971358</v>
       </c>
       <c r="U15" t="n">
         <v>0.01431670529375087</v>
@@ -32145,49 +32145,49 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0.1824402007924974</v>
+        <v>0.1824402007924973</v>
       </c>
       <c r="H16" t="n">
-        <v>1.622059239773296</v>
+        <v>1.622059239773295</v>
       </c>
       <c r="I16" t="n">
-        <v>5.486474402014377</v>
+        <v>5.486474402014375</v>
       </c>
       <c r="J16" t="n">
         <v>12.89852219602956</v>
       </c>
       <c r="K16" t="n">
-        <v>21.19623423752833</v>
+        <v>21.19623423752832</v>
       </c>
       <c r="L16" t="n">
-        <v>27.12388221600457</v>
+        <v>27.12388221600456</v>
       </c>
       <c r="M16" t="n">
         <v>28.59833074786392</v>
       </c>
       <c r="N16" t="n">
-        <v>27.91832636309191</v>
+        <v>27.9183263630919</v>
       </c>
       <c r="O16" t="n">
         <v>25.78709310837954</v>
       </c>
       <c r="P16" t="n">
-        <v>22.06531301221258</v>
+        <v>22.06531301221257</v>
       </c>
       <c r="Q16" t="n">
-        <v>15.27687899545176</v>
+        <v>15.27687899545175</v>
       </c>
       <c r="R16" t="n">
-        <v>8.203174846542652</v>
+        <v>8.20317484654265</v>
       </c>
       <c r="S16" t="n">
-        <v>3.179435135629249</v>
+        <v>3.179435135629248</v>
       </c>
       <c r="T16" t="n">
-        <v>0.779517221567943</v>
+        <v>0.7795172215679428</v>
       </c>
       <c r="U16" t="n">
-        <v>0.009951283679590776</v>
+        <v>0.009951283679590774</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32224,43 +32224,43 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>0.4067191319631734</v>
+        <v>0.4067191319631733</v>
       </c>
       <c r="H17" t="n">
-        <v>4.165312310217851</v>
+        <v>4.165312310217849</v>
       </c>
       <c r="I17" t="n">
-        <v>15.68003933501026</v>
+        <v>15.68003933501025</v>
       </c>
       <c r="J17" t="n">
-        <v>34.51977792645942</v>
+        <v>34.51977792645941</v>
       </c>
       <c r="K17" t="n">
-        <v>51.73619878246055</v>
+        <v>51.73619878246054</v>
       </c>
       <c r="L17" t="n">
-        <v>64.18332941727854</v>
+        <v>64.18332941727851</v>
       </c>
       <c r="M17" t="n">
-        <v>71.41632078032862</v>
+        <v>71.4163207803286</v>
       </c>
       <c r="N17" t="n">
-        <v>72.57191151401899</v>
+        <v>72.57191151401898</v>
       </c>
       <c r="O17" t="n">
-        <v>68.52759814556018</v>
+        <v>68.52759814556016</v>
       </c>
       <c r="P17" t="n">
-        <v>58.48671957521933</v>
+        <v>58.48671957521931</v>
       </c>
       <c r="Q17" t="n">
-        <v>43.92109066178817</v>
+        <v>43.92109066178816</v>
       </c>
       <c r="R17" t="n">
-        <v>25.54857067318171</v>
+        <v>25.5485706731817</v>
       </c>
       <c r="S17" t="n">
-        <v>9.268112219610822</v>
+        <v>9.268112219610821</v>
       </c>
       <c r="T17" t="n">
         <v>1.780413000168792</v>
@@ -32303,46 +32303,46 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>0.2176139204650132</v>
+        <v>0.2176139204650131</v>
       </c>
       <c r="H18" t="n">
         <v>2.101692337122627</v>
       </c>
       <c r="I18" t="n">
-        <v>7.492409103729621</v>
+        <v>7.492409103729619</v>
       </c>
       <c r="J18" t="n">
         <v>20.55974324884583</v>
       </c>
       <c r="K18" t="n">
-        <v>35.13987592000171</v>
+        <v>35.1398759200017</v>
       </c>
       <c r="L18" t="n">
-        <v>47.24989970447578</v>
+        <v>47.24989970447577</v>
       </c>
       <c r="M18" t="n">
-        <v>55.13840432133249</v>
+        <v>55.13840432133248</v>
       </c>
       <c r="N18" t="n">
-        <v>56.59775381427551</v>
+        <v>56.59775381427549</v>
       </c>
       <c r="O18" t="n">
-        <v>51.77588747134022</v>
+        <v>51.7758874713402</v>
       </c>
       <c r="P18" t="n">
-        <v>41.55471433862169</v>
+        <v>41.55471433862167</v>
       </c>
       <c r="Q18" t="n">
-        <v>27.77822605795502</v>
+        <v>27.77822605795501</v>
       </c>
       <c r="R18" t="n">
         <v>13.51115200922249</v>
       </c>
       <c r="S18" t="n">
-        <v>4.042083127935658</v>
+        <v>4.042083127935657</v>
       </c>
       <c r="T18" t="n">
-        <v>0.8771368109971361</v>
+        <v>0.8771368109971358</v>
       </c>
       <c r="U18" t="n">
         <v>0.01431670529375087</v>
@@ -32382,49 +32382,49 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0.1824402007924974</v>
+        <v>0.1824402007924973</v>
       </c>
       <c r="H19" t="n">
-        <v>1.622059239773296</v>
+        <v>1.622059239773295</v>
       </c>
       <c r="I19" t="n">
-        <v>5.486474402014377</v>
+        <v>5.486474402014375</v>
       </c>
       <c r="J19" t="n">
         <v>12.89852219602956</v>
       </c>
       <c r="K19" t="n">
-        <v>21.19623423752833</v>
+        <v>21.19623423752832</v>
       </c>
       <c r="L19" t="n">
-        <v>27.12388221600457</v>
+        <v>27.12388221600456</v>
       </c>
       <c r="M19" t="n">
         <v>28.59833074786392</v>
       </c>
       <c r="N19" t="n">
-        <v>27.91832636309191</v>
+        <v>27.9183263630919</v>
       </c>
       <c r="O19" t="n">
         <v>25.78709310837954</v>
       </c>
       <c r="P19" t="n">
-        <v>22.06531301221258</v>
+        <v>22.06531301221257</v>
       </c>
       <c r="Q19" t="n">
-        <v>15.27687899545176</v>
+        <v>15.27687899545175</v>
       </c>
       <c r="R19" t="n">
-        <v>8.203174846542652</v>
+        <v>8.20317484654265</v>
       </c>
       <c r="S19" t="n">
-        <v>3.179435135629249</v>
+        <v>3.179435135629248</v>
       </c>
       <c r="T19" t="n">
-        <v>0.779517221567943</v>
+        <v>0.7795172215679428</v>
       </c>
       <c r="U19" t="n">
-        <v>0.009951283679590776</v>
+        <v>0.009951283679590774</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32470,40 +32470,40 @@
         <v>15.68003933501026</v>
       </c>
       <c r="J20" t="n">
-        <v>34.51977792645942</v>
+        <v>34.51977792645943</v>
       </c>
       <c r="K20" t="n">
-        <v>51.73619878246055</v>
+        <v>51.73619878246056</v>
       </c>
       <c r="L20" t="n">
         <v>64.18332941727854</v>
       </c>
       <c r="M20" t="n">
-        <v>71.41632078032862</v>
+        <v>71.41632078032863</v>
       </c>
       <c r="N20" t="n">
-        <v>72.57191151401899</v>
+        <v>72.57191151401901</v>
       </c>
       <c r="O20" t="n">
-        <v>68.52759814556018</v>
+        <v>68.52759814556019</v>
       </c>
       <c r="P20" t="n">
-        <v>58.48671957521933</v>
+        <v>58.48671957521934</v>
       </c>
       <c r="Q20" t="n">
-        <v>43.92109066178817</v>
+        <v>43.92109066178818</v>
       </c>
       <c r="R20" t="n">
         <v>25.54857067318171</v>
       </c>
       <c r="S20" t="n">
-        <v>9.268112219610822</v>
+        <v>9.268112219610824</v>
       </c>
       <c r="T20" t="n">
-        <v>1.780413000168792</v>
+        <v>1.780413000168793</v>
       </c>
       <c r="U20" t="n">
-        <v>0.03253753055705386</v>
+        <v>0.03253753055705387</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -32543,28 +32543,28 @@
         <v>0.2176139204650132</v>
       </c>
       <c r="H21" t="n">
-        <v>2.101692337122627</v>
+        <v>2.101692337122628</v>
       </c>
       <c r="I21" t="n">
-        <v>7.492409103729621</v>
+        <v>7.492409103729623</v>
       </c>
       <c r="J21" t="n">
         <v>20.55974324884583</v>
       </c>
       <c r="K21" t="n">
-        <v>35.13987592000171</v>
+        <v>35.13987592000172</v>
       </c>
       <c r="L21" t="n">
-        <v>47.24989970447578</v>
+        <v>47.24989970447579</v>
       </c>
       <c r="M21" t="n">
-        <v>55.13840432133249</v>
+        <v>55.1384043213325</v>
       </c>
       <c r="N21" t="n">
-        <v>56.59775381427551</v>
+        <v>56.59775381427552</v>
       </c>
       <c r="O21" t="n">
-        <v>51.77588747134022</v>
+        <v>51.77588747134023</v>
       </c>
       <c r="P21" t="n">
         <v>41.55471433862169</v>
@@ -32576,13 +32576,13 @@
         <v>13.51115200922249</v>
       </c>
       <c r="S21" t="n">
-        <v>4.042083127935658</v>
+        <v>4.042083127935659</v>
       </c>
       <c r="T21" t="n">
-        <v>0.8771368109971361</v>
+        <v>0.8771368109971363</v>
       </c>
       <c r="U21" t="n">
-        <v>0.01431670529375087</v>
+        <v>0.01431670529375088</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32625,7 +32625,7 @@
         <v>1.622059239773296</v>
       </c>
       <c r="I22" t="n">
-        <v>5.486474402014377</v>
+        <v>5.486474402014378</v>
       </c>
       <c r="J22" t="n">
         <v>12.89852219602956</v>
@@ -32637,13 +32637,13 @@
         <v>27.12388221600457</v>
       </c>
       <c r="M22" t="n">
-        <v>28.59833074786392</v>
+        <v>28.59833074786393</v>
       </c>
       <c r="N22" t="n">
         <v>27.91832636309191</v>
       </c>
       <c r="O22" t="n">
-        <v>25.78709310837954</v>
+        <v>25.78709310837955</v>
       </c>
       <c r="P22" t="n">
         <v>22.06531301221258</v>
@@ -32652,16 +32652,16 @@
         <v>15.27687899545176</v>
       </c>
       <c r="R22" t="n">
-        <v>8.203174846542652</v>
+        <v>8.203174846542653</v>
       </c>
       <c r="S22" t="n">
         <v>3.179435135629249</v>
       </c>
       <c r="T22" t="n">
-        <v>0.779517221567943</v>
+        <v>0.7795172215679431</v>
       </c>
       <c r="U22" t="n">
-        <v>0.009951283679590776</v>
+        <v>0.009951283679590778</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32698,43 +32698,43 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>0.4067191319631734</v>
+        <v>0.4067191319631733</v>
       </c>
       <c r="H23" t="n">
-        <v>4.165312310217851</v>
+        <v>4.165312310217849</v>
       </c>
       <c r="I23" t="n">
-        <v>15.68003933501026</v>
+        <v>15.68003933501025</v>
       </c>
       <c r="J23" t="n">
-        <v>34.51977792645942</v>
+        <v>34.51977792645941</v>
       </c>
       <c r="K23" t="n">
-        <v>51.73619878246055</v>
+        <v>51.73619878246054</v>
       </c>
       <c r="L23" t="n">
-        <v>64.18332941727854</v>
+        <v>64.18332941727851</v>
       </c>
       <c r="M23" t="n">
-        <v>71.41632078032862</v>
+        <v>71.4163207803286</v>
       </c>
       <c r="N23" t="n">
-        <v>72.57191151401899</v>
+        <v>72.57191151401898</v>
       </c>
       <c r="O23" t="n">
-        <v>68.52759814556018</v>
+        <v>68.52759814556016</v>
       </c>
       <c r="P23" t="n">
-        <v>58.48671957521933</v>
+        <v>58.48671957521931</v>
       </c>
       <c r="Q23" t="n">
-        <v>43.92109066178817</v>
+        <v>43.92109066178816</v>
       </c>
       <c r="R23" t="n">
-        <v>25.54857067318171</v>
+        <v>25.5485706731817</v>
       </c>
       <c r="S23" t="n">
-        <v>9.268112219610822</v>
+        <v>9.268112219610821</v>
       </c>
       <c r="T23" t="n">
         <v>1.780413000168792</v>
@@ -32777,46 +32777,46 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>0.2176139204650132</v>
+        <v>0.2176139204650131</v>
       </c>
       <c r="H24" t="n">
         <v>2.101692337122627</v>
       </c>
       <c r="I24" t="n">
-        <v>7.492409103729621</v>
+        <v>7.492409103729619</v>
       </c>
       <c r="J24" t="n">
         <v>20.55974324884583</v>
       </c>
       <c r="K24" t="n">
-        <v>35.13987592000171</v>
+        <v>35.1398759200017</v>
       </c>
       <c r="L24" t="n">
-        <v>47.24989970447578</v>
+        <v>47.24989970447577</v>
       </c>
       <c r="M24" t="n">
-        <v>55.13840432133249</v>
+        <v>55.13840432133248</v>
       </c>
       <c r="N24" t="n">
-        <v>56.59775381427551</v>
+        <v>56.59775381427549</v>
       </c>
       <c r="O24" t="n">
-        <v>51.77588747134022</v>
+        <v>51.7758874713402</v>
       </c>
       <c r="P24" t="n">
-        <v>41.55471433862169</v>
+        <v>41.55471433862167</v>
       </c>
       <c r="Q24" t="n">
-        <v>27.77822605795502</v>
+        <v>27.77822605795501</v>
       </c>
       <c r="R24" t="n">
         <v>13.51115200922249</v>
       </c>
       <c r="S24" t="n">
-        <v>4.042083127935658</v>
+        <v>4.042083127935657</v>
       </c>
       <c r="T24" t="n">
-        <v>0.8771368109971361</v>
+        <v>0.8771368109971358</v>
       </c>
       <c r="U24" t="n">
         <v>0.01431670529375087</v>
@@ -32856,49 +32856,49 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0.1824402007924974</v>
+        <v>0.1824402007924973</v>
       </c>
       <c r="H25" t="n">
-        <v>1.622059239773296</v>
+        <v>1.622059239773295</v>
       </c>
       <c r="I25" t="n">
-        <v>5.486474402014377</v>
+        <v>5.486474402014375</v>
       </c>
       <c r="J25" t="n">
         <v>12.89852219602956</v>
       </c>
       <c r="K25" t="n">
-        <v>21.19623423752833</v>
+        <v>21.19623423752832</v>
       </c>
       <c r="L25" t="n">
-        <v>27.12388221600457</v>
+        <v>27.12388221600456</v>
       </c>
       <c r="M25" t="n">
         <v>28.59833074786392</v>
       </c>
       <c r="N25" t="n">
-        <v>27.91832636309191</v>
+        <v>27.9183263630919</v>
       </c>
       <c r="O25" t="n">
         <v>25.78709310837954</v>
       </c>
       <c r="P25" t="n">
-        <v>22.06531301221258</v>
+        <v>22.06531301221257</v>
       </c>
       <c r="Q25" t="n">
-        <v>15.27687899545176</v>
+        <v>15.27687899545175</v>
       </c>
       <c r="R25" t="n">
-        <v>8.203174846542652</v>
+        <v>8.20317484654265</v>
       </c>
       <c r="S25" t="n">
-        <v>3.179435135629249</v>
+        <v>3.179435135629248</v>
       </c>
       <c r="T25" t="n">
-        <v>0.779517221567943</v>
+        <v>0.7795172215679428</v>
       </c>
       <c r="U25" t="n">
-        <v>0.009951283679590776</v>
+        <v>0.009951283679590774</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32935,43 +32935,43 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>0.4067191319631734</v>
+        <v>0.4067191319631733</v>
       </c>
       <c r="H26" t="n">
-        <v>4.165312310217851</v>
+        <v>4.165312310217849</v>
       </c>
       <c r="I26" t="n">
-        <v>15.68003933501026</v>
+        <v>15.68003933501025</v>
       </c>
       <c r="J26" t="n">
-        <v>34.51977792645942</v>
+        <v>34.51977792645941</v>
       </c>
       <c r="K26" t="n">
-        <v>51.73619878246055</v>
+        <v>51.73619878246054</v>
       </c>
       <c r="L26" t="n">
-        <v>64.18332941727854</v>
+        <v>64.18332941727851</v>
       </c>
       <c r="M26" t="n">
-        <v>71.41632078032862</v>
+        <v>71.4163207803286</v>
       </c>
       <c r="N26" t="n">
-        <v>72.57191151401899</v>
+        <v>72.57191151401898</v>
       </c>
       <c r="O26" t="n">
-        <v>68.52759814556018</v>
+        <v>68.52759814556016</v>
       </c>
       <c r="P26" t="n">
-        <v>58.48671957521933</v>
+        <v>58.48671957521931</v>
       </c>
       <c r="Q26" t="n">
-        <v>43.92109066178817</v>
+        <v>43.92109066178816</v>
       </c>
       <c r="R26" t="n">
-        <v>25.54857067318171</v>
+        <v>25.5485706731817</v>
       </c>
       <c r="S26" t="n">
-        <v>9.268112219610822</v>
+        <v>9.268112219610821</v>
       </c>
       <c r="T26" t="n">
         <v>1.780413000168792</v>
@@ -33014,46 +33014,46 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>0.2176139204650132</v>
+        <v>0.2176139204650131</v>
       </c>
       <c r="H27" t="n">
         <v>2.101692337122627</v>
       </c>
       <c r="I27" t="n">
-        <v>7.492409103729621</v>
+        <v>7.492409103729619</v>
       </c>
       <c r="J27" t="n">
         <v>20.55974324884583</v>
       </c>
       <c r="K27" t="n">
-        <v>35.13987592000171</v>
+        <v>35.1398759200017</v>
       </c>
       <c r="L27" t="n">
-        <v>47.24989970447578</v>
+        <v>47.24989970447577</v>
       </c>
       <c r="M27" t="n">
-        <v>55.13840432133249</v>
+        <v>55.13840432133248</v>
       </c>
       <c r="N27" t="n">
-        <v>56.59775381427551</v>
+        <v>56.59775381427549</v>
       </c>
       <c r="O27" t="n">
-        <v>51.77588747134022</v>
+        <v>51.7758874713402</v>
       </c>
       <c r="P27" t="n">
-        <v>41.55471433862169</v>
+        <v>41.55471433862167</v>
       </c>
       <c r="Q27" t="n">
-        <v>27.77822605795502</v>
+        <v>27.77822605795501</v>
       </c>
       <c r="R27" t="n">
         <v>13.51115200922249</v>
       </c>
       <c r="S27" t="n">
-        <v>4.042083127935658</v>
+        <v>4.042083127935657</v>
       </c>
       <c r="T27" t="n">
-        <v>0.8771368109971361</v>
+        <v>0.8771368109971358</v>
       </c>
       <c r="U27" t="n">
         <v>0.01431670529375087</v>
@@ -33093,49 +33093,49 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0.1824402007924974</v>
+        <v>0.1824402007924973</v>
       </c>
       <c r="H28" t="n">
-        <v>1.622059239773296</v>
+        <v>1.622059239773295</v>
       </c>
       <c r="I28" t="n">
-        <v>5.486474402014377</v>
+        <v>5.486474402014375</v>
       </c>
       <c r="J28" t="n">
         <v>12.89852219602956</v>
       </c>
       <c r="K28" t="n">
-        <v>21.19623423752833</v>
+        <v>21.19623423752832</v>
       </c>
       <c r="L28" t="n">
-        <v>27.12388221600457</v>
+        <v>27.12388221600456</v>
       </c>
       <c r="M28" t="n">
         <v>28.59833074786392</v>
       </c>
       <c r="N28" t="n">
-        <v>27.91832636309191</v>
+        <v>27.9183263630919</v>
       </c>
       <c r="O28" t="n">
         <v>25.78709310837954</v>
       </c>
       <c r="P28" t="n">
-        <v>22.06531301221258</v>
+        <v>22.06531301221257</v>
       </c>
       <c r="Q28" t="n">
-        <v>15.27687899545176</v>
+        <v>15.27687899545175</v>
       </c>
       <c r="R28" t="n">
-        <v>8.203174846542652</v>
+        <v>8.20317484654265</v>
       </c>
       <c r="S28" t="n">
-        <v>3.179435135629249</v>
+        <v>3.179435135629248</v>
       </c>
       <c r="T28" t="n">
-        <v>0.779517221567943</v>
+        <v>0.7795172215679428</v>
       </c>
       <c r="U28" t="n">
-        <v>0.009951283679590776</v>
+        <v>0.009951283679590774</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33172,43 +33172,43 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>0.4067191319631734</v>
+        <v>0.4067191319631733</v>
       </c>
       <c r="H29" t="n">
-        <v>4.165312310217851</v>
+        <v>4.165312310217849</v>
       </c>
       <c r="I29" t="n">
-        <v>15.68003933501026</v>
+        <v>15.68003933501025</v>
       </c>
       <c r="J29" t="n">
-        <v>34.51977792645942</v>
+        <v>34.51977792645941</v>
       </c>
       <c r="K29" t="n">
-        <v>51.73619878246055</v>
+        <v>51.73619878246054</v>
       </c>
       <c r="L29" t="n">
-        <v>64.18332941727854</v>
+        <v>64.18332941727851</v>
       </c>
       <c r="M29" t="n">
-        <v>71.41632078032862</v>
+        <v>71.4163207803286</v>
       </c>
       <c r="N29" t="n">
-        <v>72.57191151401899</v>
+        <v>72.57191151401898</v>
       </c>
       <c r="O29" t="n">
-        <v>68.52759814556018</v>
+        <v>68.52759814556016</v>
       </c>
       <c r="P29" t="n">
-        <v>58.48671957521933</v>
+        <v>58.48671957521931</v>
       </c>
       <c r="Q29" t="n">
-        <v>43.92109066178817</v>
+        <v>43.92109066178816</v>
       </c>
       <c r="R29" t="n">
-        <v>25.54857067318171</v>
+        <v>25.5485706731817</v>
       </c>
       <c r="S29" t="n">
-        <v>9.268112219610822</v>
+        <v>9.268112219610821</v>
       </c>
       <c r="T29" t="n">
         <v>1.780413000168792</v>
@@ -33251,46 +33251,46 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>0.2176139204650132</v>
+        <v>0.2176139204650131</v>
       </c>
       <c r="H30" t="n">
         <v>2.101692337122627</v>
       </c>
       <c r="I30" t="n">
-        <v>7.492409103729621</v>
+        <v>7.492409103729619</v>
       </c>
       <c r="J30" t="n">
         <v>20.55974324884583</v>
       </c>
       <c r="K30" t="n">
-        <v>35.13987592000171</v>
+        <v>35.1398759200017</v>
       </c>
       <c r="L30" t="n">
-        <v>47.24989970447578</v>
+        <v>47.24989970447577</v>
       </c>
       <c r="M30" t="n">
-        <v>55.13840432133249</v>
+        <v>55.13840432133248</v>
       </c>
       <c r="N30" t="n">
-        <v>56.59775381427551</v>
+        <v>56.59775381427549</v>
       </c>
       <c r="O30" t="n">
-        <v>51.77588747134022</v>
+        <v>51.7758874713402</v>
       </c>
       <c r="P30" t="n">
-        <v>41.55471433862169</v>
+        <v>41.55471433862167</v>
       </c>
       <c r="Q30" t="n">
-        <v>27.77822605795502</v>
+        <v>27.77822605795501</v>
       </c>
       <c r="R30" t="n">
         <v>13.51115200922249</v>
       </c>
       <c r="S30" t="n">
-        <v>4.042083127935658</v>
+        <v>4.042083127935657</v>
       </c>
       <c r="T30" t="n">
-        <v>0.8771368109971361</v>
+        <v>0.8771368109971358</v>
       </c>
       <c r="U30" t="n">
         <v>0.01431670529375087</v>
@@ -33330,49 +33330,49 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0.1824402007924974</v>
+        <v>0.1824402007924973</v>
       </c>
       <c r="H31" t="n">
-        <v>1.622059239773296</v>
+        <v>1.622059239773295</v>
       </c>
       <c r="I31" t="n">
-        <v>5.486474402014377</v>
+        <v>5.486474402014375</v>
       </c>
       <c r="J31" t="n">
         <v>12.89852219602956</v>
       </c>
       <c r="K31" t="n">
-        <v>21.19623423752833</v>
+        <v>21.19623423752832</v>
       </c>
       <c r="L31" t="n">
-        <v>27.12388221600457</v>
+        <v>27.12388221600456</v>
       </c>
       <c r="M31" t="n">
         <v>28.59833074786392</v>
       </c>
       <c r="N31" t="n">
-        <v>27.91832636309191</v>
+        <v>27.9183263630919</v>
       </c>
       <c r="O31" t="n">
         <v>25.78709310837954</v>
       </c>
       <c r="P31" t="n">
-        <v>22.06531301221258</v>
+        <v>22.06531301221257</v>
       </c>
       <c r="Q31" t="n">
-        <v>15.27687899545176</v>
+        <v>15.27687899545175</v>
       </c>
       <c r="R31" t="n">
-        <v>8.203174846542652</v>
+        <v>8.20317484654265</v>
       </c>
       <c r="S31" t="n">
-        <v>3.179435135629249</v>
+        <v>3.179435135629248</v>
       </c>
       <c r="T31" t="n">
-        <v>0.779517221567943</v>
+        <v>0.7795172215679428</v>
       </c>
       <c r="U31" t="n">
-        <v>0.009951283679590776</v>
+        <v>0.009951283679590774</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33409,43 +33409,43 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>0.4067191319631734</v>
+        <v>0.4067191319631733</v>
       </c>
       <c r="H32" t="n">
-        <v>4.165312310217851</v>
+        <v>4.165312310217849</v>
       </c>
       <c r="I32" t="n">
-        <v>15.68003933501026</v>
+        <v>15.68003933501025</v>
       </c>
       <c r="J32" t="n">
-        <v>34.51977792645942</v>
+        <v>34.51977792645941</v>
       </c>
       <c r="K32" t="n">
-        <v>51.73619878246055</v>
+        <v>51.73619878246054</v>
       </c>
       <c r="L32" t="n">
-        <v>64.18332941727854</v>
+        <v>64.18332941727851</v>
       </c>
       <c r="M32" t="n">
-        <v>71.41632078032862</v>
+        <v>71.4163207803286</v>
       </c>
       <c r="N32" t="n">
-        <v>72.57191151401899</v>
+        <v>72.57191151401898</v>
       </c>
       <c r="O32" t="n">
-        <v>68.52759814556018</v>
+        <v>68.52759814556016</v>
       </c>
       <c r="P32" t="n">
-        <v>58.48671957521933</v>
+        <v>58.48671957521931</v>
       </c>
       <c r="Q32" t="n">
-        <v>43.92109066178817</v>
+        <v>43.92109066178816</v>
       </c>
       <c r="R32" t="n">
-        <v>25.54857067318171</v>
+        <v>25.5485706731817</v>
       </c>
       <c r="S32" t="n">
-        <v>9.268112219610822</v>
+        <v>9.268112219610821</v>
       </c>
       <c r="T32" t="n">
         <v>1.780413000168792</v>
@@ -33488,46 +33488,46 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>0.2176139204650132</v>
+        <v>0.2176139204650131</v>
       </c>
       <c r="H33" t="n">
         <v>2.101692337122627</v>
       </c>
       <c r="I33" t="n">
-        <v>7.492409103729621</v>
+        <v>7.492409103729619</v>
       </c>
       <c r="J33" t="n">
         <v>20.55974324884583</v>
       </c>
       <c r="K33" t="n">
-        <v>35.13987592000171</v>
+        <v>35.1398759200017</v>
       </c>
       <c r="L33" t="n">
-        <v>47.24989970447578</v>
+        <v>47.24989970447577</v>
       </c>
       <c r="M33" t="n">
-        <v>55.13840432133249</v>
+        <v>55.13840432133248</v>
       </c>
       <c r="N33" t="n">
-        <v>56.59775381427551</v>
+        <v>56.59775381427549</v>
       </c>
       <c r="O33" t="n">
-        <v>51.77588747134022</v>
+        <v>51.7758874713402</v>
       </c>
       <c r="P33" t="n">
-        <v>41.55471433862169</v>
+        <v>41.55471433862167</v>
       </c>
       <c r="Q33" t="n">
-        <v>27.77822605795502</v>
+        <v>27.77822605795501</v>
       </c>
       <c r="R33" t="n">
         <v>13.51115200922249</v>
       </c>
       <c r="S33" t="n">
-        <v>4.042083127935658</v>
+        <v>4.042083127935657</v>
       </c>
       <c r="T33" t="n">
-        <v>0.8771368109971361</v>
+        <v>0.8771368109971358</v>
       </c>
       <c r="U33" t="n">
         <v>0.01431670529375087</v>
@@ -33567,49 +33567,49 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>0.1824402007924974</v>
+        <v>0.1824402007924973</v>
       </c>
       <c r="H34" t="n">
-        <v>1.622059239773296</v>
+        <v>1.622059239773295</v>
       </c>
       <c r="I34" t="n">
-        <v>5.486474402014377</v>
+        <v>5.486474402014375</v>
       </c>
       <c r="J34" t="n">
         <v>12.89852219602956</v>
       </c>
       <c r="K34" t="n">
-        <v>21.19623423752833</v>
+        <v>21.19623423752832</v>
       </c>
       <c r="L34" t="n">
-        <v>27.12388221600457</v>
+        <v>27.12388221600456</v>
       </c>
       <c r="M34" t="n">
         <v>28.59833074786392</v>
       </c>
       <c r="N34" t="n">
-        <v>27.91832636309191</v>
+        <v>27.9183263630919</v>
       </c>
       <c r="O34" t="n">
         <v>25.78709310837954</v>
       </c>
       <c r="P34" t="n">
-        <v>22.06531301221258</v>
+        <v>22.06531301221257</v>
       </c>
       <c r="Q34" t="n">
-        <v>15.27687899545176</v>
+        <v>15.27687899545175</v>
       </c>
       <c r="R34" t="n">
-        <v>8.203174846542652</v>
+        <v>8.20317484654265</v>
       </c>
       <c r="S34" t="n">
-        <v>3.179435135629249</v>
+        <v>3.179435135629248</v>
       </c>
       <c r="T34" t="n">
-        <v>0.779517221567943</v>
+        <v>0.7795172215679428</v>
       </c>
       <c r="U34" t="n">
-        <v>0.009951283679590776</v>
+        <v>0.009951283679590774</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33646,43 +33646,43 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>0.4067191319631734</v>
+        <v>0.4067191319631733</v>
       </c>
       <c r="H35" t="n">
-        <v>4.165312310217851</v>
+        <v>4.165312310217849</v>
       </c>
       <c r="I35" t="n">
-        <v>15.68003933501026</v>
+        <v>15.68003933501025</v>
       </c>
       <c r="J35" t="n">
-        <v>34.51977792645942</v>
+        <v>34.51977792645941</v>
       </c>
       <c r="K35" t="n">
-        <v>51.73619878246055</v>
+        <v>51.73619878246054</v>
       </c>
       <c r="L35" t="n">
-        <v>64.18332941727854</v>
+        <v>64.18332941727851</v>
       </c>
       <c r="M35" t="n">
-        <v>71.41632078032862</v>
+        <v>71.4163207803286</v>
       </c>
       <c r="N35" t="n">
-        <v>72.57191151401899</v>
+        <v>72.57191151401898</v>
       </c>
       <c r="O35" t="n">
-        <v>68.52759814556018</v>
+        <v>68.52759814556016</v>
       </c>
       <c r="P35" t="n">
-        <v>58.48671957521933</v>
+        <v>58.48671957521931</v>
       </c>
       <c r="Q35" t="n">
-        <v>43.92109066178817</v>
+        <v>43.92109066178816</v>
       </c>
       <c r="R35" t="n">
-        <v>25.54857067318171</v>
+        <v>25.5485706731817</v>
       </c>
       <c r="S35" t="n">
-        <v>9.268112219610822</v>
+        <v>9.268112219610821</v>
       </c>
       <c r="T35" t="n">
         <v>1.780413000168792</v>
@@ -33725,46 +33725,46 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>0.2176139204650132</v>
+        <v>0.2176139204650131</v>
       </c>
       <c r="H36" t="n">
         <v>2.101692337122627</v>
       </c>
       <c r="I36" t="n">
-        <v>7.492409103729621</v>
+        <v>7.492409103729619</v>
       </c>
       <c r="J36" t="n">
         <v>20.55974324884583</v>
       </c>
       <c r="K36" t="n">
-        <v>35.13987592000171</v>
+        <v>35.1398759200017</v>
       </c>
       <c r="L36" t="n">
-        <v>47.24989970447578</v>
+        <v>47.24989970447577</v>
       </c>
       <c r="M36" t="n">
-        <v>55.13840432133249</v>
+        <v>55.13840432133248</v>
       </c>
       <c r="N36" t="n">
-        <v>56.59775381427551</v>
+        <v>56.59775381427549</v>
       </c>
       <c r="O36" t="n">
-        <v>51.77588747134022</v>
+        <v>51.7758874713402</v>
       </c>
       <c r="P36" t="n">
-        <v>41.55471433862169</v>
+        <v>41.55471433862167</v>
       </c>
       <c r="Q36" t="n">
-        <v>27.77822605795502</v>
+        <v>27.77822605795501</v>
       </c>
       <c r="R36" t="n">
         <v>13.51115200922249</v>
       </c>
       <c r="S36" t="n">
-        <v>4.042083127935658</v>
+        <v>4.042083127935657</v>
       </c>
       <c r="T36" t="n">
-        <v>0.8771368109971361</v>
+        <v>0.8771368109971358</v>
       </c>
       <c r="U36" t="n">
         <v>0.01431670529375087</v>
@@ -33804,49 +33804,49 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0.1824402007924974</v>
+        <v>0.1824402007924973</v>
       </c>
       <c r="H37" t="n">
-        <v>1.622059239773296</v>
+        <v>1.622059239773295</v>
       </c>
       <c r="I37" t="n">
-        <v>5.486474402014377</v>
+        <v>5.486474402014375</v>
       </c>
       <c r="J37" t="n">
         <v>12.89852219602956</v>
       </c>
       <c r="K37" t="n">
-        <v>21.19623423752833</v>
+        <v>21.19623423752832</v>
       </c>
       <c r="L37" t="n">
-        <v>27.12388221600457</v>
+        <v>27.12388221600456</v>
       </c>
       <c r="M37" t="n">
         <v>28.59833074786392</v>
       </c>
       <c r="N37" t="n">
-        <v>27.91832636309191</v>
+        <v>27.9183263630919</v>
       </c>
       <c r="O37" t="n">
         <v>25.78709310837954</v>
       </c>
       <c r="P37" t="n">
-        <v>22.06531301221258</v>
+        <v>22.06531301221257</v>
       </c>
       <c r="Q37" t="n">
-        <v>15.27687899545176</v>
+        <v>15.27687899545175</v>
       </c>
       <c r="R37" t="n">
-        <v>8.203174846542652</v>
+        <v>8.20317484654265</v>
       </c>
       <c r="S37" t="n">
-        <v>3.179435135629249</v>
+        <v>3.179435135629248</v>
       </c>
       <c r="T37" t="n">
-        <v>0.779517221567943</v>
+        <v>0.7795172215679428</v>
       </c>
       <c r="U37" t="n">
-        <v>0.009951283679590776</v>
+        <v>0.009951283679590774</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33883,43 +33883,43 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>0.4067191319631734</v>
+        <v>0.4067191319631733</v>
       </c>
       <c r="H38" t="n">
-        <v>4.165312310217851</v>
+        <v>4.165312310217849</v>
       </c>
       <c r="I38" t="n">
-        <v>15.68003933501026</v>
+        <v>15.68003933501025</v>
       </c>
       <c r="J38" t="n">
-        <v>34.51977792645942</v>
+        <v>34.51977792645941</v>
       </c>
       <c r="K38" t="n">
-        <v>51.73619878246055</v>
+        <v>51.73619878246054</v>
       </c>
       <c r="L38" t="n">
-        <v>64.18332941727854</v>
+        <v>64.18332941727851</v>
       </c>
       <c r="M38" t="n">
-        <v>71.41632078032862</v>
+        <v>71.4163207803286</v>
       </c>
       <c r="N38" t="n">
-        <v>72.57191151401899</v>
+        <v>72.57191151401898</v>
       </c>
       <c r="O38" t="n">
-        <v>68.52759814556018</v>
+        <v>68.52759814556016</v>
       </c>
       <c r="P38" t="n">
-        <v>58.48671957521933</v>
+        <v>58.48671957521931</v>
       </c>
       <c r="Q38" t="n">
-        <v>43.92109066178817</v>
+        <v>43.92109066178816</v>
       </c>
       <c r="R38" t="n">
-        <v>25.54857067318171</v>
+        <v>25.5485706731817</v>
       </c>
       <c r="S38" t="n">
-        <v>9.268112219610822</v>
+        <v>9.268112219610821</v>
       </c>
       <c r="T38" t="n">
         <v>1.780413000168792</v>
@@ -33962,46 +33962,46 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>0.2176139204650132</v>
+        <v>0.2176139204650131</v>
       </c>
       <c r="H39" t="n">
         <v>2.101692337122627</v>
       </c>
       <c r="I39" t="n">
-        <v>7.492409103729621</v>
+        <v>7.492409103729619</v>
       </c>
       <c r="J39" t="n">
         <v>20.55974324884583</v>
       </c>
       <c r="K39" t="n">
-        <v>35.13987592000171</v>
+        <v>35.1398759200017</v>
       </c>
       <c r="L39" t="n">
-        <v>47.24989970447578</v>
+        <v>47.24989970447577</v>
       </c>
       <c r="M39" t="n">
-        <v>55.13840432133249</v>
+        <v>55.13840432133248</v>
       </c>
       <c r="N39" t="n">
-        <v>56.59775381427551</v>
+        <v>56.59775381427549</v>
       </c>
       <c r="O39" t="n">
-        <v>51.77588747134022</v>
+        <v>51.7758874713402</v>
       </c>
       <c r="P39" t="n">
-        <v>41.55471433862169</v>
+        <v>41.55471433862167</v>
       </c>
       <c r="Q39" t="n">
-        <v>27.77822605795502</v>
+        <v>27.77822605795501</v>
       </c>
       <c r="R39" t="n">
         <v>13.51115200922249</v>
       </c>
       <c r="S39" t="n">
-        <v>4.042083127935658</v>
+        <v>4.042083127935657</v>
       </c>
       <c r="T39" t="n">
-        <v>0.8771368109971361</v>
+        <v>0.8771368109971358</v>
       </c>
       <c r="U39" t="n">
         <v>0.01431670529375087</v>
@@ -34041,49 +34041,49 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>0.1824402007924974</v>
+        <v>0.1824402007924973</v>
       </c>
       <c r="H40" t="n">
-        <v>1.622059239773296</v>
+        <v>1.622059239773295</v>
       </c>
       <c r="I40" t="n">
-        <v>5.486474402014377</v>
+        <v>5.486474402014375</v>
       </c>
       <c r="J40" t="n">
         <v>12.89852219602956</v>
       </c>
       <c r="K40" t="n">
-        <v>21.19623423752833</v>
+        <v>21.19623423752832</v>
       </c>
       <c r="L40" t="n">
-        <v>27.12388221600457</v>
+        <v>27.12388221600456</v>
       </c>
       <c r="M40" t="n">
         <v>28.59833074786392</v>
       </c>
       <c r="N40" t="n">
-        <v>27.91832636309191</v>
+        <v>27.9183263630919</v>
       </c>
       <c r="O40" t="n">
         <v>25.78709310837954</v>
       </c>
       <c r="P40" t="n">
-        <v>22.06531301221258</v>
+        <v>22.06531301221257</v>
       </c>
       <c r="Q40" t="n">
-        <v>15.27687899545176</v>
+        <v>15.27687899545175</v>
       </c>
       <c r="R40" t="n">
-        <v>8.203174846542652</v>
+        <v>8.20317484654265</v>
       </c>
       <c r="S40" t="n">
-        <v>3.179435135629249</v>
+        <v>3.179435135629248</v>
       </c>
       <c r="T40" t="n">
-        <v>0.779517221567943</v>
+        <v>0.7795172215679428</v>
       </c>
       <c r="U40" t="n">
-        <v>0.009951283679590776</v>
+        <v>0.009951283679590774</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34120,43 +34120,43 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>0.4067191319631734</v>
+        <v>0.4067191319631733</v>
       </c>
       <c r="H41" t="n">
-        <v>4.165312310217851</v>
+        <v>4.165312310217849</v>
       </c>
       <c r="I41" t="n">
-        <v>15.68003933501026</v>
+        <v>15.68003933501025</v>
       </c>
       <c r="J41" t="n">
-        <v>34.51977792645942</v>
+        <v>34.51977792645941</v>
       </c>
       <c r="K41" t="n">
-        <v>51.73619878246055</v>
+        <v>51.73619878246054</v>
       </c>
       <c r="L41" t="n">
-        <v>64.18332941727854</v>
+        <v>64.18332941727851</v>
       </c>
       <c r="M41" t="n">
-        <v>71.41632078032862</v>
+        <v>71.4163207803286</v>
       </c>
       <c r="N41" t="n">
-        <v>72.57191151401899</v>
+        <v>72.57191151401898</v>
       </c>
       <c r="O41" t="n">
-        <v>68.52759814556018</v>
+        <v>68.52759814556016</v>
       </c>
       <c r="P41" t="n">
-        <v>58.48671957521933</v>
+        <v>58.48671957521931</v>
       </c>
       <c r="Q41" t="n">
-        <v>43.92109066178817</v>
+        <v>43.92109066178816</v>
       </c>
       <c r="R41" t="n">
-        <v>25.54857067318171</v>
+        <v>25.5485706731817</v>
       </c>
       <c r="S41" t="n">
-        <v>9.268112219610822</v>
+        <v>9.268112219610821</v>
       </c>
       <c r="T41" t="n">
         <v>1.780413000168792</v>
@@ -34199,46 +34199,46 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>0.2176139204650132</v>
+        <v>0.2176139204650131</v>
       </c>
       <c r="H42" t="n">
         <v>2.101692337122627</v>
       </c>
       <c r="I42" t="n">
-        <v>7.492409103729621</v>
+        <v>7.492409103729619</v>
       </c>
       <c r="J42" t="n">
         <v>20.55974324884583</v>
       </c>
       <c r="K42" t="n">
-        <v>35.13987592000171</v>
+        <v>35.1398759200017</v>
       </c>
       <c r="L42" t="n">
-        <v>47.24989970447578</v>
+        <v>47.24989970447577</v>
       </c>
       <c r="M42" t="n">
-        <v>55.13840432133249</v>
+        <v>55.13840432133248</v>
       </c>
       <c r="N42" t="n">
-        <v>56.59775381427551</v>
+        <v>56.59775381427549</v>
       </c>
       <c r="O42" t="n">
-        <v>51.77588747134022</v>
+        <v>51.7758874713402</v>
       </c>
       <c r="P42" t="n">
-        <v>41.55471433862169</v>
+        <v>41.55471433862167</v>
       </c>
       <c r="Q42" t="n">
-        <v>27.77822605795502</v>
+        <v>27.77822605795501</v>
       </c>
       <c r="R42" t="n">
         <v>13.51115200922249</v>
       </c>
       <c r="S42" t="n">
-        <v>4.042083127935658</v>
+        <v>4.042083127935657</v>
       </c>
       <c r="T42" t="n">
-        <v>0.8771368109971361</v>
+        <v>0.8771368109971358</v>
       </c>
       <c r="U42" t="n">
         <v>0.01431670529375087</v>
@@ -34278,49 +34278,49 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>0.1824402007924974</v>
+        <v>0.1824402007924973</v>
       </c>
       <c r="H43" t="n">
-        <v>1.622059239773296</v>
+        <v>1.622059239773295</v>
       </c>
       <c r="I43" t="n">
-        <v>5.486474402014377</v>
+        <v>5.486474402014375</v>
       </c>
       <c r="J43" t="n">
         <v>12.89852219602956</v>
       </c>
       <c r="K43" t="n">
-        <v>21.19623423752833</v>
+        <v>21.19623423752832</v>
       </c>
       <c r="L43" t="n">
-        <v>27.12388221600457</v>
+        <v>27.12388221600456</v>
       </c>
       <c r="M43" t="n">
         <v>28.59833074786392</v>
       </c>
       <c r="N43" t="n">
-        <v>27.91832636309191</v>
+        <v>27.9183263630919</v>
       </c>
       <c r="O43" t="n">
         <v>25.78709310837954</v>
       </c>
       <c r="P43" t="n">
-        <v>22.06531301221258</v>
+        <v>22.06531301221257</v>
       </c>
       <c r="Q43" t="n">
-        <v>15.27687899545176</v>
+        <v>15.27687899545175</v>
       </c>
       <c r="R43" t="n">
-        <v>8.203174846542652</v>
+        <v>8.20317484654265</v>
       </c>
       <c r="S43" t="n">
-        <v>3.179435135629249</v>
+        <v>3.179435135629248</v>
       </c>
       <c r="T43" t="n">
-        <v>0.779517221567943</v>
+        <v>0.7795172215679428</v>
       </c>
       <c r="U43" t="n">
-        <v>0.009951283679590776</v>
+        <v>0.009951283679590774</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34357,43 +34357,43 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>0.4067191319631734</v>
+        <v>0.4067191319631733</v>
       </c>
       <c r="H44" t="n">
-        <v>4.165312310217851</v>
+        <v>4.165312310217849</v>
       </c>
       <c r="I44" t="n">
-        <v>15.68003933501026</v>
+        <v>15.68003933501025</v>
       </c>
       <c r="J44" t="n">
-        <v>34.51977792645942</v>
+        <v>34.51977792645941</v>
       </c>
       <c r="K44" t="n">
-        <v>51.73619878246055</v>
+        <v>51.73619878246054</v>
       </c>
       <c r="L44" t="n">
-        <v>64.18332941727854</v>
+        <v>64.18332941727851</v>
       </c>
       <c r="M44" t="n">
-        <v>71.41632078032862</v>
+        <v>71.4163207803286</v>
       </c>
       <c r="N44" t="n">
-        <v>72.57191151401899</v>
+        <v>72.57191151401898</v>
       </c>
       <c r="O44" t="n">
-        <v>68.52759814556018</v>
+        <v>68.52759814556016</v>
       </c>
       <c r="P44" t="n">
-        <v>58.48671957521933</v>
+        <v>58.48671957521931</v>
       </c>
       <c r="Q44" t="n">
-        <v>43.92109066178817</v>
+        <v>43.92109066178816</v>
       </c>
       <c r="R44" t="n">
-        <v>25.54857067318171</v>
+        <v>25.5485706731817</v>
       </c>
       <c r="S44" t="n">
-        <v>9.268112219610822</v>
+        <v>9.268112219610821</v>
       </c>
       <c r="T44" t="n">
         <v>1.780413000168792</v>
@@ -34436,46 +34436,46 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>0.2176139204650132</v>
+        <v>0.2176139204650131</v>
       </c>
       <c r="H45" t="n">
         <v>2.101692337122627</v>
       </c>
       <c r="I45" t="n">
-        <v>7.492409103729621</v>
+        <v>7.492409103729619</v>
       </c>
       <c r="J45" t="n">
         <v>20.55974324884583</v>
       </c>
       <c r="K45" t="n">
-        <v>35.13987592000171</v>
+        <v>35.1398759200017</v>
       </c>
       <c r="L45" t="n">
-        <v>47.24989970447578</v>
+        <v>47.24989970447577</v>
       </c>
       <c r="M45" t="n">
-        <v>55.13840432133249</v>
+        <v>55.13840432133248</v>
       </c>
       <c r="N45" t="n">
-        <v>56.59775381427551</v>
+        <v>56.59775381427549</v>
       </c>
       <c r="O45" t="n">
-        <v>51.77588747134022</v>
+        <v>51.7758874713402</v>
       </c>
       <c r="P45" t="n">
-        <v>41.55471433862169</v>
+        <v>41.55471433862167</v>
       </c>
       <c r="Q45" t="n">
-        <v>27.77822605795502</v>
+        <v>27.77822605795501</v>
       </c>
       <c r="R45" t="n">
         <v>13.51115200922249</v>
       </c>
       <c r="S45" t="n">
-        <v>4.042083127935658</v>
+        <v>4.042083127935657</v>
       </c>
       <c r="T45" t="n">
-        <v>0.8771368109971361</v>
+        <v>0.8771368109971358</v>
       </c>
       <c r="U45" t="n">
         <v>0.01431670529375087</v>
@@ -34515,49 +34515,49 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0.1824402007924974</v>
+        <v>0.1824402007924973</v>
       </c>
       <c r="H46" t="n">
-        <v>1.622059239773296</v>
+        <v>1.622059239773295</v>
       </c>
       <c r="I46" t="n">
-        <v>5.486474402014377</v>
+        <v>5.486474402014375</v>
       </c>
       <c r="J46" t="n">
         <v>12.89852219602956</v>
       </c>
       <c r="K46" t="n">
-        <v>21.19623423752833</v>
+        <v>21.19623423752832</v>
       </c>
       <c r="L46" t="n">
-        <v>27.12388221600457</v>
+        <v>27.12388221600456</v>
       </c>
       <c r="M46" t="n">
         <v>28.59833074786392</v>
       </c>
       <c r="N46" t="n">
-        <v>27.91832636309191</v>
+        <v>27.9183263630919</v>
       </c>
       <c r="O46" t="n">
         <v>25.78709310837954</v>
       </c>
       <c r="P46" t="n">
-        <v>22.06531301221258</v>
+        <v>22.06531301221257</v>
       </c>
       <c r="Q46" t="n">
-        <v>15.27687899545176</v>
+        <v>15.27687899545175</v>
       </c>
       <c r="R46" t="n">
-        <v>8.203174846542652</v>
+        <v>8.20317484654265</v>
       </c>
       <c r="S46" t="n">
-        <v>3.179435135629249</v>
+        <v>3.179435135629248</v>
       </c>
       <c r="T46" t="n">
-        <v>0.779517221567943</v>
+        <v>0.7795172215679428</v>
       </c>
       <c r="U46" t="n">
-        <v>0.009951283679590776</v>
+        <v>0.009951283679590774</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -35152,10 +35152,10 @@
         <v>0</v>
       </c>
       <c r="D8" t="n">
+        <v>0</v>
+      </c>
+      <c r="E8" t="n">
         <v>0.129915453191039</v>
-      </c>
-      <c r="E8" t="n">
-        <v>0</v>
       </c>
       <c r="F8" t="n">
         <v>0</v>
@@ -35410,10 +35410,10 @@
         <v>0</v>
       </c>
       <c r="K11" t="n">
-        <v>0</v>
+        <v>124.5644288706591</v>
       </c>
       <c r="L11" t="n">
-        <v>188.4979333192472</v>
+        <v>47.19277018258595</v>
       </c>
       <c r="M11" t="n">
         <v>188.4979333192472</v>
@@ -35422,10 +35422,10 @@
         <v>188.4979333192472</v>
       </c>
       <c r="O11" t="n">
-        <v>180.8818552053382</v>
+        <v>34.56629766936133</v>
       </c>
       <c r="P11" t="n">
-        <v>0</v>
+        <v>163.0562918019791</v>
       </c>
       <c r="Q11" t="n">
         <v>0</v>
@@ -35489,7 +35489,7 @@
         <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>38.34679395543472</v>
+        <v>38.34679395543496</v>
       </c>
       <c r="L12" t="n">
         <v>118.5181001296708</v>
@@ -35504,7 +35504,7 @@
         <v>133.0312521404388</v>
       </c>
       <c r="P12" t="n">
-        <v>84.46981137181808</v>
+        <v>84.46981137181805</v>
       </c>
       <c r="Q12" t="n">
         <v>0</v>
@@ -35556,7 +35556,7 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>4.584105286185756</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
@@ -35571,22 +35571,22 @@
         <v>0</v>
       </c>
       <c r="L13" t="n">
-        <v>145.996447904889</v>
+        <v>0</v>
       </c>
       <c r="M13" t="n">
-        <v>32.51877103794298</v>
+        <v>152.9313987541744</v>
       </c>
       <c r="N13" t="n">
         <v>161.6281067837865</v>
       </c>
       <c r="O13" t="n">
-        <v>0</v>
+        <v>140.669380155291</v>
       </c>
       <c r="P13" t="n">
-        <v>119.669665252819</v>
+        <v>0</v>
       </c>
       <c r="Q13" t="n">
-        <v>50.93127818937863</v>
+        <v>50.9312781893786</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35644,28 +35644,28 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>0</v>
+        <v>101.3666451884737</v>
       </c>
       <c r="K14" t="n">
         <v>171.4210720067668</v>
       </c>
       <c r="L14" t="n">
-        <v>47.19277018258597</v>
+        <v>47.19277018258595</v>
       </c>
       <c r="M14" t="n">
         <v>188.4979333192472</v>
       </c>
       <c r="N14" t="n">
-        <v>76.0887809451438</v>
+        <v>188.4979333192472</v>
       </c>
       <c r="O14" t="n">
-        <v>188.4979333192472</v>
+        <v>34.56629766936133</v>
       </c>
       <c r="P14" t="n">
-        <v>0</v>
+        <v>14.83300347739751</v>
       </c>
       <c r="Q14" t="n">
-        <v>74.67716539008875</v>
+        <v>0</v>
       </c>
       <c r="R14" t="n">
         <v>0</v>
@@ -35726,7 +35726,7 @@
         <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>38.34679395543472</v>
+        <v>38.34679395543471</v>
       </c>
       <c r="L15" t="n">
         <v>118.5181001296708</v>
@@ -35741,7 +35741,7 @@
         <v>133.0312521404388</v>
       </c>
       <c r="P15" t="n">
-        <v>84.46981137181808</v>
+        <v>84.46981137181805</v>
       </c>
       <c r="Q15" t="n">
         <v>0</v>
@@ -35796,34 +35796,34 @@
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>12.32386649840122</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>0</v>
+        <v>57.90865657015884</v>
       </c>
       <c r="K16" t="n">
-        <v>111.1182840138778</v>
+        <v>0</v>
       </c>
       <c r="L16" t="n">
         <v>0</v>
       </c>
       <c r="M16" t="n">
-        <v>152.9313987541744</v>
+        <v>0</v>
       </c>
       <c r="N16" t="n">
-        <v>106.0252062454734</v>
+        <v>161.6281067837864</v>
       </c>
       <c r="O16" t="n">
         <v>140.669380155291</v>
       </c>
       <c r="P16" t="n">
-        <v>0</v>
+        <v>119.6696652528189</v>
       </c>
       <c r="Q16" t="n">
-        <v>0</v>
+        <v>18.54459390836019</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35878,40 +35878,40 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>56.43790171150837</v>
+        <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>45.62633272499519</v>
+        <v>0</v>
       </c>
       <c r="K17" t="n">
+        <v>0</v>
+      </c>
+      <c r="L17" t="n">
+        <v>47.19277018258595</v>
+      </c>
+      <c r="M17" t="n">
+        <v>81.67868594641136</v>
+      </c>
+      <c r="N17" t="n">
         <v>188.4979333192472</v>
       </c>
-      <c r="L17" t="n">
+      <c r="O17" t="n">
+        <v>34.56629766936133</v>
+      </c>
+      <c r="P17" t="n">
+        <v>136.0113583576906</v>
+      </c>
+      <c r="Q17" t="n">
         <v>188.4979333192472</v>
       </c>
-      <c r="M17" t="n">
-        <v>81.67868594641138</v>
-      </c>
-      <c r="N17" t="n">
-        <v>76.0887809451438</v>
-      </c>
-      <c r="O17" t="n">
-        <v>34.56629766936135</v>
-      </c>
-      <c r="P17" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q17" t="n">
-        <v>0</v>
-      </c>
       <c r="R17" t="n">
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>0</v>
+        <v>69.93067636853618</v>
       </c>
       <c r="T17" t="n">
-        <v>74.98178952716516</v>
+        <v>0</v>
       </c>
       <c r="U17" t="n">
         <v>0</v>
@@ -35963,7 +35963,7 @@
         <v>0</v>
       </c>
       <c r="K18" t="n">
-        <v>38.34679395543472</v>
+        <v>38.34679395543471</v>
       </c>
       <c r="L18" t="n">
         <v>118.5181001296708</v>
@@ -35978,7 +35978,7 @@
         <v>133.0312521404388</v>
       </c>
       <c r="P18" t="n">
-        <v>84.46981137181808</v>
+        <v>84.46981137181805</v>
       </c>
       <c r="Q18" t="n">
         <v>0</v>
@@ -36118,28 +36118,28 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>0</v>
+        <v>188.4979333192472</v>
       </c>
       <c r="K20" t="n">
         <v>0</v>
       </c>
       <c r="L20" t="n">
-        <v>47.19277018258597</v>
+        <v>94.38451583015916</v>
       </c>
       <c r="M20" t="n">
-        <v>95.41112534260188</v>
+        <v>81.67868594641139</v>
       </c>
       <c r="N20" t="n">
+        <v>76.08878094514381</v>
+      </c>
+      <c r="O20" t="n">
         <v>188.4979333192472</v>
       </c>
-      <c r="O20" t="n">
-        <v>34.56629766936135</v>
-      </c>
       <c r="P20" t="n">
         <v>0</v>
       </c>
       <c r="Q20" t="n">
-        <v>188.4979333192472</v>
+        <v>0</v>
       </c>
       <c r="R20" t="n">
         <v>0</v>
@@ -36148,7 +36148,7 @@
         <v>69.93067636853624</v>
       </c>
       <c r="T20" t="n">
-        <v>74.98178952716516</v>
+        <v>0</v>
       </c>
       <c r="U20" t="n">
         <v>47.29712943433466</v>
@@ -36200,7 +36200,7 @@
         <v>0</v>
       </c>
       <c r="K21" t="n">
-        <v>38.34679395543481</v>
+        <v>38.34679395543473</v>
       </c>
       <c r="L21" t="n">
         <v>118.5181001296708</v>
@@ -36355,31 +36355,31 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>0</v>
+        <v>27.28712823646557</v>
       </c>
       <c r="K23" t="n">
         <v>188.4979333192473</v>
       </c>
       <c r="L23" t="n">
-        <v>47.19277018258597</v>
+        <v>47.19277018258595</v>
       </c>
       <c r="M23" t="n">
-        <v>133.6890850227523</v>
+        <v>81.67868594641136</v>
       </c>
       <c r="N23" t="n">
+        <v>76.08878094514378</v>
+      </c>
+      <c r="O23" t="n">
+        <v>34.56629766936133</v>
+      </c>
+      <c r="P23" t="n">
         <v>188.4979333192473</v>
       </c>
-      <c r="O23" t="n">
-        <v>188.4979333192473</v>
-      </c>
-      <c r="P23" t="n">
-        <v>0</v>
-      </c>
       <c r="Q23" t="n">
         <v>0</v>
       </c>
       <c r="R23" t="n">
-        <v>0</v>
+        <v>102.5661255446176</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36437,7 +36437,7 @@
         <v>0</v>
       </c>
       <c r="K24" t="n">
-        <v>38.34679395543525</v>
+        <v>38.34679395543519</v>
       </c>
       <c r="L24" t="n">
         <v>118.5181001296708</v>
@@ -36452,7 +36452,7 @@
         <v>133.0312521404388</v>
       </c>
       <c r="P24" t="n">
-        <v>84.46981137181808</v>
+        <v>84.46981137181805</v>
       </c>
       <c r="Q24" t="n">
         <v>0</v>
@@ -36592,22 +36592,22 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>136.7031315594069</v>
+        <v>136.703131559407</v>
       </c>
       <c r="K26" t="n">
         <v>206.7575583777</v>
       </c>
       <c r="L26" t="n">
-        <v>260.6775207065869</v>
+        <v>260.677520706587</v>
       </c>
       <c r="M26" t="n">
-        <v>295.1634364704129</v>
+        <v>295.1634364704124</v>
       </c>
       <c r="N26" t="n">
-        <v>289.5735314691447</v>
+        <v>289.5735314691448</v>
       </c>
       <c r="O26" t="n">
-        <v>248.0510481933623</v>
+        <v>248.0510481933624</v>
       </c>
       <c r="P26" t="n">
         <v>198.3927781729122</v>
@@ -36616,7 +36616,7 @@
         <v>123.773013486579</v>
       </c>
       <c r="R26" t="n">
-        <v>18.60320514163409</v>
+        <v>18.60320514163416</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36674,7 +36674,7 @@
         <v>0</v>
       </c>
       <c r="K27" t="n">
-        <v>38.34679395543472</v>
+        <v>38.34679395543471</v>
       </c>
       <c r="L27" t="n">
         <v>118.5181001296708</v>
@@ -36689,7 +36689,7 @@
         <v>133.0312521404388</v>
       </c>
       <c r="P27" t="n">
-        <v>84.46981137181808</v>
+        <v>84.46981137181805</v>
       </c>
       <c r="Q27" t="n">
         <v>0</v>
@@ -36756,25 +36756,25 @@
         <v>0</v>
       </c>
       <c r="L28" t="n">
-        <v>0</v>
+        <v>35.60693690676207</v>
       </c>
       <c r="M28" t="n">
         <v>0</v>
       </c>
       <c r="N28" t="n">
-        <v>67.51058906936342</v>
+        <v>196.9645931547197</v>
       </c>
       <c r="O28" t="n">
         <v>0</v>
       </c>
       <c r="P28" t="n">
-        <v>155.0061516237521</v>
+        <v>0</v>
       </c>
       <c r="Q28" t="n">
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>10.05478936836681</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
         <v>0</v>
@@ -36829,10 +36829,10 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>136.7031315594069</v>
+        <v>136.703131559407</v>
       </c>
       <c r="K29" t="n">
-        <v>206.7575583777</v>
+        <v>206.7575583777001</v>
       </c>
       <c r="L29" t="n">
         <v>260.677520706587</v>
@@ -36844,16 +36844,16 @@
         <v>289.5735314691448</v>
       </c>
       <c r="O29" t="n">
-        <v>248.0510481933623</v>
+        <v>248.0510481933624</v>
       </c>
       <c r="P29" t="n">
         <v>198.3927781729122</v>
       </c>
       <c r="Q29" t="n">
-        <v>123.773013486579</v>
+        <v>123.7730134865791</v>
       </c>
       <c r="R29" t="n">
-        <v>18.60320514163415</v>
+        <v>18.6032051416342</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36911,7 +36911,7 @@
         <v>0</v>
       </c>
       <c r="K30" t="n">
-        <v>38.34679395543472</v>
+        <v>38.34679395543471</v>
       </c>
       <c r="L30" t="n">
         <v>118.5181001296708</v>
@@ -36926,7 +36926,7 @@
         <v>133.0312521404388</v>
       </c>
       <c r="P30" t="n">
-        <v>84.46981137181808</v>
+        <v>84.46981137181805</v>
       </c>
       <c r="Q30" t="n">
         <v>0</v>
@@ -36999,16 +36999,16 @@
         <v>0</v>
       </c>
       <c r="N31" t="n">
-        <v>146.3037655011701</v>
+        <v>0</v>
       </c>
       <c r="O31" t="n">
         <v>0</v>
       </c>
       <c r="P31" t="n">
-        <v>0</v>
+        <v>155.0061516237522</v>
       </c>
       <c r="Q31" t="n">
-        <v>86.26776456031176</v>
+        <v>77.56537843772934</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37072,16 +37072,16 @@
         <v>207.5852682445643</v>
       </c>
       <c r="L32" t="n">
-        <v>241.388105823336</v>
+        <v>261.5052305734513</v>
       </c>
       <c r="M32" t="n">
         <v>295.9911463372767</v>
       </c>
       <c r="N32" t="n">
-        <v>290.4012413360091</v>
+        <v>270.2841165858941</v>
       </c>
       <c r="O32" t="n">
-        <v>248.8787580602267</v>
+        <v>248.8787580602266</v>
       </c>
       <c r="P32" t="n">
         <v>199.2204880397765</v>
@@ -37090,7 +37090,7 @@
         <v>124.6007233534433</v>
       </c>
       <c r="R32" t="n">
-        <v>19.43091500849847</v>
+        <v>19.43091500849846</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37148,7 +37148,7 @@
         <v>0</v>
       </c>
       <c r="K33" t="n">
-        <v>38.34679395543472</v>
+        <v>38.34679395543471</v>
       </c>
       <c r="L33" t="n">
         <v>118.5181001296708</v>
@@ -37163,7 +37163,7 @@
         <v>133.0312521404388</v>
       </c>
       <c r="P33" t="n">
-        <v>84.46981137181808</v>
+        <v>84.46981137181805</v>
       </c>
       <c r="Q33" t="n">
         <v>0</v>
@@ -37236,13 +37236,13 @@
         <v>0</v>
       </c>
       <c r="N34" t="n">
-        <v>70.82605846164172</v>
+        <v>49.82634355916964</v>
       </c>
       <c r="O34" t="n">
-        <v>0</v>
+        <v>176.8335763930885</v>
       </c>
       <c r="P34" t="n">
-        <v>155.8338614906164</v>
+        <v>0</v>
       </c>
       <c r="Q34" t="n">
         <v>0</v>
@@ -37303,40 +37303,40 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>195.2775492916747</v>
+        <v>0</v>
       </c>
       <c r="K35" t="n">
-        <v>47.20297631219535</v>
+        <v>260.4608093700286</v>
       </c>
       <c r="L35" t="n">
-        <v>47.19277018258597</v>
+        <v>47.19277018258595</v>
       </c>
       <c r="M35" t="n">
-        <v>81.67868594641138</v>
+        <v>81.67868594641136</v>
       </c>
       <c r="N35" t="n">
-        <v>76.0887809451438</v>
+        <v>260.4608093700286</v>
       </c>
       <c r="O35" t="n">
-        <v>260.4608093700288</v>
+        <v>34.56629766936133</v>
       </c>
       <c r="P35" t="n">
-        <v>256.9671959051799</v>
+        <v>256.96719590518</v>
       </c>
       <c r="Q35" t="n">
-        <v>0</v>
+        <v>89.99299997106269</v>
       </c>
       <c r="R35" t="n">
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>44.54217369782054</v>
+        <v>0</v>
       </c>
       <c r="T35" t="n">
         <v>0</v>
       </c>
       <c r="U35" t="n">
-        <v>21.90862676361897</v>
+        <v>0</v>
       </c>
       <c r="V35" t="n">
         <v>0</v>
@@ -37385,7 +37385,7 @@
         <v>0</v>
       </c>
       <c r="K36" t="n">
-        <v>38.34679395543472</v>
+        <v>38.34679395543471</v>
       </c>
       <c r="L36" t="n">
         <v>118.5181001296708</v>
@@ -37400,7 +37400,7 @@
         <v>133.0312521404388</v>
       </c>
       <c r="P36" t="n">
-        <v>84.46981137181808</v>
+        <v>84.46981137181805</v>
       </c>
       <c r="Q36" t="n">
         <v>0</v>
@@ -37485,10 +37485,10 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>16.9343829326567</v>
       </c>
       <c r="S37" t="n">
-        <v>35.55650193384704</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
         <v>0</v>
@@ -37497,7 +37497,7 @@
         <v>0</v>
       </c>
       <c r="V37" t="n">
-        <v>0</v>
+        <v>18.62211900119024</v>
       </c>
       <c r="W37" t="n">
         <v>0</v>
@@ -37537,43 +37537,43 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>31.04939904079267</v>
+        <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>0</v>
+        <v>10.4148604232971</v>
       </c>
       <c r="K38" t="n">
         <v>0</v>
       </c>
       <c r="L38" t="n">
-        <v>260.4608093700288</v>
+        <v>260.4608093700285</v>
       </c>
       <c r="M38" t="n">
-        <v>90.75340462778523</v>
+        <v>81.67868594641136</v>
       </c>
       <c r="N38" t="n">
-        <v>76.0887809451438</v>
+        <v>260.4608093700285</v>
       </c>
       <c r="O38" t="n">
-        <v>34.56629766936135</v>
+        <v>34.56629766936133</v>
       </c>
       <c r="P38" t="n">
-        <v>256.9671959051799</v>
+        <v>256.96719590518</v>
       </c>
       <c r="Q38" t="n">
-        <v>182.3474312188467</v>
+        <v>0</v>
       </c>
       <c r="R38" t="n">
-        <v>77.17762287390188</v>
+        <v>77.17762287390192</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
       </c>
       <c r="T38" t="n">
-        <v>0</v>
+        <v>49.59328685644952</v>
       </c>
       <c r="U38" t="n">
-        <v>21.90862676361897</v>
+        <v>0</v>
       </c>
       <c r="V38" t="n">
         <v>0</v>
@@ -37622,7 +37622,7 @@
         <v>0</v>
       </c>
       <c r="K39" t="n">
-        <v>38.34679395543472</v>
+        <v>38.34679395543471</v>
       </c>
       <c r="L39" t="n">
         <v>118.5181001296708</v>
@@ -37637,7 +37637,7 @@
         <v>133.0312521404388</v>
       </c>
       <c r="P39" t="n">
-        <v>84.46981137181808</v>
+        <v>84.46981137181805</v>
       </c>
       <c r="Q39" t="n">
         <v>0</v>
@@ -37713,7 +37713,7 @@
         <v>0</v>
       </c>
       <c r="O40" t="n">
-        <v>0</v>
+        <v>16.9343829326567</v>
       </c>
       <c r="P40" t="n">
         <v>0</v>
@@ -37722,7 +37722,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>16.93438293265675</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
         <v>0</v>
@@ -37734,7 +37734,7 @@
         <v>0</v>
       </c>
       <c r="V40" t="n">
-        <v>18.62211900119029</v>
+        <v>18.62211900119024</v>
       </c>
       <c r="W40" t="n">
         <v>0</v>
@@ -37777,37 +37777,37 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>164.228150250882</v>
+        <v>0</v>
       </c>
       <c r="K41" t="n">
-        <v>47.96910033376506</v>
+        <v>234.2825770691751</v>
       </c>
       <c r="L41" t="n">
-        <v>47.19277018258597</v>
+        <v>288.202539398062</v>
       </c>
       <c r="M41" t="n">
         <v>322.6884551618874</v>
       </c>
       <c r="N41" t="n">
-        <v>317.0985501606198</v>
+        <v>190.20951428758</v>
       </c>
       <c r="O41" t="n">
-        <v>34.56629766936135</v>
+        <v>275.5760668848374</v>
       </c>
       <c r="P41" t="n">
-        <v>225.9177968643872</v>
+        <v>0</v>
       </c>
       <c r="Q41" t="n">
-        <v>151.298032178054</v>
+        <v>0</v>
       </c>
       <c r="R41" t="n">
-        <v>46.12822383310917</v>
+        <v>46.12822383310919</v>
       </c>
       <c r="S41" t="n">
-        <v>13.49277465702783</v>
+        <v>13.49277465702786</v>
       </c>
       <c r="T41" t="n">
-        <v>18.54388781565676</v>
+        <v>18.54388781565679</v>
       </c>
       <c r="U41" t="n">
         <v>0</v>
@@ -37859,7 +37859,7 @@
         <v>0</v>
       </c>
       <c r="K42" t="n">
-        <v>38.34679395543472</v>
+        <v>38.34679395543471</v>
       </c>
       <c r="L42" t="n">
         <v>118.5181001296708</v>
@@ -37874,7 +37874,7 @@
         <v>133.0312521404388</v>
       </c>
       <c r="P42" t="n">
-        <v>84.46981137181808</v>
+        <v>84.46981137181805</v>
       </c>
       <c r="Q42" t="n">
         <v>0</v>
@@ -37950,13 +37950,13 @@
         <v>0</v>
       </c>
       <c r="O43" t="n">
-        <v>103.0986344208987</v>
+        <v>0</v>
       </c>
       <c r="P43" t="n">
         <v>0</v>
       </c>
       <c r="Q43" t="n">
-        <v>0</v>
+        <v>103.0986344208986</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -38017,34 +38017,34 @@
         <v>0</v>
       </c>
       <c r="K44" t="n">
-        <v>234.282577069175</v>
+        <v>234.2825770691751</v>
       </c>
       <c r="L44" t="n">
-        <v>288.202539398062</v>
+        <v>47.19277018258595</v>
       </c>
       <c r="M44" t="n">
-        <v>81.67868594641138</v>
+        <v>322.6884551618874</v>
       </c>
       <c r="N44" t="n">
-        <v>76.0887809451438</v>
+        <v>317.0985501606198</v>
       </c>
       <c r="O44" t="n">
-        <v>275.5760668848374</v>
+        <v>241.9438896686801</v>
       </c>
       <c r="P44" t="n">
         <v>225.9177968643872</v>
       </c>
       <c r="Q44" t="n">
-        <v>129.2127056935261</v>
+        <v>0</v>
       </c>
       <c r="R44" t="n">
-        <v>46.12822383310917</v>
+        <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>13.49277465702783</v>
+        <v>0</v>
       </c>
       <c r="T44" t="n">
-        <v>18.54388781565676</v>
+        <v>0</v>
       </c>
       <c r="U44" t="n">
         <v>0</v>
@@ -38096,7 +38096,7 @@
         <v>0</v>
       </c>
       <c r="K45" t="n">
-        <v>38.34679395543472</v>
+        <v>38.34679395543471</v>
       </c>
       <c r="L45" t="n">
         <v>118.5181001296708</v>
@@ -38111,7 +38111,7 @@
         <v>133.0312521404388</v>
       </c>
       <c r="P45" t="n">
-        <v>84.46981137181808</v>
+        <v>84.46981137181805</v>
       </c>
       <c r="Q45" t="n">
         <v>0</v>
@@ -38181,7 +38181,7 @@
         <v>0</v>
       </c>
       <c r="M46" t="n">
-        <v>42.69889074660835</v>
+        <v>0</v>
       </c>
       <c r="N46" t="n">
         <v>0</v>
@@ -38193,16 +38193,16 @@
         <v>0</v>
       </c>
       <c r="Q46" t="n">
-        <v>0</v>
+        <v>103.0986344208986</v>
       </c>
       <c r="R46" t="n">
-        <v>37.57980805984189</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>5.57172484929545</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>17.248210765153</v>
+        <v>0</v>
       </c>
       <c r="U46" t="n">
         <v>0</v>
